--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A96010-793E-FA43-9485-C4EDDDE53143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A9E7E052-76B3-984C-8E3A-922ADED91A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37120" yWindow="500" windowWidth="46440" windowHeight="28300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="row_health_marketing" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,31 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">row_health_marketing!$A$1:$N$59</definedName>
   </definedNames>
-  <calcPr calcId="0" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="60" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="607" uniqueCount="149">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="615" uniqueCount="151">
   <si>
     <t>campaign_id</t>
   </si>
@@ -480,20 +491,26 @@
   </si>
   <si>
     <t>Customer Acquisition:  Signup Rates, Cost-Per-Signup, and Total Signups</t>
+  </si>
+  <si>
+    <t>weighted_signup_rate</t>
+  </si>
+  <si>
+    <t>avg_cost_per_signup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1015,25 +1032,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="16" fillId="33" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="33" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1085,12 +1102,108 @@
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="129">
+  <dxfs count="58">
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.0000"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1102,19 +1215,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1123,13 +1227,34 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.0000"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1144,328 +1269,7 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1475,6 +1279,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7128"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1487,11 +1296,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1" refreshedBy="Sean Atkinson" refreshedDateIso="2023-07-28T14:25:07.62999979779124050" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="57">
+<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Sean Atkinson" refreshedDateIso="2023-07-31T17:40:59.26999999210238550" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="57" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N58" sheet="row_health_marketing"/>
   </cacheSource>
-  <cacheFields count="14">
+  <cacheFields count="24">
     <cacheField name="campaign_id" numFmtId="0">
       <sharedItems count="57">
         <s v="CAM001"/>
@@ -1647,47 +1456,30 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="47785"/>
     </cacheField>
     <cacheField name="num_signups" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3534" count="26">
-        <n v="965"/>
-        <n v="586"/>
-        <n v="46"/>
-        <n v="1546"/>
-        <n v="1"/>
-        <n v="1273"/>
-        <n v="2"/>
-        <n v="11"/>
-        <n v="114"/>
-        <n v="51"/>
-        <n v="22"/>
-        <n v="24"/>
-        <n v="161"/>
-        <n v="27"/>
-        <n v="3279"/>
-        <n v="971"/>
-        <n v="42"/>
-        <n v="246"/>
-        <n v="33"/>
-        <n v="31"/>
-        <n v="12"/>
-        <n v="2743"/>
-        <n v="3534"/>
-        <n v="228"/>
-        <n v="266"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3534"/>
     </cacheField>
     <cacheField name="signup_rate" numFmtId="10">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.3869602032176101E-6" maxValue="3.7168442530038502E-2"/>
     </cacheField>
-    <cacheField name="cost_per_signup" numFmtId="165">
+    <cacheField name="cost_per_signup" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.22818931635540399" maxValue="1519.167326"/>
     </cacheField>
-    <cacheField name="click_through_rate" numFmtId="9">
+    <cacheField name="click_through_rate" numFmtId="10">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="0.657391304347826"/>
     </cacheField>
-    <cacheField name="cost_per_clicK" numFmtId="165">
+    <cacheField name="cost_per_clicK" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.83939021798365E-3" maxValue="1.3449112089481099"/>
     </cacheField>
+    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
+    <cacheField name="Field2" numFmtId="0" formula="num_signups /impressions" databaseField="0"/>
+    <cacheField name="weighted_cost_per_signup" numFmtId="0" formula="cost/num_signups" databaseField="0"/>
+    <cacheField name="Field3" numFmtId="0" formula="cost/num_signups" databaseField="0"/>
+    <cacheField name="Field4" numFmtId="0" formula="num_signups" databaseField="0"/>
+    <cacheField name="Field5" numFmtId="0" formula="cost" databaseField="0"/>
+    <cacheField name="Field6" numFmtId="0" formula="num_signups /cost" databaseField="0"/>
+    <cacheField name="Field7" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
+    <cacheField name="Field8" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
+    <cacheField name="Field9" numFmtId="0" formula="Field7" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1698,7 +1490,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" count="57">
+<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="57">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -1709,7 +1501,7 @@
     <n v="1335.5667840000001"/>
     <n v="291270"/>
     <n v="20510"/>
-    <x v="0"/>
+    <n v="965"/>
     <n v="3.3130772135818898E-3"/>
     <n v="1.3840070300518099"/>
     <n v="7.04157654409997E-2"/>
@@ -1725,7 +1517,7 @@
     <n v="1624.442464"/>
     <n v="428100"/>
     <n v="47330"/>
-    <x v="1"/>
+    <n v="586"/>
     <n v="1.3688390562952501E-3"/>
     <n v="2.77208611604095"/>
     <n v="0.11055828077551901"/>
@@ -1741,7 +1533,7 @@
     <n v="1944.2260080000001"/>
     <n v="260280"/>
     <n v="36990"/>
-    <x v="2"/>
+    <n v="46"/>
     <n v="1.76732749346857E-4"/>
     <n v="42.265782782608603"/>
     <n v="0.14211618257261399"/>
@@ -1757,7 +1549,7 @@
     <n v="1354.9371860000001"/>
     <n v="100690"/>
     <n v="42440"/>
-    <x v="3"/>
+    <n v="1546"/>
     <n v="1.5354057006653999E-2"/>
     <n v="0.87641473868046504"/>
     <n v="0.42149170722017998"/>
@@ -1773,7 +1565,7 @@
     <n v="1519.167326"/>
     <n v="148170"/>
     <n v="2345"/>
-    <x v="4"/>
+    <n v="1"/>
     <n v="6.7490045218330297E-6"/>
     <n v="1519.167326"/>
     <n v="1.58264156036984E-2"/>
@@ -1789,7 +1581,7 @@
     <n v="1254.28613"/>
     <n v="100630"/>
     <n v="22080"/>
-    <x v="5"/>
+    <n v="1273"/>
     <n v="1.2650303090529599E-2"/>
     <n v="0.98529939512961495"/>
     <n v="0.21941766868727"/>
@@ -1805,7 +1597,7 @@
     <n v="1173.5859310000001"/>
     <n v="482520"/>
     <n v="45155"/>
-    <x v="6"/>
+    <n v="2"/>
     <n v="4.1449059106358197E-6"/>
     <n v="586.79296550000004"/>
     <n v="9.3581613197380398E-2"/>
@@ -1821,7 +1613,7 @@
     <n v="223.08559940000001"/>
     <n v="336700"/>
     <n v="42175"/>
-    <x v="7"/>
+    <n v="11"/>
     <n v="3.2670032670032597E-5"/>
     <n v="20.2805090363636"/>
     <n v="0.125259875259875"/>
@@ -1837,7 +1629,7 @@
     <n v="394.6410831"/>
     <n v="480790"/>
     <n v="34210"/>
-    <x v="8"/>
+    <n v="114"/>
     <n v="2.37109756858503E-4"/>
     <n v="3.4617638868421001"/>
     <n v="7.1153726159029901E-2"/>
@@ -1853,7 +1645,7 @@
     <n v="820.58037650000006"/>
     <n v="221170"/>
     <n v="12460"/>
-    <x v="9"/>
+    <n v="51"/>
     <n v="2.3059185242121401E-4"/>
     <n v="16.0898113039215"/>
     <n v="5.6336754532712301E-2"/>
@@ -1869,7 +1661,7 @@
     <n v="1334.056787"/>
     <n v="200340"/>
     <n v="3634"/>
-    <x v="10"/>
+    <n v="22"/>
     <n v="1.09813317360487E-4"/>
     <n v="60.638944863636297"/>
     <n v="1.8139163422182199E-2"/>
@@ -1885,7 +1677,7 @@
     <n v="244.00899559999999"/>
     <n v="72280"/>
     <n v="6010"/>
-    <x v="4"/>
+    <n v="1"/>
     <n v="1.38350857775318E-5"/>
     <n v="244.00899559999999"/>
     <n v="8.31488655229662E-2"/>
@@ -1901,7 +1693,7 @@
     <n v="1134.3168089999999"/>
     <n v="289290"/>
     <n v="18240"/>
-    <x v="11"/>
+    <n v="24"/>
     <n v="8.2961733900238494E-5"/>
     <n v="47.263200374999997"/>
     <n v="6.3050917764181202E-2"/>
@@ -1917,7 +1709,7 @@
     <n v="125.0467452"/>
     <n v="290300"/>
     <n v="44040"/>
-    <x v="12"/>
+    <n v="161"/>
     <n v="5.5459869100930002E-4"/>
     <n v="0.77668785838509302"/>
     <n v="0.15170513262142599"/>
@@ -1933,7 +1725,7 @@
     <n v="1555.5775610000001"/>
     <n v="215420"/>
     <n v="41970"/>
-    <x v="6"/>
+    <n v="2"/>
     <n v="9.2841890260885706E-6"/>
     <n v="777.78878050000003"/>
     <n v="0.19482870671246799"/>
@@ -1949,7 +1741,7 @@
     <n v="1367.173425"/>
     <n v="295250"/>
     <n v="15760"/>
-    <x v="4"/>
+    <n v="1"/>
     <n v="3.3869602032176101E-6"/>
     <n v="1367.173425"/>
     <n v="5.3378492802709503E-2"/>
@@ -1965,7 +1757,7 @@
     <n v="1089.2830349999999"/>
     <n v="451840"/>
     <n v="23370"/>
-    <x v="13"/>
+    <n v="27"/>
     <n v="5.97556657223796E-5"/>
     <n v="40.343816111111103"/>
     <n v="5.1721848441926302E-2"/>
@@ -1981,7 +1773,7 @@
     <n v="1185.1710310000001"/>
     <n v="88220"/>
     <n v="43453"/>
-    <x v="14"/>
+    <n v="3279"/>
     <n v="3.7168442530038502E-2"/>
     <n v="0.36144282738639799"/>
     <n v="0.49255270913624999"/>
@@ -1997,7 +1789,7 @@
     <n v="1872.2426700000001"/>
     <n v="215500"/>
     <n v="24470"/>
-    <x v="2"/>
+    <n v="46"/>
     <n v="2.1345707656612501E-4"/>
     <n v="40.700927608695601"/>
     <n v="0.113549883990719"/>
@@ -2013,7 +1805,7 @@
     <n v="1822.723467"/>
     <n v="441280"/>
     <n v="30515"/>
-    <x v="15"/>
+    <n v="971"/>
     <n v="2.20041696881798E-3"/>
     <n v="1.87716114006179"/>
     <n v="6.9151105873821603E-2"/>
@@ -2029,7 +1821,7 @@
     <n v="1606.227668"/>
     <n v="449340"/>
     <m/>
-    <x v="16"/>
+    <n v="42"/>
     <n v="9.3470423287488297E-5"/>
     <n v="38.2435159047619"/>
     <m/>
@@ -2045,7 +1837,7 @@
     <n v="738.83006690000002"/>
     <n v="380140"/>
     <n v="26000"/>
-    <x v="17"/>
+    <n v="246"/>
     <n v="6.4713000473509696E-4"/>
     <n v="3.0033742556910501"/>
     <n v="6.8395854158994004E-2"/>
@@ -2061,7 +1853,7 @@
     <n v="303.76905299999999"/>
     <n v="281960"/>
     <n v="38420"/>
-    <x v="7"/>
+    <n v="11"/>
     <n v="3.9012625904383598E-5"/>
     <n v="27.615368454545401"/>
     <n v="0.13626046247694701"/>
@@ -2077,7 +1869,7 @@
     <n v="710.72004479999998"/>
     <n v="88390"/>
     <n v="6360"/>
-    <x v="18"/>
+    <n v="33"/>
     <n v="3.73345401063468E-4"/>
     <n v="21.536971054545401"/>
     <n v="7.1953840932232102E-2"/>
@@ -2093,7 +1885,7 @@
     <n v="1528.7282809999999"/>
     <n v="204520"/>
     <m/>
-    <x v="19"/>
+    <n v="31"/>
     <n v="1.5157441814981401E-4"/>
     <n v="49.313815516128997"/>
     <m/>
@@ -2109,7 +1901,7 @@
     <n v="1260.901406"/>
     <n v="265110"/>
     <n v="38585"/>
-    <x v="4"/>
+    <n v="1"/>
     <n v="3.7720191618573401E-6"/>
     <n v="1260.901406"/>
     <n v="0.145543359360265"/>
@@ -2125,7 +1917,7 @@
     <n v="1440.586227"/>
     <n v="155890"/>
     <n v="47785"/>
-    <x v="20"/>
+    <n v="12"/>
     <n v="7.6977355827827305E-5"/>
     <n v="120.04885225"/>
     <n v="0.30653024568606002"/>
@@ -2141,7 +1933,7 @@
     <n v="300.1260024"/>
     <n v="84850"/>
     <n v="27785"/>
-    <x v="20"/>
+    <n v="12"/>
     <n v="1.4142604596346399E-4"/>
     <n v="25.010500199999999"/>
     <n v="0.32746022392457202"/>
@@ -2157,7 +1949,7 @@
     <n v="401.04908810000001"/>
     <n v="136160"/>
     <n v="12425"/>
-    <x v="4"/>
+    <n v="1"/>
     <n v="7.3443008225616904E-6"/>
     <n v="401.04908810000001"/>
     <n v="9.1252937720328997E-2"/>
@@ -2173,7 +1965,7 @@
     <n v="1362.2075769999999"/>
     <n v="110700"/>
     <n v="13040"/>
-    <x v="21"/>
+    <n v="2743"/>
     <n v="2.4778681120144499E-2"/>
     <n v="0.49661231388990101"/>
     <n v="0.117795844625112"/>
@@ -2189,7 +1981,7 @@
     <n v="806.42104400000005"/>
     <n v="374710"/>
     <n v="29645"/>
-    <x v="22"/>
+    <n v="3534"/>
     <n v="9.4312935336660301E-3"/>
     <n v="0.22818931635540399"/>
     <n v="7.9114515225107401E-2"/>
@@ -2205,7 +1997,7 @@
     <n v="801.4569166"/>
     <n v="452680"/>
     <m/>
-    <x v="23"/>
+    <n v="228"/>
     <n v="5.0366704957144099E-4"/>
     <n v="3.5151619149122801"/>
     <m/>
@@ -2221,7 +2013,7 @@
     <n v="846.05298670000002"/>
     <n v="32272"/>
     <n v="0"/>
-    <x v="24"/>
+    <n v="266"/>
     <n v="8.2424392662369794E-3"/>
     <n v="3.18065032593984"/>
     <n v="0"/>
@@ -2237,7 +2029,7 @@
     <n v="1612.28577"/>
     <n v="49659"/>
     <n v="4296"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="8.65099981876397E-2"/>
@@ -2253,7 +2045,7 @@
     <n v="1428.2025819999999"/>
     <n v="39736"/>
     <n v="1720"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="4.3285685524461402E-2"/>
@@ -2269,7 +2061,7 @@
     <n v="301.46786609999998"/>
     <n v="25492"/>
     <n v="0"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0"/>
@@ -2285,7 +2077,7 @@
     <n v="754.27890239999999"/>
     <n v="15970"/>
     <n v="1749"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.109517845961177"/>
@@ -2301,7 +2093,7 @@
     <n v="1380.2810300000001"/>
     <n v="24985"/>
     <n v="4094"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.163858314988993"/>
@@ -2317,7 +2109,7 @@
     <n v="1954.6454799999999"/>
     <n v="38799"/>
     <n v="2055"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="5.2965282610376502E-2"/>
@@ -2333,7 +2125,7 @@
     <n v="1833.2811380000001"/>
     <n v="19761"/>
     <n v="4962.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.25112595516421199"/>
@@ -2349,7 +2141,7 @@
     <n v="571.71946319999995"/>
     <n v="35448"/>
     <n v="0"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0"/>
@@ -2365,7 +2157,7 @@
     <n v="225.46266349999999"/>
     <n v="45711"/>
     <n v="1339.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="2.93036687011878E-2"/>
@@ -2381,7 +2173,7 @@
     <n v="1189.2004509999999"/>
     <n v="6083"/>
     <n v="3440"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.56551043892816"/>
@@ -2397,7 +2189,7 @@
     <n v="871.87562790000004"/>
     <n v="46515"/>
     <n v="2141"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="4.6028162958185501E-2"/>
@@ -2413,7 +2205,7 @@
     <n v="448.44111049999998"/>
     <n v="21487"/>
     <n v="1348.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="6.2758877460790202E-2"/>
@@ -2429,7 +2221,7 @@
     <n v="1338.129684"/>
     <n v="39003"/>
     <n v="3564.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="9.1390405866215399E-2"/>
@@ -2445,7 +2237,7 @@
     <n v="404.66677629999998"/>
     <n v="49541"/>
     <n v="2342"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="4.7273975091338398E-2"/>
@@ -2461,7 +2253,7 @@
     <n v="767.81470690000003"/>
     <n v="10255"/>
     <n v="4287"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.418039980497318"/>
@@ -2477,7 +2269,7 @@
     <n v="1609.678559"/>
     <n v="6447"/>
     <n v="2595.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.40259035210175198"/>
@@ -2493,7 +2285,7 @@
     <n v="1400.1683459999999"/>
     <n v="16260"/>
     <n v="3163.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.194557195571955"/>
@@ -2509,7 +2301,7 @@
     <n v="1253.532835"/>
     <n v="20437"/>
     <n v="0"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0"/>
@@ -2525,7 +2317,7 @@
     <n v="1868.5708460000001"/>
     <n v="15644"/>
     <n v="4065"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.25984402965993297"/>
@@ -2541,7 +2333,7 @@
     <n v="338.27535899999998"/>
     <n v="13480"/>
     <n v="0"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0"/>
@@ -2557,7 +2349,7 @@
     <n v="1412.829225"/>
     <n v="33520"/>
     <n v="1050.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="3.1339498806682499E-2"/>
@@ -2573,7 +2365,7 @@
     <n v="322.92280829999999"/>
     <n v="6900"/>
     <n v="4536"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0.657391304347826"/>
@@ -2589,7 +2381,7 @@
     <n v="359.11169430000001"/>
     <n v="42630"/>
     <n v="2316.5"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="5.43396669012432E-2"/>
@@ -2605,7 +2397,7 @@
     <n v="1062.2094480000001"/>
     <n v="29630"/>
     <n v="0"/>
-    <x v="25"/>
+    <m/>
     <m/>
     <m/>
     <n v="0"/>
@@ -2615,127 +2407,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Average of signup_rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of cost_per_signup" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="127">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="128">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="121">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="120">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable6" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
+  <pivotFields count="24">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
@@ -2872,6 +2546,16 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -3127,17 +2811,17 @@
   </pageFields>
   <dataFields count="3">
     <dataField name="Average of signup_rate" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Average of cost_per_signup" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Average of cost_per_signup" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="48">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="51">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3146,7 +2830,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="50">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3155,7 +2839,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="49">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3177,10 +2861,138 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="PivotTable4" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="weighted_signup_rate" fld="15" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cost_per_signup" fld="21" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="34">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="PivotTable5" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="24">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -3211,12 +3023,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3227,18 +3039,49 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
@@ -3246,6 +3089,9 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -3271,17 +3117,17 @@
   </pageFields>
   <dataFields count="3">
     <dataField name="Average of signup_rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of cost_per_signup" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="avg_cost_per_signup" fld="23" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="125">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="55">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3296,7 +3142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="54">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3305,12 +3151,218 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="27">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="1"/>
           </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="24">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -3327,10 +3379,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
+  <pivotFields count="24">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -3380,6 +3432,16 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" numFmtId="9" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3422,16 +3484,16 @@
   <dataFields count="3">
     <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="175"/>
+    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="87">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="42">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3440,7 +3502,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="41">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3462,10 +3524,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable6" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="14">
+  <pivotFields count="24">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
@@ -3602,6 +3664,16 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -3858,16 +3930,16 @@
   <dataFields count="3">
     <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
     <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="175"/>
+    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="118">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="46">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3876,7 +3948,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="45">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3893,125 +3965,6 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="175"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4313,11 +4266,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,7 +4336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4514,7 +4468,7 @@
         <v>5.2560854501216503E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4558,7 +4512,7 @@
         <v>3.1925946889726602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4602,7 +4556,7 @@
         <v>0.64783254840085203</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4646,7 +4600,7 @@
         <v>5.68064370471014E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4734,7 +4688,7 @@
         <v>5.2895222145820896E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4778,7 +4732,7 @@
         <v>1.1535839903536901E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -4822,7 +4776,7 @@
         <v>6.5857173073836206E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -4866,7 +4820,7 @@
         <v>0.36710423417721499</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -4910,7 +4864,7 @@
         <v>4.0600498435939998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -5042,7 +4996,7 @@
         <v>3.7064035287109803E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -5086,7 +5040,7 @@
         <v>8.6749582804568501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -5174,7 +5128,7 @@
         <v>2.72747803603893E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -5218,7 +5172,7 @@
         <v>7.6511756027789105E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -5262,7 +5216,7 @@
         <v>5.97320487301327E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -5297,7 +5251,7 @@
         <v>38.2435159047619</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -5341,7 +5295,7 @@
         <v>2.84165410346153E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -5429,7 +5383,7 @@
         <v>0.111748434716981</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -5464,7 +5418,7 @@
         <v>49.313815516128997</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -5552,7 +5506,7 @@
         <v>3.0147247609082301E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -5596,7 +5550,7 @@
         <v>1.0801727637214299E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>90</v>
       </c>
@@ -5640,7 +5594,7 @@
         <v>3.2277592603621702E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5684,7 +5638,7 @@
         <v>0.104463771242331</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -5728,7 +5682,7 @@
         <v>2.7202598886827401E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -5763,7 +5717,7 @@
         <v>3.5151619149122801</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -5804,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -5839,7 +5793,7 @@
         <v>0.37529929469273698</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -5874,7 +5828,7 @@
         <v>0.83035033837209204</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -5906,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -5976,7 +5930,7 @@
         <v>0.33714729604298899</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>107</v>
       </c>
@@ -6046,7 +6000,7 @@
         <v>0.36942692957178802</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -6078,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -6113,7 +6067,7 @@
         <v>0.168318524449421</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -6148,7 +6102,7 @@
         <v>0.34569780552325502</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -6183,7 +6137,7 @@
         <v>0.40722822414759402</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -6253,7 +6207,7 @@
         <v>0.37540459643708701</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -6323,7 +6277,7 @@
         <v>0.179103034033123</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>121</v>
       </c>
@@ -6358,7 +6312,7 @@
         <v>0.62018052745135799</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -6393,7 +6347,7 @@
         <v>0.44260102607870999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -6460,7 +6414,7 @@
         <v>0.459673024846248</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>127</v>
       </c>
@@ -6492,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -6597,7 +6551,7 @@
         <v>0.155023394906108</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>134</v>
       </c>
@@ -6629,45 +6583,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G59">
-        <f ca="1">SUM(G3:G57)</f>
-        <v>57792.4719157</v>
-      </c>
-    </row>
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:N59"/>
+  <autoFilter ref="A1:N59" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Email"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
@@ -6688,14 +6644,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="F3" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="7"/>
       <c r="H3" s="8"/>
       <c r="K3" s="4" t="s">
         <v>3</v>
@@ -6703,7 +6658,6 @@
       <c r="L3" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -6720,14 +6674,12 @@
       <c r="G4" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="8"/>
       <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L4" t="s">
         <v>139</v>
       </c>
-      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
@@ -6742,7 +6694,6 @@
       <c r="K5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="17"/>
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -6753,7 +6704,7 @@
         <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>138</v>
@@ -6762,10 +6713,10 @@
         <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I6" t="s">
         <v>138</v>
@@ -6788,25 +6739,25 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B7" s="9">
-        <v>2.2516137844564766E-4</v>
+        <v>3.1496335462018066E-3</v>
       </c>
       <c r="C7" s="11">
-        <v>70.792911652272693</v>
+        <v>0.65365708303167414</v>
       </c>
       <c r="D7" s="10">
-        <v>45</v>
+        <v>3536</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="9">
-        <v>4.9701112506596659E-3</v>
+        <v>2.0420494067178974E-3</v>
       </c>
       <c r="H7" s="11">
-        <v>123.22888905316626</v>
+        <v>4.0384909413801457</v>
       </c>
       <c r="I7" s="10">
         <v>4130</v>
@@ -6829,25 +6780,25 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9">
-        <v>3.7168442530038502E-2</v>
+        <v>6.7555639051943743E-3</v>
       </c>
       <c r="C8" s="11">
-        <v>0.36144282738639799</v>
+        <v>1.7914224210625167</v>
       </c>
       <c r="D8" s="10">
-        <v>3279</v>
+        <v>3727</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="9">
-        <v>2.6839237198272199E-3</v>
+        <v>1.2715879891850735E-3</v>
       </c>
       <c r="H8" s="11">
-        <v>289.53532604451124</v>
+        <v>5.2397022712453767</v>
       </c>
       <c r="I8" s="10">
         <v>4055</v>
@@ -6870,25 +6821,25 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B9" s="9">
-        <v>5.2608061277071324E-4</v>
+        <v>3.1451627173382016E-4</v>
       </c>
       <c r="C9" s="11">
-        <v>21.772792645004387</v>
+        <v>20.800259131012659</v>
       </c>
       <c r="D9" s="10">
-        <v>643</v>
+        <v>316</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="9">
-        <v>3.4151163175212902E-3</v>
+        <v>2.3348485815411352E-3</v>
       </c>
       <c r="H9" s="11">
-        <v>205.65472873457892</v>
+        <v>2.2456731899211566</v>
       </c>
       <c r="I9" s="10">
         <v>7610</v>
@@ -6911,25 +6862,25 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B10" s="9">
-        <v>2.8194144001769428E-4</v>
+        <v>1.86008949192339E-4</v>
       </c>
       <c r="C10" s="11">
-        <v>389.28273417919257</v>
+        <v>24.907103006349207</v>
       </c>
       <c r="D10" s="10">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>95</v>
       </c>
       <c r="G10" s="9">
-        <v>4.3730531579042105E-3</v>
+        <v>8.105815348213685E-4</v>
       </c>
       <c r="H10" s="11">
-        <v>3.3479061204260603</v>
+        <v>10.475131325101215</v>
       </c>
       <c r="I10" s="10">
         <v>494</v>
@@ -6952,25 +6903,25 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="B11" s="9">
-        <v>4.9701112506596659E-3</v>
+        <v>2.2516137844564766E-4</v>
       </c>
       <c r="C11" s="11">
-        <v>123.22888905316626</v>
+        <v>47.806806040000005</v>
       </c>
       <c r="D11" s="10">
-        <v>4130</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G11" s="9">
-        <v>3.5842533470226241E-3</v>
+        <v>1.7939121083285472E-3</v>
       </c>
       <c r="H11" s="11">
-        <v>203.91372282668738</v>
+        <v>3.6951469180244354</v>
       </c>
       <c r="I11" s="10">
         <v>16289</v>
@@ -6992,6 +6943,18 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9">
+        <v>9.3359156857956063E-3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3.5614212657092206</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2820</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="K12" t="s">
         <v>34</v>
@@ -7010,6 +6973,18 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2.4957063033624778E-4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>13.07778360664452</v>
+      </c>
+      <c r="D13" s="10">
+        <v>301</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="K13" t="s">
         <v>37</v>
@@ -7028,6 +7003,18 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="9">
+        <v>5.8281160941160016E-5</v>
+      </c>
+      <c r="C14" s="11">
+        <v>176.7255131</v>
+      </c>
+      <c r="D14" s="10">
+        <v>23</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="K14" t="s">
         <v>41</v>
@@ -7046,6 +7033,18 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2.2705440898137742E-2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1.2262246264315937</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3545</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
         <v>42</v>
@@ -7064,6 +7063,18 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="9">
+        <v>5.2608061277071324E-4</v>
+      </c>
+      <c r="C16" s="11">
+        <v>9.7306534317262816</v>
+      </c>
+      <c r="D16" s="10">
+        <v>643</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
         <v>45</v>
@@ -7081,7 +7092,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2.8194144001769428E-4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>43.470430236196322</v>
+      </c>
+      <c r="D17" s="10">
+        <v>163</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
         <v>48</v>
@@ -7099,7 +7122,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <v>9.0432173424633347E-4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>4.6749642910569102</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1107</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
         <v>49</v>
@@ -7117,7 +7152,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3.5842533470226224E-3</v>
+      </c>
+      <c r="C19" s="11">
+        <v>3.6951469180244336</v>
+      </c>
+      <c r="D19" s="10">
+        <v>16289</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
         <v>52</v>
@@ -7135,7 +7182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
@@ -7156,7 +7203,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
       <c r="D21" s="2"/>
@@ -7177,7 +7224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
@@ -7198,7 +7245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
       <c r="D23" s="2"/>
@@ -7219,7 +7266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
@@ -7240,7 +7287,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
@@ -7261,7 +7308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
@@ -7282,7 +7329,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
@@ -7303,7 +7350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
@@ -7324,7 +7371,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="2"/>
@@ -7345,7 +7392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="2"/>
@@ -7366,7 +7413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="2"/>
@@ -7387,7 +7434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
       <c r="D32" s="2"/>
@@ -7916,19 +7963,55 @@
       <c r="O63" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B7:B18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D7:D18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C7:C18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A9E7E052-76B3-984C-8E3A-922ADED91A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A732E5AE-C797-A845-B431-8D16A36CE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2977,6 +2977,59 @@
       </pivotArea>
     </format>
   </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3162,7 +3215,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="5">
+    <conditionalFormat priority="8">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3187,7 +3240,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="6">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3212,7 +3265,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -6603,8 +6656,8 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7964,7 +8017,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B7:B18">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7976,6 +8029,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D7:D18">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C7:C18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="G7:G10">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -7987,8 +8064,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C7:C18">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting pivot="1" sqref="H7:H10">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -7996,6 +8073,18 @@
         <color theme="9"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="I7:I10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A732E5AE-C797-A845-B431-8D16A36CE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0FF4248-568C-C949-A735-396D7904FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="row_health_marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="60" r:id="rId4"/>
+    <pivotCache cacheId="66" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="615" uniqueCount="151">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="623" uniqueCount="151">
   <si>
     <t>campaign_id</t>
   </si>
@@ -85,9 +85,6 @@
     <t>click_through_rate</t>
   </si>
   <si>
-    <t>cost_per_clicK</t>
-  </si>
-  <si>
     <t>CAM001</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
     <t>VALUES</t>
   </si>
   <si>
-    <t>Average of click_through_rate</t>
-  </si>
-  <si>
     <t>Sum of impressions</t>
   </si>
   <si>
@@ -484,9 +478,6 @@
     <t>Average of cost_per_signup</t>
   </si>
   <si>
-    <t>Average of cost_per_clicK</t>
-  </si>
-  <si>
     <t>Brand Awareness: Click-Through-Rates, Impressions, and Cost-Per-Click</t>
   </si>
   <si>
@@ -497,6 +488,15 @@
   </si>
   <si>
     <t>avg_cost_per_signup</t>
+  </si>
+  <si>
+    <t>cost_per_click</t>
+  </si>
+  <si>
+    <t>avg_cpc</t>
+  </si>
+  <si>
+    <t>avg_ctr</t>
   </si>
 </sst>
 </file>
@@ -1102,108 +1102,9 @@
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="81">
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1215,7 +1116,94 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
@@ -1239,10 +1227,91 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1300,7 +1369,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N58" sheet="row_health_marketing"/>
   </cacheSource>
-  <cacheFields count="24">
+  <cacheFields count="26">
     <cacheField name="campaign_id" numFmtId="0">
       <sharedItems count="57">
         <s v="CAM001"/>
@@ -1480,6 +1549,8 @@
     <cacheField name="Field7" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
     <cacheField name="Field8" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
     <cacheField name="Field9" numFmtId="0" formula="Field7" databaseField="0"/>
+    <cacheField name="avg_click_through_rate" numFmtId="0" formula="clicks /impressions" databaseField="0"/>
+    <cacheField name="cpc" numFmtId="0" formula="IFERROR(cost/clicks, 0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -2407,9 +2478,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable6" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable6" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="24">
+  <pivotFields count="26">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
@@ -2556,6 +2627,8 @@
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -2815,13 +2888,13 @@
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="53">
+    <format dxfId="76">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="74">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2830,7 +2903,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="73">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2839,7 +2912,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="72">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2849,6 +2922,41 @@
       </pivotArea>
     </format>
   </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2862,9 +2970,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="PivotTable4" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="PivotTable4" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
+  <pivotFields count="26">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -2908,6 +3016,8 @@
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -2952,13 +3062,13 @@
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="34">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="63">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2967,7 +3077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="60">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2978,7 +3088,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="6">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -2995,7 +3105,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="2">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3012,7 +3122,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3043,9 +3153,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="PivotTable5" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="PivotTable5" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="24">
+  <pivotFields count="26">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -3105,6 +3215,8 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3174,13 +3286,13 @@
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="57">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3195,7 +3307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="77">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3204,7 +3316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="59">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3215,7 +3327,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="8">
+    <conditionalFormat priority="11">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3240,7 +3352,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="6">
+    <conditionalFormat priority="9">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3265,7 +3377,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="7">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3304,9 +3416,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="24">
+  <pivotFields count="26">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -3338,8 +3450,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -3350,6 +3462,8 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -3389,18 +3503,18 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="avg_ctr" fld="24" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="avg_cpc" fld="25" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="40">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="56">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3409,17 +3523,69 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
+    <format dxfId="55">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
             <x v="1"/>
           </reference>
-          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
   </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="6">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3433,9 +3599,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="24">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="26">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -3466,12 +3632,12 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="5">
         <item x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3483,8 +3649,8 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -3495,15 +3661,38 @@
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i>
       <x v="4"/>
     </i>
     <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
       <x v="8"/>
     </i>
     <i>
@@ -3511,6 +3700,9 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -3535,18 +3727,18 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="avg_ctr" fld="24" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="avg_cpc" fld="25" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="44">
+  <formats count="5">
+    <format dxfId="68">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="66">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3555,7 +3747,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="58">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3565,6 +3767,83 @@
       </pivotArea>
     </format>
   </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3578,9 +3857,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="24">
+  <pivotFields count="26">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
@@ -3715,8 +3994,8 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -3727,6 +4006,8 @@
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -3981,18 +4262,27 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Average of click_through_rate" fld="12" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="avg_ctr" fld="24" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Average of cost_per_clicK" fld="13" subtotal="average" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="avg_cpc" fld="25" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="48">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="69">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4001,16 +4291,42 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
   </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4323,8 +4639,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4386,24 +4702,24 @@
         <v>12</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2">
         <v>45</v>
@@ -4435,19 +4751,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
       <c r="F3">
         <v>48</v>
@@ -4479,19 +4795,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
       <c r="F4">
         <v>40</v>
@@ -4523,19 +4839,19 @@
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
       <c r="F5">
         <v>36</v>
@@ -4567,19 +4883,19 @@
     </row>
     <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
       </c>
       <c r="F6">
         <v>44</v>
@@ -4611,19 +4927,19 @@
     </row>
     <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
       </c>
       <c r="F7">
         <v>44</v>
@@ -4655,19 +4971,19 @@
     </row>
     <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -4699,19 +5015,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
       </c>
       <c r="F9">
         <v>35</v>
@@ -4743,19 +5059,19 @@
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
       </c>
       <c r="F10">
         <v>38</v>
@@ -4787,19 +5103,19 @@
     </row>
     <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
       </c>
       <c r="F11">
         <v>27</v>
@@ -4831,19 +5147,19 @@
     </row>
     <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
       </c>
       <c r="F12">
         <v>25</v>
@@ -4875,19 +5191,19 @@
     </row>
     <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>51</v>
       </c>
       <c r="F13">
         <v>27</v>
@@ -4919,19 +5235,19 @@
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
       </c>
       <c r="F14">
         <v>23</v>
@@ -4963,19 +5279,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
       </c>
       <c r="F15">
         <v>29</v>
@@ -5007,19 +5323,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>59</v>
       </c>
       <c r="F16">
         <v>24</v>
@@ -5051,19 +5367,19 @@
     </row>
     <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>61</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -5095,19 +5411,19 @@
     </row>
     <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
       </c>
       <c r="F18">
         <v>25</v>
@@ -5139,19 +5455,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -5183,19 +5499,19 @@
     </row>
     <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
         <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
       </c>
       <c r="F20">
         <v>28</v>
@@ -5227,19 +5543,19 @@
     </row>
     <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
       </c>
       <c r="F21">
         <v>29</v>
@@ -5271,19 +5587,19 @@
     </row>
     <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
       </c>
       <c r="F22">
         <v>23</v>
@@ -5306,19 +5622,19 @@
     </row>
     <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
       </c>
       <c r="F23">
         <v>19</v>
@@ -5350,19 +5666,19 @@
     </row>
     <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -5394,19 +5710,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
       </c>
       <c r="F25">
         <v>23</v>
@@ -5438,19 +5754,19 @@
     </row>
     <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -5473,19 +5789,19 @@
     </row>
     <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
       </c>
       <c r="F27">
         <v>25</v>
@@ -5517,19 +5833,19 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
       </c>
       <c r="F28">
         <v>20</v>
@@ -5561,19 +5877,19 @@
     </row>
     <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
       </c>
       <c r="F29">
         <v>27</v>
@@ -5605,19 +5921,19 @@
     </row>
     <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
         <v>90</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
       </c>
       <c r="F30">
         <v>20</v>
@@ -5649,19 +5965,19 @@
     </row>
     <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>40</v>
       </c>
       <c r="F31">
         <v>23</v>
@@ -5693,19 +6009,19 @@
     </row>
     <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>51</v>
       </c>
       <c r="F32">
         <v>25</v>
@@ -5737,19 +6053,19 @@
     </row>
     <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
         <v>94</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>95</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
       </c>
       <c r="F33">
         <v>27</v>
@@ -5772,19 +6088,19 @@
     </row>
     <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
         <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" t="s">
-        <v>98</v>
       </c>
       <c r="F34">
         <v>27</v>
@@ -5813,19 +6129,19 @@
     </row>
     <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
         <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="s">
-        <v>100</v>
       </c>
       <c r="F35">
         <v>19</v>
@@ -5848,19 +6164,19 @@
     </row>
     <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
         <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
       </c>
       <c r="F36">
         <v>19</v>
@@ -5883,19 +6199,19 @@
     </row>
     <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
         <v>102</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" t="s">
-        <v>103</v>
       </c>
       <c r="F37">
         <v>13</v>
@@ -5915,19 +6231,19 @@
     </row>
     <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
         <v>104</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>105</v>
       </c>
       <c r="F38">
         <v>13</v>
@@ -5950,19 +6266,19 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
-        <v>57</v>
       </c>
       <c r="F39">
         <v>15</v>
@@ -5985,19 +6301,19 @@
     </row>
     <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>17</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
       </c>
       <c r="F40">
         <v>15</v>
@@ -6020,19 +6336,19 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" t="s">
-        <v>109</v>
       </c>
       <c r="F41">
         <v>18</v>
@@ -6055,19 +6371,19 @@
     </row>
     <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42">
         <v>11</v>
@@ -6087,19 +6403,19 @@
     </row>
     <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" t="s">
-        <v>112</v>
       </c>
       <c r="F43">
         <v>11</v>
@@ -6122,19 +6438,19 @@
     </row>
     <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F44">
         <v>17</v>
@@ -6157,19 +6473,19 @@
     </row>
     <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
       <c r="E45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45">
         <v>11</v>
@@ -6192,19 +6508,19 @@
     </row>
     <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
         <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
       </c>
       <c r="F46">
         <v>18</v>
@@ -6227,19 +6543,19 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
         <v>116</v>
-      </c>
-      <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" t="s">
-        <v>117</v>
       </c>
       <c r="F47">
         <v>20</v>
@@ -6262,19 +6578,19 @@
     </row>
     <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" t="s">
         <v>38</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>70</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s">
-        <v>71</v>
       </c>
       <c r="F48">
         <v>10</v>
@@ -6297,19 +6613,19 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" t="s">
-        <v>120</v>
       </c>
       <c r="F49">
         <v>10</v>
@@ -6332,19 +6648,19 @@
     </row>
     <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
         <v>38</v>
       </c>
-      <c r="C50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" t="s">
-        <v>39</v>
-      </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F50">
         <v>12</v>
@@ -6367,19 +6683,19 @@
     </row>
     <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
         <v>35</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" t="s">
-        <v>36</v>
       </c>
       <c r="F51">
         <v>15</v>
@@ -6402,19 +6718,19 @@
     </row>
     <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
         <v>123</v>
-      </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" t="s">
-        <v>124</v>
       </c>
       <c r="F52">
         <v>11</v>
@@ -6434,19 +6750,19 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
         <v>125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" t="s">
-        <v>126</v>
       </c>
       <c r="F53">
         <v>11</v>
@@ -6469,19 +6785,19 @@
     </row>
     <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E54" t="s">
         <v>127</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" t="s">
-        <v>128</v>
       </c>
       <c r="F54">
         <v>12</v>
@@ -6501,19 +6817,19 @@
     </row>
     <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" t="s">
         <v>129</v>
-      </c>
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" t="s">
-        <v>130</v>
       </c>
       <c r="F55">
         <v>19</v>
@@ -6536,19 +6852,19 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56">
         <v>12</v>
@@ -6571,19 +6887,19 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" t="s">
         <v>132</v>
-      </c>
-      <c r="B57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" t="s">
-        <v>70</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" t="s">
-        <v>133</v>
       </c>
       <c r="F57">
         <v>16</v>
@@ -6606,19 +6922,19 @@
     </row>
     <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" t="s">
         <v>134</v>
-      </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" t="s">
-        <v>135</v>
       </c>
       <c r="F58">
         <v>17</v>
@@ -6656,8 +6972,8 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6681,15 +6997,15 @@
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -6697,19 +7013,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="F3" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="8"/>
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -6717,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -6725,54 +7041,54 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="F5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="19"/>
       <c r="K5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>0</v>
@@ -6781,18 +7097,18 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9">
         <v>3.1496335462018066E-3</v>
@@ -6804,7 +7120,7 @@
         <v>3536</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9">
         <v>2.0420494067178974E-3</v>
@@ -6816,10 +7132,10 @@
         <v>4130</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="9">
         <v>3.3130772135818898E-3</v>
@@ -6833,7 +7149,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9">
         <v>6.7555639051943743E-3</v>
@@ -6845,7 +7161,7 @@
         <v>3727</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="9">
         <v>1.2715879891850735E-3</v>
@@ -6857,10 +7173,10 @@
         <v>4055</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="9">
         <v>1.3688390562952501E-3</v>
@@ -6874,7 +7190,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9">
         <v>3.1451627173382016E-4</v>
@@ -6886,7 +7202,7 @@
         <v>316</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="9">
         <v>2.3348485815411352E-3</v>
@@ -6898,10 +7214,10 @@
         <v>7610</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="9">
         <v>1.76732749346857E-4</v>
@@ -6915,7 +7231,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="9">
         <v>1.86008949192339E-4</v>
@@ -6927,7 +7243,7 @@
         <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="9">
         <v>8.105815348213685E-4</v>
@@ -6939,10 +7255,10 @@
         <v>494</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="9">
         <v>1.5354057006653999E-2</v>
@@ -6956,7 +7272,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9">
         <v>2.2516137844564766E-4</v>
@@ -6968,7 +7284,7 @@
         <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="9">
         <v>1.7939121083285472E-3</v>
@@ -6980,10 +7296,10 @@
         <v>16289</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="9">
         <v>6.7490045218330297E-6</v>
@@ -6997,7 +7313,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9">
         <v>9.3359156857956063E-3</v>
@@ -7010,10 +7326,10 @@
       </c>
       <c r="H12" s="8"/>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="9">
         <v>1.2650303090529599E-2</v>
@@ -7027,7 +7343,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9">
         <v>2.4957063033624778E-4</v>
@@ -7040,10 +7356,10 @@
       </c>
       <c r="H13" s="8"/>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="9">
         <v>4.1449059106358197E-6</v>
@@ -7057,7 +7373,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="9">
         <v>5.8281160941160016E-5</v>
@@ -7070,10 +7386,10 @@
       </c>
       <c r="H14" s="8"/>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="9">
         <v>3.2670032670032597E-5</v>
@@ -7087,7 +7403,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="9">
         <v>2.2705440898137742E-2</v>
@@ -7100,10 +7416,10 @@
       </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="9">
         <v>2.37109756858503E-4</v>
@@ -7117,7 +7433,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="9">
         <v>5.2608061277071324E-4</v>
@@ -7130,10 +7446,10 @@
       </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="9">
         <v>2.3059185242121401E-4</v>
@@ -7147,7 +7463,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9">
         <v>2.8194144001769428E-4</v>
@@ -7160,10 +7476,10 @@
       </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="9">
         <v>1.09813317360487E-4</v>
@@ -7177,7 +7493,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="9">
         <v>9.0432173424633347E-4</v>
@@ -7190,10 +7506,10 @@
       </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="9">
         <v>1.38350857775318E-5</v>
@@ -7207,7 +7523,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="9">
         <v>3.5842533470226224E-3</v>
@@ -7220,10 +7536,10 @@
       </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M19" s="9">
         <v>8.2961733900238494E-5</v>
@@ -7241,10 +7557,10 @@
       <c r="D20" s="2"/>
       <c r="H20" s="8"/>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M20" s="9">
         <v>5.5459869100930002E-4</v>
@@ -7262,10 +7578,10 @@
       <c r="D21" s="2"/>
       <c r="H21" s="8"/>
       <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
         <v>58</v>
-      </c>
-      <c r="L21" t="s">
-        <v>59</v>
       </c>
       <c r="M21" s="9">
         <v>9.2841890260885706E-6</v>
@@ -7283,10 +7599,10 @@
       <c r="D22" s="2"/>
       <c r="H22" s="8"/>
       <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" t="s">
         <v>60</v>
-      </c>
-      <c r="L22" t="s">
-        <v>61</v>
       </c>
       <c r="M22" s="9">
         <v>3.3869602032176101E-6</v>
@@ -7304,10 +7620,10 @@
       <c r="D23" s="2"/>
       <c r="H23" s="8"/>
       <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" t="s">
         <v>62</v>
-      </c>
-      <c r="L23" t="s">
-        <v>63</v>
       </c>
       <c r="M23" s="9">
         <v>5.97556657223796E-5</v>
@@ -7325,10 +7641,10 @@
       <c r="D24" s="2"/>
       <c r="H24" s="8"/>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="9">
         <v>3.7168442530038502E-2</v>
@@ -7346,10 +7662,10 @@
       <c r="D25" s="2"/>
       <c r="H25" s="8"/>
       <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
         <v>67</v>
-      </c>
-      <c r="L25" t="s">
-        <v>68</v>
       </c>
       <c r="M25" s="9">
         <v>2.1345707656612501E-4</v>
@@ -7367,10 +7683,10 @@
       <c r="D26" s="2"/>
       <c r="H26" s="8"/>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="9">
         <v>2.20041696881798E-3</v>
@@ -7388,10 +7704,10 @@
       <c r="D27" s="2"/>
       <c r="H27" s="8"/>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M27" s="9">
         <v>9.3470423287488297E-5</v>
@@ -7409,10 +7725,10 @@
       <c r="D28" s="2"/>
       <c r="H28" s="8"/>
       <c r="K28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" t="s">
         <v>75</v>
-      </c>
-      <c r="L28" t="s">
-        <v>76</v>
       </c>
       <c r="M28" s="9">
         <v>6.4713000473509696E-4</v>
@@ -7430,10 +7746,10 @@
       <c r="D29" s="2"/>
       <c r="H29" s="8"/>
       <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
         <v>77</v>
-      </c>
-      <c r="L29" t="s">
-        <v>78</v>
       </c>
       <c r="M29" s="9">
         <v>3.9012625904383598E-5</v>
@@ -7451,10 +7767,10 @@
       <c r="D30" s="2"/>
       <c r="H30" s="8"/>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" s="9">
         <v>3.73345401063468E-4</v>
@@ -7472,10 +7788,10 @@
       <c r="D31" s="2"/>
       <c r="H31" s="8"/>
       <c r="K31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" t="s">
         <v>82</v>
-      </c>
-      <c r="L31" t="s">
-        <v>83</v>
       </c>
       <c r="M31" s="9">
         <v>1.5157441814981401E-4</v>
@@ -7493,10 +7809,10 @@
       <c r="D32" s="2"/>
       <c r="H32" s="8"/>
       <c r="K32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" t="s">
         <v>84</v>
-      </c>
-      <c r="L32" t="s">
-        <v>85</v>
       </c>
       <c r="M32" s="9">
         <v>3.7720191618573401E-6</v>
@@ -7514,10 +7830,10 @@
       <c r="D33" s="2"/>
       <c r="H33" s="8"/>
       <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
         <v>86</v>
-      </c>
-      <c r="L33" t="s">
-        <v>87</v>
       </c>
       <c r="M33" s="9">
         <v>7.6977355827827305E-5</v>
@@ -7535,10 +7851,10 @@
       <c r="D34" s="2"/>
       <c r="H34" s="8"/>
       <c r="K34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s">
         <v>88</v>
-      </c>
-      <c r="L34" t="s">
-        <v>89</v>
       </c>
       <c r="M34" s="9">
         <v>1.4142604596346399E-4</v>
@@ -7556,10 +7872,10 @@
       <c r="D35" s="2"/>
       <c r="H35" s="8"/>
       <c r="K35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" t="s">
         <v>90</v>
-      </c>
-      <c r="L35" t="s">
-        <v>91</v>
       </c>
       <c r="M35" s="9">
         <v>7.3443008225616904E-6</v>
@@ -7577,10 +7893,10 @@
       <c r="D36" s="2"/>
       <c r="H36" s="8"/>
       <c r="K36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M36" s="9">
         <v>2.4778681120144499E-2</v>
@@ -7598,10 +7914,10 @@
       <c r="D37" s="2"/>
       <c r="H37" s="8"/>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="9">
         <v>9.4312935336660301E-3</v>
@@ -7619,10 +7935,10 @@
       <c r="D38" s="2"/>
       <c r="H38" s="8"/>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M38" s="9">
         <v>5.0366704957144099E-4</v>
@@ -7640,10 +7956,10 @@
       <c r="D39" s="2"/>
       <c r="H39" s="8"/>
       <c r="K39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s">
         <v>97</v>
-      </c>
-      <c r="L39" t="s">
-        <v>98</v>
       </c>
       <c r="M39" s="9">
         <v>8.2424392662369794E-3</v>
@@ -7661,10 +7977,10 @@
       <c r="D40" s="2"/>
       <c r="H40" s="8"/>
       <c r="K40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" t="s">
         <v>99</v>
-      </c>
-      <c r="L40" t="s">
-        <v>100</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="11"/>
@@ -7676,10 +7992,10 @@
       <c r="D41" s="2"/>
       <c r="H41" s="8"/>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="11"/>
@@ -7691,10 +8007,10 @@
       <c r="D42" s="2"/>
       <c r="H42" s="8"/>
       <c r="K42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" t="s">
         <v>102</v>
-      </c>
-      <c r="L42" t="s">
-        <v>103</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="11"/>
@@ -7706,10 +8022,10 @@
       <c r="D43" s="2"/>
       <c r="H43" s="8"/>
       <c r="K43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" t="s">
         <v>104</v>
-      </c>
-      <c r="L43" t="s">
-        <v>105</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="11"/>
@@ -7721,10 +8037,10 @@
       <c r="D44" s="2"/>
       <c r="H44" s="8"/>
       <c r="K44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="11"/>
@@ -7736,10 +8052,10 @@
       <c r="D45" s="2"/>
       <c r="H45" s="8"/>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="11"/>
@@ -7751,10 +8067,10 @@
       <c r="D46" s="2"/>
       <c r="H46" s="8"/>
       <c r="K46" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" t="s">
         <v>108</v>
-      </c>
-      <c r="L46" t="s">
-        <v>109</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="11"/>
@@ -7766,10 +8082,10 @@
       <c r="D47" s="2"/>
       <c r="H47" s="8"/>
       <c r="K47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="11"/>
@@ -7781,10 +8097,10 @@
       <c r="D48" s="2"/>
       <c r="H48" s="8"/>
       <c r="K48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" t="s">
         <v>111</v>
-      </c>
-      <c r="L48" t="s">
-        <v>112</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="11"/>
@@ -7796,10 +8112,10 @@
       <c r="D49" s="2"/>
       <c r="H49" s="8"/>
       <c r="K49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="11"/>
@@ -7811,10 +8127,10 @@
       <c r="D50" s="2"/>
       <c r="H50" s="8"/>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="11"/>
@@ -7826,10 +8142,10 @@
       <c r="D51" s="2"/>
       <c r="H51" s="8"/>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="11"/>
@@ -7841,10 +8157,10 @@
       <c r="D52" s="2"/>
       <c r="H52" s="8"/>
       <c r="K52" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" t="s">
         <v>116</v>
-      </c>
-      <c r="L52" t="s">
-        <v>117</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="11"/>
@@ -7856,10 +8172,10 @@
       <c r="D53" s="2"/>
       <c r="H53" s="8"/>
       <c r="K53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="11"/>
@@ -7871,10 +8187,10 @@
       <c r="D54" s="2"/>
       <c r="H54" s="8"/>
       <c r="K54" t="s">
+        <v>118</v>
+      </c>
+      <c r="L54" t="s">
         <v>119</v>
-      </c>
-      <c r="L54" t="s">
-        <v>120</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="11"/>
@@ -7886,10 +8202,10 @@
       <c r="D55" s="2"/>
       <c r="H55" s="8"/>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="11"/>
@@ -7901,10 +8217,10 @@
       <c r="D56" s="2"/>
       <c r="H56" s="8"/>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="11"/>
@@ -7916,10 +8232,10 @@
       <c r="D57" s="2"/>
       <c r="H57" s="8"/>
       <c r="K57" t="s">
+        <v>122</v>
+      </c>
+      <c r="L57" t="s">
         <v>123</v>
-      </c>
-      <c r="L57" t="s">
-        <v>124</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="11"/>
@@ -7931,10 +8247,10 @@
       <c r="D58" s="2"/>
       <c r="H58" s="8"/>
       <c r="K58" t="s">
+        <v>124</v>
+      </c>
+      <c r="L58" t="s">
         <v>125</v>
-      </c>
-      <c r="L58" t="s">
-        <v>126</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="11"/>
@@ -7946,10 +8262,10 @@
       <c r="D59" s="2"/>
       <c r="H59" s="8"/>
       <c r="K59" t="s">
+        <v>126</v>
+      </c>
+      <c r="L59" t="s">
         <v>127</v>
-      </c>
-      <c r="L59" t="s">
-        <v>128</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="11"/>
@@ -7961,10 +8277,10 @@
       <c r="D60" s="2"/>
       <c r="H60" s="8"/>
       <c r="K60" t="s">
+        <v>128</v>
+      </c>
+      <c r="L60" t="s">
         <v>129</v>
-      </c>
-      <c r="L60" t="s">
-        <v>130</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="11"/>
@@ -7976,10 +8292,10 @@
       <c r="D61" s="2"/>
       <c r="H61" s="8"/>
       <c r="K61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="11"/>
@@ -7991,10 +8307,10 @@
       <c r="D62" s="2"/>
       <c r="H62" s="8"/>
       <c r="K62" t="s">
+        <v>131</v>
+      </c>
+      <c r="L62" t="s">
         <v>132</v>
-      </c>
-      <c r="L62" t="s">
-        <v>133</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="11"/>
@@ -8006,10 +8322,10 @@
       <c r="D63" s="2"/>
       <c r="H63" s="8"/>
       <c r="K63" t="s">
+        <v>133</v>
+      </c>
+      <c r="L63" t="s">
         <v>134</v>
-      </c>
-      <c r="L63" t="s">
-        <v>135</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="11"/>
@@ -8017,7 +8333,7 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B7:B18">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8029,6 +8345,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D7:D18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C7:C18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="G7:G10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -8040,32 +8380,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C7:C18">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="9"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF7128"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G7:G10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="H7:H10">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8077,6 +8393,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="I7:I10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="N7:N63">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="M7:M63">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="O7:O63">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8099,39 +8451,41 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -8139,12 +8493,12 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="2"/>
       <c r="F3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
@@ -8152,7 +8506,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M3" s="2"/>
     </row>
@@ -8161,7 +8515,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="2"/>
@@ -8169,57 +8523,57 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" s="8"/>
       <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
       <c r="F5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="19"/>
       <c r="K5" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>0</v>
@@ -8228,153 +8582,153 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="N6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9">
-        <v>0.18924204330914607</v>
+        <v>0.10425502036230866</v>
       </c>
       <c r="C7" s="10">
-        <v>244280</v>
+        <v>712100</v>
       </c>
       <c r="D7" s="12">
-        <v>7.0947841163031655E-2</v>
+        <v>3.1133236066810344E-2</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9">
-        <v>0.23276630874147894</v>
+        <v>0.16708636632883028</v>
       </c>
       <c r="H7" s="10">
         <v>2022478</v>
       </c>
       <c r="I7" s="12">
-        <v>0.14988101733670739</v>
+        <v>4.935649875017941E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M7" s="9">
-        <v>7.04157654409997E-2</v>
+        <v>7.0415765440999756E-2</v>
       </c>
       <c r="N7" s="10">
         <v>291270</v>
       </c>
       <c r="O7" s="12">
-        <v>6.5117834422232998E-2</v>
+        <v>6.5117834422233067E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9">
-        <v>0.49255270913624999</v>
+        <v>9.6227689500804403E-2</v>
       </c>
       <c r="C8" s="10">
-        <v>88220</v>
+        <v>1372448</v>
       </c>
       <c r="D8" s="12">
-        <v>2.72747803603893E-2</v>
+        <v>5.0554688801559805E-2</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="9">
-        <v>0.11067876401278859</v>
+        <v>7.3219635701800539E-2</v>
       </c>
       <c r="H8" s="10">
         <v>3188926</v>
       </c>
       <c r="I8" s="12">
-        <v>0.28850415820556036</v>
+        <v>9.099666245481644E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" s="9">
-        <v>0.11055828077551901</v>
+        <v>0.11055828077551974</v>
       </c>
       <c r="N8" s="10">
         <v>428100</v>
       </c>
       <c r="O8" s="12">
-        <v>3.4321624001690199E-2</v>
+        <v>3.4321624001690261E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B9" s="9">
-        <v>0.15695073197879741</v>
+        <v>7.6826035512716384E-2</v>
       </c>
       <c r="C9" s="10">
-        <v>1116968</v>
+        <v>970244</v>
       </c>
       <c r="D9" s="12">
-        <v>0.13361717101563447</v>
+        <v>8.8179257920579554E-2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="9">
-        <v>0.13637402372164098</v>
+        <v>8.616772496772325E-2</v>
       </c>
       <c r="H9" s="10">
         <v>3259312</v>
       </c>
       <c r="I9" s="12">
-        <v>0.20783905197066524</v>
+        <v>6.0850009258761432E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M9" s="9">
-        <v>0.14211618257261399</v>
+        <v>0.1421161825726141</v>
       </c>
       <c r="N9" s="10">
         <v>260280</v>
       </c>
       <c r="O9" s="12">
-        <v>5.2560854501216503E-2</v>
+        <v>5.2560854501216545E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B10" s="9">
-        <v>0.27979224058247637</v>
+        <v>0.12700033892405352</v>
       </c>
       <c r="C10" s="10">
-        <v>573010</v>
+        <v>327507</v>
       </c>
       <c r="D10" s="12">
-        <v>0.21289029521172523</v>
+        <v>3.7725786226213233E-2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -8382,471 +8736,577 @@
       <c r="H10" s="10">
         <v>609439</v>
       </c>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="9">
-        <v>0.42149170722017998</v>
+        <v>0.42149170722018076</v>
       </c>
       <c r="N10" s="10">
         <v>100690</v>
       </c>
       <c r="O10" s="12">
-        <v>3.1925946889726602E-2</v>
+        <v>3.1925946889726678E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="B11" s="9">
-        <v>0.23276630874147897</v>
+        <v>0.22165138365809728</v>
       </c>
       <c r="C11" s="10">
-        <v>2022478</v>
+        <v>244280</v>
       </c>
       <c r="D11" s="12">
-        <v>0.14988101733670736</v>
+        <v>3.9732316405946995E-2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="9">
-        <v>0.13943190257735166</v>
-      </c>
-      <c r="H11" s="9">
+        <v>9.386051229301702E-2</v>
+      </c>
+      <c r="H11" s="10">
         <v>9080155</v>
       </c>
       <c r="I11" s="12">
-        <v>0.21997658098563908</v>
+        <v>7.0623616218959323E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="9">
-        <v>1.58264156036984E-2</v>
+        <v>1.5826415603698456E-2</v>
       </c>
       <c r="N11" s="10">
         <v>148170</v>
       </c>
       <c r="O11" s="12">
-        <v>0.64783254840085203</v>
+        <v>0.64783254840085291</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.14043643092476418</v>
+      </c>
+      <c r="C12" s="10">
+        <v>664710</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.1075871640373007</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M12" s="9">
-        <v>0.21941766868727</v>
+        <v>0.2194176686872702</v>
       </c>
       <c r="N12" s="10">
         <v>100630</v>
       </c>
       <c r="O12" s="12">
-        <v>5.68064370471014E-2</v>
+        <v>5.6806437047101449E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1106540</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="9">
-        <v>9.3581613197380398E-2</v>
+        <v>9.3581613197380425E-2</v>
       </c>
       <c r="N13" s="10">
         <v>482520</v>
       </c>
       <c r="O13" s="12">
-        <v>2.59901656737902E-2</v>
+        <v>2.599016567379028E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.4137091244413969E-2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>422930</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.67982719540056868</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M14" s="9">
-        <v>0.125259875259875</v>
+        <v>0.12525987525987525</v>
       </c>
       <c r="N14" s="10">
         <v>336700</v>
       </c>
       <c r="O14" s="12">
-        <v>5.2895222145820896E-3</v>
+        <v>5.2895222145820982E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.25476814474756537</v>
+      </c>
+      <c r="C15" s="10">
+        <v>170559</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.10003834719582078</v>
+      </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="9">
-        <v>7.1153726159029901E-2</v>
+        <v>7.1153726159029929E-2</v>
       </c>
       <c r="N15" s="10">
         <v>480790</v>
       </c>
       <c r="O15" s="12">
-        <v>1.1535839903536901E-2</v>
+        <v>1.1535839903536977E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.12235175940582003</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1116968</v>
+      </c>
+      <c r="D16" s="12">
+        <v>4.5782766049333026E-2</v>
+      </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="9">
-        <v>5.6336754532712301E-2</v>
+        <v>5.6336754532712391E-2</v>
       </c>
       <c r="N16" s="10">
         <v>221170</v>
       </c>
       <c r="O16" s="12">
-        <v>6.5857173073836206E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+        <v>6.5857173073836275E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.18091743599588139</v>
+      </c>
+      <c r="C17" s="10">
+        <v>573010</v>
+      </c>
+      <c r="D17" s="12">
+        <v>6.8350062734222394E-2</v>
+      </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17" s="9">
-        <v>1.8139163422182199E-2</v>
+        <v>1.8139163422182289E-2</v>
       </c>
       <c r="N17" s="10">
         <v>200340</v>
       </c>
       <c r="O17" s="12">
-        <v>0.36710423417721499</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0.36710423417721516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6.6175361491043777E-2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1398859</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5.5905644055309497E-2</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="9">
-        <v>8.31488655229662E-2</v>
+        <v>8.3148865522966242E-2</v>
       </c>
       <c r="N18" s="10">
         <v>72280</v>
       </c>
       <c r="O18" s="12">
-        <v>4.0600498435939998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+        <v>4.0600498435940095E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="9">
+        <v>9.386051229301702E-2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>9080155</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7.0623616218959295E-2</v>
+      </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M19" s="9">
-        <v>6.3050917764181202E-2</v>
+        <v>6.3050917764181272E-2</v>
       </c>
       <c r="N19" s="10">
         <v>289290</v>
       </c>
       <c r="O19" s="12">
-        <v>6.21884215460526E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+        <v>6.2188421546052627E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="6"/>
       <c r="D20" s="2"/>
       <c r="H20" s="8"/>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M20" s="9">
-        <v>0.15170513262142599</v>
+        <v>0.1517051326214261</v>
       </c>
       <c r="N20" s="10">
         <v>290300</v>
       </c>
       <c r="O20" s="12">
-        <v>2.83939021798365E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2.8393902179836513E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="6"/>
       <c r="D21" s="2"/>
       <c r="H21" s="8"/>
       <c r="K21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
         <v>58</v>
       </c>
-      <c r="L21" t="s">
-        <v>59</v>
-      </c>
       <c r="M21" s="9">
-        <v>0.19482870671246799</v>
+        <v>0.19482870671246866</v>
       </c>
       <c r="N21" s="10">
         <v>215420</v>
       </c>
       <c r="O21" s="12">
-        <v>3.7064035287109803E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3.7064035287109845E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="6"/>
       <c r="D22" s="2"/>
       <c r="H22" s="8"/>
       <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" t="s">
         <v>60</v>
       </c>
-      <c r="L22" t="s">
-        <v>61</v>
-      </c>
       <c r="M22" s="9">
-        <v>5.3378492802709503E-2</v>
+        <v>5.3378492802709565E-2</v>
       </c>
       <c r="N22" s="10">
         <v>295250</v>
       </c>
       <c r="O22" s="12">
-        <v>8.6749582804568501E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+        <v>8.6749582804568529E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="6"/>
       <c r="D23" s="2"/>
       <c r="H23" s="8"/>
       <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" t="s">
         <v>62</v>
       </c>
-      <c r="L23" t="s">
-        <v>63</v>
-      </c>
       <c r="M23" s="9">
-        <v>5.1721848441926302E-2</v>
+        <v>5.1721848441926344E-2</v>
       </c>
       <c r="N23" s="10">
         <v>451840</v>
       </c>
       <c r="O23" s="12">
-        <v>4.6610313863928103E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+        <v>4.661031386392811E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="6"/>
       <c r="D24" s="2"/>
       <c r="H24" s="8"/>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M24" s="9">
-        <v>0.49255270913624999</v>
+        <v>0.49255270913625027</v>
       </c>
       <c r="N24" s="10">
         <v>88220</v>
       </c>
       <c r="O24" s="12">
-        <v>2.72747803603893E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2.7274780360389387E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="6"/>
       <c r="D25" s="2"/>
       <c r="H25" s="8"/>
       <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
         <v>67</v>
       </c>
-      <c r="L25" t="s">
-        <v>68</v>
-      </c>
       <c r="M25" s="9">
-        <v>0.113549883990719</v>
+        <v>0.11354988399071926</v>
       </c>
       <c r="N25" s="10">
         <v>215500</v>
       </c>
       <c r="O25" s="12">
-        <v>7.6511756027789105E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7.6511756027789132E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="6"/>
       <c r="D26" s="2"/>
       <c r="H26" s="8"/>
       <c r="K26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M26" s="9">
-        <v>6.9151105873821603E-2</v>
+        <v>6.9151105873821617E-2</v>
       </c>
       <c r="N26" s="10">
         <v>441280</v>
       </c>
       <c r="O26" s="12">
-        <v>5.97320487301327E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+        <v>5.9732048730132721E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
       <c r="D27" s="2"/>
       <c r="H27" s="8"/>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
-      </c>
-      <c r="M27" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="M27" s="9">
+        <v>0</v>
+      </c>
       <c r="N27" s="10">
         <v>449340</v>
       </c>
-      <c r="O27" s="12"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="H28" s="8"/>
       <c r="K28" t="s">
+        <v>74</v>
+      </c>
+      <c r="L28" t="s">
         <v>75</v>
       </c>
-      <c r="L28" t="s">
-        <v>76</v>
-      </c>
       <c r="M28" s="9">
-        <v>6.8395854158994004E-2</v>
+        <v>6.839585415899406E-2</v>
       </c>
       <c r="N28" s="10">
         <v>380140</v>
       </c>
       <c r="O28" s="12">
-        <v>2.84165410346153E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+        <v>2.8416541034615387E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="2"/>
       <c r="H29" s="8"/>
       <c r="K29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" t="s">
         <v>77</v>
       </c>
-      <c r="L29" t="s">
-        <v>78</v>
-      </c>
       <c r="M29" s="9">
-        <v>0.13626046247694701</v>
+        <v>0.13626046247694709</v>
       </c>
       <c r="N29" s="10">
         <v>281960</v>
       </c>
       <c r="O29" s="12">
-        <v>7.9065344351900001E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7.9065344351900053E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="2"/>
       <c r="H30" s="8"/>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M30" s="9">
-        <v>7.1953840932232102E-2</v>
+        <v>7.1953840932232158E-2</v>
       </c>
       <c r="N30" s="10">
         <v>88390</v>
       </c>
       <c r="O30" s="12">
-        <v>0.111748434716981</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+        <v>0.11174843471698113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="2"/>
       <c r="H31" s="8"/>
       <c r="K31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" t="s">
         <v>82</v>
       </c>
-      <c r="L31" t="s">
-        <v>83</v>
-      </c>
-      <c r="M31" s="9"/>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
       <c r="N31" s="10">
         <v>204520</v>
       </c>
-      <c r="O31" s="12"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
       <c r="D32" s="2"/>
       <c r="H32" s="8"/>
       <c r="K32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" t="s">
         <v>84</v>
       </c>
-      <c r="L32" t="s">
-        <v>85</v>
-      </c>
       <c r="M32" s="9">
-        <v>0.145543359360265</v>
+        <v>0.14554335936026555</v>
       </c>
       <c r="N32" s="10">
         <v>265110</v>
       </c>
       <c r="O32" s="12">
-        <v>3.26785384475832E-2</v>
+        <v>3.2678538447583255E-2</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -8855,19 +9315,19 @@
       <c r="D33" s="2"/>
       <c r="H33" s="8"/>
       <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33" t="s">
         <v>86</v>
       </c>
-      <c r="L33" t="s">
-        <v>87</v>
-      </c>
       <c r="M33" s="9">
-        <v>0.30653024568606002</v>
+        <v>0.30653024568606069</v>
       </c>
       <c r="N33" s="10">
         <v>155890</v>
       </c>
       <c r="O33" s="12">
-        <v>3.0147247609082301E-2</v>
+        <v>3.0147247609082349E-2</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -8876,19 +9336,19 @@
       <c r="D34" s="2"/>
       <c r="H34" s="8"/>
       <c r="K34" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" t="s">
         <v>88</v>
       </c>
-      <c r="L34" t="s">
-        <v>89</v>
-      </c>
       <c r="M34" s="9">
-        <v>0.32746022392457202</v>
+        <v>0.3274602239245728</v>
       </c>
       <c r="N34" s="10">
         <v>84850</v>
       </c>
       <c r="O34" s="12">
-        <v>1.0801727637214299E-2</v>
+        <v>1.0801727637214325E-2</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -8897,19 +9357,19 @@
       <c r="D35" s="2"/>
       <c r="H35" s="8"/>
       <c r="K35" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" t="s">
         <v>90</v>
       </c>
-      <c r="L35" t="s">
-        <v>91</v>
-      </c>
       <c r="M35" s="9">
-        <v>9.1252937720328997E-2</v>
+        <v>9.1252937720329025E-2</v>
       </c>
       <c r="N35" s="10">
         <v>136160</v>
       </c>
       <c r="O35" s="12">
-        <v>3.2277592603621702E-2</v>
+        <v>3.227759260362173E-2</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -8918,19 +9378,19 @@
       <c r="D36" s="2"/>
       <c r="H36" s="8"/>
       <c r="K36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M36" s="9">
-        <v>0.117795844625112</v>
+        <v>0.11779584462511292</v>
       </c>
       <c r="N36" s="10">
         <v>110700</v>
       </c>
       <c r="O36" s="12">
-        <v>0.104463771242331</v>
+        <v>0.10446377124233128</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -8939,19 +9399,19 @@
       <c r="D37" s="2"/>
       <c r="H37" s="8"/>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="9">
-        <v>7.9114515225107401E-2</v>
+        <v>7.9114515225107415E-2</v>
       </c>
       <c r="N37" s="10">
         <v>374710</v>
       </c>
       <c r="O37" s="12">
-        <v>2.7202598886827401E-2</v>
+        <v>2.720259888682746E-2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
@@ -8960,16 +9420,20 @@
       <c r="D38" s="2"/>
       <c r="H38" s="8"/>
       <c r="K38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="M38" s="9">
+        <v>0</v>
+      </c>
       <c r="N38" s="10">
         <v>452680</v>
       </c>
-      <c r="O38" s="12"/>
+      <c r="O38" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
@@ -8977,10 +9441,10 @@
       <c r="D39" s="2"/>
       <c r="H39" s="8"/>
       <c r="K39" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s">
         <v>97</v>
-      </c>
-      <c r="L39" t="s">
-        <v>98</v>
       </c>
       <c r="M39" s="9">
         <v>0</v>
@@ -8988,7 +9452,9 @@
       <c r="N39" s="10">
         <v>32272</v>
       </c>
-      <c r="O39" s="12"/>
+      <c r="O39" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
@@ -8996,10 +9462,10 @@
       <c r="D40" s="2"/>
       <c r="H40" s="8"/>
       <c r="K40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" t="s">
         <v>99</v>
-      </c>
-      <c r="L40" t="s">
-        <v>100</v>
       </c>
       <c r="M40" s="9">
         <v>8.65099981876397E-2</v>
@@ -9008,7 +9474,7 @@
         <v>49659</v>
       </c>
       <c r="O40" s="12">
-        <v>0.37529929469273698</v>
+        <v>0.37529929469273743</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
@@ -9017,19 +9483,19 @@
       <c r="D41" s="2"/>
       <c r="H41" s="8"/>
       <c r="K41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M41" s="9">
-        <v>4.3285685524461402E-2</v>
+        <v>4.3285685524461444E-2</v>
       </c>
       <c r="N41" s="10">
         <v>39736</v>
       </c>
       <c r="O41" s="12">
-        <v>0.83035033837209204</v>
+        <v>0.83035033837209293</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
@@ -9038,10 +9504,10 @@
       <c r="D42" s="2"/>
       <c r="H42" s="8"/>
       <c r="K42" t="s">
+        <v>101</v>
+      </c>
+      <c r="L42" t="s">
         <v>102</v>
-      </c>
-      <c r="L42" t="s">
-        <v>103</v>
       </c>
       <c r="M42" s="9">
         <v>0</v>
@@ -9049,7 +9515,9 @@
       <c r="N42" s="10">
         <v>25492</v>
       </c>
-      <c r="O42" s="12"/>
+      <c r="O42" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -9057,19 +9525,19 @@
       <c r="D43" s="2"/>
       <c r="H43" s="8"/>
       <c r="K43" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" t="s">
         <v>104</v>
       </c>
-      <c r="L43" t="s">
-        <v>105</v>
-      </c>
       <c r="M43" s="9">
-        <v>0.109517845961177</v>
+        <v>0.10951784596117721</v>
       </c>
       <c r="N43" s="10">
         <v>15970</v>
       </c>
       <c r="O43" s="12">
-        <v>0.43126295162950201</v>
+        <v>0.43126295162950257</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -9078,19 +9546,19 @@
       <c r="D44" s="2"/>
       <c r="H44" s="8"/>
       <c r="K44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M44" s="9">
-        <v>0.163858314988993</v>
+        <v>0.16385831498899339</v>
       </c>
       <c r="N44" s="10">
         <v>24985</v>
       </c>
       <c r="O44" s="12">
-        <v>0.33714729604298899</v>
+        <v>0.33714729604298976</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
@@ -9099,19 +9567,19 @@
       <c r="D45" s="2"/>
       <c r="H45" s="8"/>
       <c r="K45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M45" s="9">
-        <v>5.2965282610376502E-2</v>
+        <v>5.2965282610376557E-2</v>
       </c>
       <c r="N45" s="10">
         <v>38799</v>
       </c>
       <c r="O45" s="12">
-        <v>0.95116568369829602</v>
+        <v>0.95116568369829679</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
@@ -9120,19 +9588,19 @@
       <c r="D46" s="2"/>
       <c r="H46" s="8"/>
       <c r="K46" t="s">
+        <v>107</v>
+      </c>
+      <c r="L46" t="s">
         <v>108</v>
       </c>
-      <c r="L46" t="s">
-        <v>109</v>
-      </c>
       <c r="M46" s="9">
-        <v>0.25112595516421199</v>
+        <v>0.25112595516421232</v>
       </c>
       <c r="N46" s="10">
         <v>19761</v>
       </c>
       <c r="O46" s="12">
-        <v>0.36942692957178802</v>
+        <v>0.36942692957178841</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
@@ -9141,10 +9609,10 @@
       <c r="D47" s="2"/>
       <c r="H47" s="8"/>
       <c r="K47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
@@ -9152,7 +9620,9 @@
       <c r="N47" s="10">
         <v>35448</v>
       </c>
-      <c r="O47" s="12"/>
+      <c r="O47" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
@@ -9160,19 +9630,19 @@
       <c r="D48" s="2"/>
       <c r="H48" s="8"/>
       <c r="K48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" t="s">
         <v>111</v>
       </c>
-      <c r="L48" t="s">
-        <v>112</v>
-      </c>
       <c r="M48" s="9">
-        <v>2.93036687011878E-2</v>
+        <v>2.9303668701187897E-2</v>
       </c>
       <c r="N48" s="10">
         <v>45711</v>
       </c>
       <c r="O48" s="12">
-        <v>0.168318524449421</v>
+        <v>0.16831852444942141</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
@@ -9181,19 +9651,19 @@
       <c r="D49" s="2"/>
       <c r="H49" s="8"/>
       <c r="K49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M49" s="9">
-        <v>0.56551043892816</v>
+        <v>0.56551043892816044</v>
       </c>
       <c r="N49" s="10">
         <v>6083</v>
       </c>
       <c r="O49" s="12">
-        <v>0.34569780552325502</v>
+        <v>0.3456978055232558</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
@@ -9202,19 +9672,19 @@
       <c r="D50" s="2"/>
       <c r="H50" s="8"/>
       <c r="K50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M50" s="9">
-        <v>4.6028162958185501E-2</v>
+        <v>4.6028162958185528E-2</v>
       </c>
       <c r="N50" s="10">
         <v>46515</v>
       </c>
       <c r="O50" s="12">
-        <v>0.40722822414759402</v>
+        <v>0.40722822414759458</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
@@ -9223,19 +9693,19 @@
       <c r="D51" s="2"/>
       <c r="H51" s="8"/>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M51" s="9">
-        <v>6.2758877460790202E-2</v>
+        <v>6.2758877460790244E-2</v>
       </c>
       <c r="N51" s="10">
         <v>21487</v>
       </c>
       <c r="O51" s="12">
-        <v>0.33254809825732201</v>
+        <v>0.33254809825732295</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
@@ -9244,19 +9714,19 @@
       <c r="D52" s="2"/>
       <c r="H52" s="8"/>
       <c r="K52" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" t="s">
         <v>116</v>
       </c>
-      <c r="L52" t="s">
-        <v>117</v>
-      </c>
       <c r="M52" s="9">
-        <v>9.1390405866215399E-2</v>
+        <v>9.1390405866215413E-2</v>
       </c>
       <c r="N52" s="10">
         <v>39003</v>
       </c>
       <c r="O52" s="12">
-        <v>0.37540459643708701</v>
+        <v>0.37540459643708796</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
@@ -9265,19 +9735,19 @@
       <c r="D53" s="2"/>
       <c r="H53" s="8"/>
       <c r="K53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M53" s="9">
-        <v>4.7273975091338398E-2</v>
+        <v>4.7273975091338488E-2</v>
       </c>
       <c r="N53" s="10">
         <v>49541</v>
       </c>
       <c r="O53" s="12">
-        <v>0.17278683872758299</v>
+        <v>0.17278683872758324</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
@@ -9286,19 +9756,19 @@
       <c r="D54" s="2"/>
       <c r="H54" s="8"/>
       <c r="K54" t="s">
+        <v>118</v>
+      </c>
+      <c r="L54" t="s">
         <v>119</v>
       </c>
-      <c r="L54" t="s">
-        <v>120</v>
-      </c>
       <c r="M54" s="9">
-        <v>0.418039980497318</v>
+        <v>0.41803998049731839</v>
       </c>
       <c r="N54" s="10">
         <v>10255</v>
       </c>
       <c r="O54" s="12">
-        <v>0.179103034033123</v>
+        <v>0.17910303403312341</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -9307,19 +9777,19 @@
       <c r="D55" s="2"/>
       <c r="H55" s="8"/>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M55" s="9">
-        <v>0.40259035210175198</v>
+        <v>0.40259035210175276</v>
       </c>
       <c r="N55" s="10">
         <v>6447</v>
       </c>
       <c r="O55" s="12">
-        <v>0.62018052745135799</v>
+        <v>0.6201805274513581</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
@@ -9328,19 +9798,19 @@
       <c r="D56" s="2"/>
       <c r="H56" s="8"/>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M56" s="9">
-        <v>0.194557195571955</v>
+        <v>0.19455719557195572</v>
       </c>
       <c r="N56" s="10">
         <v>16260</v>
       </c>
       <c r="O56" s="12">
-        <v>0.44260102607870999</v>
+        <v>0.44260102607871027</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
@@ -9349,10 +9819,10 @@
       <c r="D57" s="2"/>
       <c r="H57" s="8"/>
       <c r="K57" t="s">
+        <v>122</v>
+      </c>
+      <c r="L57" t="s">
         <v>123</v>
-      </c>
-      <c r="L57" t="s">
-        <v>124</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
@@ -9360,7 +9830,9 @@
       <c r="N57" s="10">
         <v>20437</v>
       </c>
-      <c r="O57" s="12"/>
+      <c r="O57" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
@@ -9368,19 +9840,19 @@
       <c r="D58" s="2"/>
       <c r="H58" s="8"/>
       <c r="K58" t="s">
+        <v>124</v>
+      </c>
+      <c r="L58" t="s">
         <v>125</v>
       </c>
-      <c r="L58" t="s">
-        <v>126</v>
-      </c>
       <c r="M58" s="9">
-        <v>0.25984402965993297</v>
+        <v>0.25984402965993353</v>
       </c>
       <c r="N58" s="10">
         <v>15644</v>
       </c>
       <c r="O58" s="12">
-        <v>0.459673024846248</v>
+        <v>0.4596730248462485</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
@@ -9389,10 +9861,10 @@
       <c r="D59" s="2"/>
       <c r="H59" s="8"/>
       <c r="K59" t="s">
+        <v>126</v>
+      </c>
+      <c r="L59" t="s">
         <v>127</v>
-      </c>
-      <c r="L59" t="s">
-        <v>128</v>
       </c>
       <c r="M59" s="9">
         <v>0</v>
@@ -9400,7 +9872,9 @@
       <c r="N59" s="10">
         <v>13480</v>
       </c>
-      <c r="O59" s="12"/>
+      <c r="O59" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
@@ -9408,19 +9882,19 @@
       <c r="D60" s="2"/>
       <c r="H60" s="8"/>
       <c r="K60" t="s">
+        <v>128</v>
+      </c>
+      <c r="L60" t="s">
         <v>129</v>
       </c>
-      <c r="L60" t="s">
-        <v>130</v>
-      </c>
       <c r="M60" s="9">
-        <v>3.1339498806682499E-2</v>
+        <v>3.1339498806682575E-2</v>
       </c>
       <c r="N60" s="10">
         <v>33520</v>
       </c>
       <c r="O60" s="12">
-        <v>1.3449112089481099</v>
+        <v>1.3449112089481199</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
@@ -9429,13 +9903,13 @@
       <c r="D61" s="2"/>
       <c r="H61" s="8"/>
       <c r="K61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M61" s="9">
-        <v>0.657391304347826</v>
+        <v>0.65739130434782611</v>
       </c>
       <c r="N61" s="10">
         <v>6900</v>
@@ -9450,19 +9924,19 @@
       <c r="D62" s="2"/>
       <c r="H62" s="8"/>
       <c r="K62" t="s">
+        <v>131</v>
+      </c>
+      <c r="L62" t="s">
         <v>132</v>
       </c>
-      <c r="L62" t="s">
-        <v>133</v>
-      </c>
       <c r="M62" s="9">
-        <v>5.43396669012432E-2</v>
+        <v>5.4339666901243255E-2</v>
       </c>
       <c r="N62" s="10">
         <v>42630</v>
       </c>
       <c r="O62" s="12">
-        <v>0.155023394906108</v>
+        <v>0.15502339490610836</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
@@ -9471,10 +9945,10 @@
       <c r="D63" s="2"/>
       <c r="H63" s="8"/>
       <c r="K63" t="s">
+        <v>133</v>
+      </c>
+      <c r="L63" t="s">
         <v>134</v>
-      </c>
-      <c r="L63" t="s">
-        <v>135</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
@@ -9482,9 +9956,119 @@
       <c r="N63" s="10">
         <v>29630</v>
       </c>
-      <c r="O63" s="12"/>
+      <c r="O63" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B7:B18">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C7:C18">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D7:D18">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="G7:G10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="H7:H10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="I7:I10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="M7:M63">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="N7:N63">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="O7:O63">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="9"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF7128"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0FF4248-568C-C949-A735-396D7904FFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96194E7E-5CB9-514B-AE57-60EFE973D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="row_health_marketing" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="66" r:id="rId4"/>
+    <pivotCache cacheId="81" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="623" uniqueCount="151">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="622" uniqueCount="148">
   <si>
     <t>campaign_id</t>
   </si>
@@ -472,21 +472,9 @@
     <t>Sum of impressions</t>
   </si>
   <si>
-    <t>Average of signup_rate</t>
-  </si>
-  <si>
-    <t>Average of cost_per_signup</t>
-  </si>
-  <si>
     <t>Brand Awareness: Click-Through-Rates, Impressions, and Cost-Per-Click</t>
   </si>
   <si>
-    <t>Customer Acquisition:  Signup Rates, Cost-Per-Signup, and Total Signups</t>
-  </si>
-  <si>
-    <t>weighted_signup_rate</t>
-  </si>
-  <si>
     <t>avg_cost_per_signup</t>
   </si>
   <si>
@@ -497,6 +485,9 @@
   </si>
   <si>
     <t>avg_ctr</t>
+  </si>
+  <si>
+    <t>avg_signup_rate</t>
   </si>
 </sst>
 </file>
@@ -512,7 +503,7 @@
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,14 +656,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1028,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1053,7 +1036,6 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1102,10 +1084,7 @@
     <cellStyle name="Total" xfId="20" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="17" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1114,81 +1093,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
@@ -1227,91 +1131,13 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1332,19 +1158,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,7 +1186,7 @@
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:N58" sheet="row_health_marketing"/>
   </cacheSource>
-  <cacheFields count="26">
+  <cacheFields count="27">
     <cacheField name="campaign_id" numFmtId="0">
       <sharedItems count="57">
         <s v="CAM001"/>
@@ -1539,18 +1356,19 @@
     <cacheField name="cost_per_clicK" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="2.83939021798365E-3" maxValue="1.3449112089481099"/>
     </cacheField>
-    <cacheField name="Field1" numFmtId="0" formula=" 0" databaseField="0"/>
-    <cacheField name="Field2" numFmtId="0" formula="num_signups /impressions" databaseField="0"/>
-    <cacheField name="weighted_cost_per_signup" numFmtId="0" formula="cost/num_signups" databaseField="0"/>
-    <cacheField name="Field3" numFmtId="0" formula="cost/num_signups" databaseField="0"/>
+    <cacheField name="Field2" numFmtId="0" formula="IFERROR(num_signups/impressions, 0)" databaseField="0"/>
+    <cacheField name="weighted_cost_per_signup" numFmtId="0" formula="IFERROR(cost/num_signups,0)" databaseField="0"/>
+    <cacheField name="Field3" numFmtId="0" formula="IFERROR(cost/num_signups, 0)" databaseField="0"/>
     <cacheField name="Field4" numFmtId="0" formula="num_signups" databaseField="0"/>
     <cacheField name="Field5" numFmtId="0" formula="cost" databaseField="0"/>
-    <cacheField name="Field6" numFmtId="0" formula="num_signups /cost" databaseField="0"/>
-    <cacheField name="Field7" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
+    <cacheField name="Field6" numFmtId="0" formula="IFERROR(num_signups/cost,0)" databaseField="0"/>
+    <cacheField name="Field7" numFmtId="0" formula="IFERROR(cost/num_signups, 0)" databaseField="0"/>
     <cacheField name="Field8" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
     <cacheField name="Field9" numFmtId="0" formula="Field7" databaseField="0"/>
     <cacheField name="avg_click_through_rate" numFmtId="0" formula="clicks /impressions" databaseField="0"/>
     <cacheField name="cpc" numFmtId="0" formula="IFERROR(cost/clicks, 0)" databaseField="0"/>
+    <cacheField name="average_cost_per_signup" numFmtId="0" formula="IFERROR(cost/num_signups, 0)" databaseField="0"/>
+    <cacheField name="average_signup_rate" numFmtId="0" formula="IFERROR(num_signups/impressions, 0)" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -2478,9 +2296,193 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="PivotTable6" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="CustAcqPlatform" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cost_per_signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="10">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="CustAcqCampaigns" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="26">
+  <pivotFields count="27">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
@@ -2613,16 +2615,17 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" numFmtId="9" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -2883,27 +2886,18 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Average of signup_rate" fld="10" subtotal="average" baseField="0" baseItem="0" numFmtId="10"/>
-    <dataField name="Average of cost_per_signup" fld="11" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cost_per_signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <formats count="5">
-    <format dxfId="76">
+  <formats count="4">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="73">
+    <format dxfId="24">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2912,7 +2906,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2923,7 +2917,7 @@
     </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
@@ -2939,7 +2933,7 @@
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
@@ -2950,7 +2944,7 @@
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
           </references>
         </pivotArea>
@@ -2969,193 +2963,10 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="PivotTable4" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="26">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="weighted_signup_rate" fld="15" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cost_per_signup" fld="21" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="61">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="63">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="60">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="6">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="3" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="3" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="PivotTable5" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="CustAcqCategory" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="26">
+  <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="13">
@@ -3201,12 +3012,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="9" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
@@ -3217,6 +3027,8 @@
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -3281,22 +3093,22 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="Average of signup_rate" fld="10" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="avg_cost_per_signup" fld="23" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cost_per_signup" fld="22" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="5">
-    <format dxfId="80">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="1" count="4">
             <x v="4"/>
@@ -3307,7 +3119,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="16">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3316,23 +3137,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
   </formats>
   <conditionalFormats count="3">
-    <conditionalFormat priority="11">
+    <conditionalFormat priority="13">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="1"/>
             </reference>
             <reference field="1" count="12">
               <x v="0"/>
@@ -3352,7 +3164,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="9">
+    <conditionalFormat priority="11">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
@@ -3377,12 +3189,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="7">
+    <conditionalFormat priority="4">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="0"/>
             </reference>
             <reference field="1" count="12">
               <x v="0"/>
@@ -3416,450 +3228,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="26">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="avg_ctr" fld="24" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cpc" fld="25" baseField="0" baseItem="0" numFmtId="168"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="65">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="55">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="6">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="3" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="3" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="4">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="3" count="4">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="26">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="6"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="3" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="3">
-    <dataField name="avg_ctr" fld="24" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cpc" fld="25" baseField="0" baseItem="0" numFmtId="168"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="68">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="58">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="57">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <conditionalFormats count="3">
-    <conditionalFormat priority="9">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="12">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="8">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="12">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="7">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="1" count="12">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
-              <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-              <x v="7"/>
-              <x v="8"/>
-              <x v="9"/>
-              <x v="10"/>
-              <x v="11"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="PivotTable6" cacheId="66" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="BrandAwareCampaigns" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="26">
+  <pivotFields count="27">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
@@ -4005,9 +3376,10 @@
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -4262,18 +3634,18 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_ctr" fld="24" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_ctr" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
     <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cpc" fld="25" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="71">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4282,7 +3654,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4334,6 +3706,449 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BrandAwareCategory" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="avg_ctr" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="9">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="8">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="7">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="1" count="12">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BrandAwarePlatform" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="avg_ctr" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="6">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="3" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -4636,10 +4451,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -4702,10 +4516,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4837,7 +4651,7 @@
         <v>5.2560854501216503E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4881,7 +4695,7 @@
         <v>3.1925946889726602E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4925,7 +4739,7 @@
         <v>0.64783254840085203</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4969,7 +4783,7 @@
         <v>5.68064370471014E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -5057,7 +4871,7 @@
         <v>5.2895222145820896E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -5101,7 +4915,7 @@
         <v>1.1535839903536901E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -5145,7 +4959,7 @@
         <v>6.5857173073836206E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5189,7 +5003,7 @@
         <v>0.36710423417721499</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -5233,7 +5047,7 @@
         <v>4.0600498435939998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -5365,7 +5179,7 @@
         <v>3.7064035287109803E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -5409,7 +5223,7 @@
         <v>8.6749582804568501E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -5497,7 +5311,7 @@
         <v>2.72747803603893E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -5541,7 +5355,7 @@
         <v>7.6511756027789105E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -5585,7 +5399,7 @@
         <v>5.97320487301327E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5620,7 +5434,7 @@
         <v>38.2435159047619</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -5664,7 +5478,7 @@
         <v>2.84165410346153E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -5752,7 +5566,7 @@
         <v>0.111748434716981</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -5787,7 +5601,7 @@
         <v>49.313815516128997</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -5875,7 +5689,7 @@
         <v>3.0147247609082301E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>87</v>
       </c>
@@ -5919,7 +5733,7 @@
         <v>1.0801727637214299E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -5963,7 +5777,7 @@
         <v>3.2277592603621702E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -6007,7 +5821,7 @@
         <v>0.104463771242331</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -6051,7 +5865,7 @@
         <v>2.7202598886827401E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -6086,7 +5900,7 @@
         <v>3.5151619149122801</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -6127,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -6162,7 +5976,7 @@
         <v>0.37529929469273698</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -6197,7 +6011,7 @@
         <v>0.83035033837209204</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -6229,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -6299,7 +6113,7 @@
         <v>0.33714729604298899</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -6369,7 +6183,7 @@
         <v>0.36942692957178802</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -6401,7 +6215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -6436,7 +6250,7 @@
         <v>0.168318524449421</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -6471,7 +6285,7 @@
         <v>0.34569780552325502</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>113</v>
       </c>
@@ -6506,7 +6320,7 @@
         <v>0.40722822414759402</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -6576,7 +6390,7 @@
         <v>0.37540459643708701</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -6646,7 +6460,7 @@
         <v>0.179103034033123</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -6681,7 +6495,7 @@
         <v>0.62018052745135799</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -6716,7 +6530,7 @@
         <v>0.44260102607870999</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -6783,7 +6597,7 @@
         <v>0.459673024846248</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>126</v>
       </c>
@@ -6815,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -6920,7 +6734,7 @@
         <v>0.155023394906108</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -6952,15 +6766,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:N59" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Email"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N59" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6972,33 +6779,32 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>145</v>
-      </c>
+      <c r="A1"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -7070,22 +6876,22 @@
         <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
         <v>137</v>
@@ -7097,13 +6903,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="N6" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" t="s">
         <v>143</v>
-      </c>
-      <c r="O6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -7111,13 +6917,13 @@
         <v>49</v>
       </c>
       <c r="B7" s="9">
-        <v>3.1496335462018066E-3</v>
-      </c>
-      <c r="C7" s="11">
+        <v>4.9655947198427187E-3</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3536</v>
+      </c>
+      <c r="D7" s="11">
         <v>0.65365708303167414</v>
-      </c>
-      <c r="D7" s="10">
-        <v>3536</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>21</v>
@@ -7138,13 +6944,13 @@
         <v>17</v>
       </c>
       <c r="M7" s="9">
-        <v>3.3130772135818898E-3</v>
-      </c>
-      <c r="N7" s="11">
-        <v>1.3840070300518099</v>
-      </c>
-      <c r="O7" s="10">
+        <v>3.3130772135818998E-3</v>
+      </c>
+      <c r="N7" s="10">
         <v>965</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1.3840070300518135</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -7152,13 +6958,13 @@
         <v>37</v>
       </c>
       <c r="B8" s="9">
-        <v>6.7555639051943743E-3</v>
-      </c>
-      <c r="C8" s="11">
+        <v>2.7155855813845043E-3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3727</v>
+      </c>
+      <c r="D8" s="11">
         <v>1.7914224210625167</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3727</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>16</v>
@@ -7179,13 +6985,13 @@
         <v>22</v>
       </c>
       <c r="M8" s="9">
-        <v>1.3688390562952501E-3</v>
-      </c>
-      <c r="N8" s="11">
-        <v>2.77208611604095</v>
-      </c>
-      <c r="O8" s="10">
+        <v>1.3688390562952581E-3</v>
+      </c>
+      <c r="N8" s="10">
         <v>586</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2.7720861160409558</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -7193,13 +6999,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="9">
-        <v>3.1451627173382016E-4</v>
-      </c>
-      <c r="C9" s="11">
+        <v>3.2569126941264261E-4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>316</v>
+      </c>
+      <c r="D9" s="11">
         <v>20.800259131012659</v>
-      </c>
-      <c r="D9" s="10">
-        <v>316</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>38</v>
@@ -7220,13 +7026,13 @@
         <v>25</v>
       </c>
       <c r="M9" s="9">
-        <v>1.76732749346857E-4</v>
-      </c>
-      <c r="N9" s="11">
-        <v>42.265782782608603</v>
-      </c>
-      <c r="O9" s="10">
+        <v>1.7673274934685722E-4</v>
+      </c>
+      <c r="N9" s="10">
         <v>46</v>
+      </c>
+      <c r="O9" s="11">
+        <v>42.265782782608696</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -7234,13 +7040,13 @@
         <v>45</v>
       </c>
       <c r="B10" s="9">
-        <v>1.86008949192339E-4</v>
-      </c>
-      <c r="C10" s="11">
+        <v>1.9236230065311581E-4</v>
+      </c>
+      <c r="C10" s="10">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11">
         <v>24.907103006349207</v>
-      </c>
-      <c r="D10" s="10">
-        <v>63</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>94</v>
@@ -7261,13 +7067,13 @@
         <v>28</v>
       </c>
       <c r="M10" s="9">
-        <v>1.5354057006653999E-2</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0.87641473868046504</v>
-      </c>
-      <c r="O10" s="10">
+        <v>1.5354057006654086E-2</v>
+      </c>
+      <c r="N10" s="10">
         <v>1546</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.87641473868046582</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -7275,13 +7081,13 @@
         <v>79</v>
       </c>
       <c r="B11" s="9">
-        <v>2.2516137844564766E-4</v>
-      </c>
-      <c r="C11" s="11">
+        <v>1.84214835434747E-4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11">
         <v>47.806806040000005</v>
-      </c>
-      <c r="D11" s="10">
-        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>136</v>
@@ -7304,11 +7110,11 @@
       <c r="M11" s="9">
         <v>6.7490045218330297E-6</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="11">
         <v>1519.167326</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -7316,13 +7122,13 @@
         <v>27</v>
       </c>
       <c r="B12" s="9">
-        <v>9.3359156857956063E-3</v>
-      </c>
-      <c r="C12" s="11">
+        <v>4.2424515954325942E-3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2820</v>
+      </c>
+      <c r="D12" s="11">
         <v>3.5614212657092206</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2820</v>
       </c>
       <c r="H12" s="8"/>
       <c r="K12" t="s">
@@ -7332,13 +7138,13 @@
         <v>35</v>
       </c>
       <c r="M12" s="9">
-        <v>1.2650303090529599E-2</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.98529939512961495</v>
-      </c>
-      <c r="O12" s="10">
+        <v>1.2650303090529664E-2</v>
+      </c>
+      <c r="N12" s="10">
         <v>1273</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.98529939512961506</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -7346,13 +7152,13 @@
         <v>72</v>
       </c>
       <c r="B13" s="9">
-        <v>2.4957063033624778E-4</v>
-      </c>
-      <c r="C13" s="11">
+        <v>2.720190865219513E-4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>301</v>
+      </c>
+      <c r="D13" s="11">
         <v>13.07778360664452</v>
-      </c>
-      <c r="D13" s="10">
-        <v>301</v>
       </c>
       <c r="H13" s="8"/>
       <c r="K13" t="s">
@@ -7362,13 +7168,13 @@
         <v>39</v>
       </c>
       <c r="M13" s="9">
-        <v>4.1449059106358197E-6</v>
-      </c>
-      <c r="N13" s="11">
+        <v>4.1449059106358282E-6</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2</v>
+      </c>
+      <c r="O13" s="11">
         <v>586.79296550000004</v>
-      </c>
-      <c r="O13" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -7376,13 +7182,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="9">
-        <v>5.8281160941160016E-5</v>
-      </c>
-      <c r="C14" s="11">
+        <v>5.4382521930343083E-5</v>
+      </c>
+      <c r="C14" s="10">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11">
         <v>176.7255131</v>
-      </c>
-      <c r="D14" s="10">
-        <v>23</v>
       </c>
       <c r="H14" s="8"/>
       <c r="K14" t="s">
@@ -7392,13 +7198,13 @@
         <v>25</v>
       </c>
       <c r="M14" s="9">
-        <v>3.2670032670032597E-5</v>
-      </c>
-      <c r="N14" s="11">
-        <v>20.2805090363636</v>
-      </c>
-      <c r="O14" s="10">
+        <v>3.2670032670032672E-5</v>
+      </c>
+      <c r="N14" s="10">
         <v>11</v>
+      </c>
+      <c r="O14" s="11">
+        <v>20.280509036363636</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -7406,13 +7212,13 @@
         <v>64</v>
       </c>
       <c r="B15" s="9">
-        <v>2.2705440898137742E-2</v>
-      </c>
-      <c r="C15" s="11">
+        <v>2.0784596532578168E-2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3545</v>
+      </c>
+      <c r="D15" s="11">
         <v>1.2262246264315937</v>
-      </c>
-      <c r="D15" s="10">
-        <v>3545</v>
       </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
@@ -7422,13 +7228,13 @@
         <v>43</v>
       </c>
       <c r="M15" s="9">
-        <v>2.37109756858503E-4</v>
-      </c>
-      <c r="N15" s="11">
-        <v>3.4617638868421001</v>
-      </c>
-      <c r="O15" s="10">
+        <v>2.3710975685850371E-4</v>
+      </c>
+      <c r="N15" s="10">
         <v>114</v>
+      </c>
+      <c r="O15" s="11">
+        <v>3.4617638868421055</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -7436,13 +7242,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="9">
-        <v>5.2608061277071324E-4</v>
-      </c>
-      <c r="C16" s="11">
+        <v>5.7566555174364887E-4</v>
+      </c>
+      <c r="C16" s="10">
+        <v>643</v>
+      </c>
+      <c r="D16" s="11">
         <v>9.7306534317262816</v>
-      </c>
-      <c r="D16" s="10">
-        <v>643</v>
       </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
@@ -7452,13 +7258,13 @@
         <v>46</v>
       </c>
       <c r="M16" s="9">
-        <v>2.3059185242121401E-4</v>
-      </c>
-      <c r="N16" s="11">
-        <v>16.0898113039215</v>
-      </c>
-      <c r="O16" s="10">
+        <v>2.3059185242121444E-4</v>
+      </c>
+      <c r="N16" s="10">
         <v>51</v>
+      </c>
+      <c r="O16" s="11">
+        <v>16.089811303921568</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -7466,13 +7272,13 @@
         <v>55</v>
       </c>
       <c r="B17" s="9">
-        <v>2.8194144001769428E-4</v>
-      </c>
-      <c r="C17" s="11">
+        <v>2.8446274934119822E-4</v>
+      </c>
+      <c r="C17" s="10">
+        <v>163</v>
+      </c>
+      <c r="D17" s="11">
         <v>43.470430236196322</v>
-      </c>
-      <c r="D17" s="10">
-        <v>163</v>
       </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
@@ -7482,13 +7288,13 @@
         <v>32</v>
       </c>
       <c r="M17" s="9">
-        <v>1.09813317360487E-4</v>
-      </c>
-      <c r="N17" s="11">
-        <v>60.638944863636297</v>
-      </c>
-      <c r="O17" s="10">
+        <v>1.0981331736048717E-4</v>
+      </c>
+      <c r="N17" s="10">
         <v>22</v>
+      </c>
+      <c r="O17" s="11">
+        <v>60.638944863636361</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -7496,13 +7302,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="9">
-        <v>9.0432173424633347E-4</v>
-      </c>
-      <c r="C18" s="11">
+        <v>7.9135924349773635E-4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1107</v>
+      </c>
+      <c r="D18" s="11">
         <v>4.6749642910569102</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1107</v>
       </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
@@ -7512,13 +7318,13 @@
         <v>50</v>
       </c>
       <c r="M18" s="9">
-        <v>1.38350857775318E-5</v>
-      </c>
-      <c r="N18" s="11">
+        <v>1.383508577753182E-5</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+      <c r="O18" s="11">
         <v>244.00899559999999</v>
-      </c>
-      <c r="O18" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -7526,13 +7332,13 @@
         <v>136</v>
       </c>
       <c r="B19" s="9">
-        <v>3.5842533470226224E-3</v>
-      </c>
-      <c r="C19" s="11">
+        <v>1.7939121083285472E-3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>16289</v>
+      </c>
+      <c r="D19" s="11">
         <v>3.6951469180244336</v>
-      </c>
-      <c r="D19" s="10">
-        <v>16289</v>
       </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
@@ -7542,13 +7348,13 @@
         <v>53</v>
       </c>
       <c r="M19" s="9">
-        <v>8.2961733900238494E-5</v>
-      </c>
-      <c r="N19" s="11">
+        <v>8.2961733900238521E-5</v>
+      </c>
+      <c r="N19" s="10">
+        <v>24</v>
+      </c>
+      <c r="O19" s="11">
         <v>47.263200374999997</v>
-      </c>
-      <c r="O19" s="10">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -7563,13 +7369,13 @@
         <v>56</v>
       </c>
       <c r="M20" s="9">
-        <v>5.5459869100930002E-4</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0.77668785838509302</v>
-      </c>
-      <c r="O20" s="10">
+        <v>5.5459869100930067E-4</v>
+      </c>
+      <c r="N20" s="10">
         <v>161</v>
+      </c>
+      <c r="O20" s="11">
+        <v>0.77668785838509324</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -7586,11 +7392,11 @@
       <c r="M21" s="9">
         <v>9.2841890260885706E-6</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N21" s="10">
+        <v>2</v>
+      </c>
+      <c r="O21" s="11">
         <v>777.78878050000003</v>
-      </c>
-      <c r="O21" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -7605,13 +7411,13 @@
         <v>60</v>
       </c>
       <c r="M22" s="9">
-        <v>3.3869602032176101E-6</v>
-      </c>
-      <c r="N22" s="11">
+        <v>3.3869602032176122E-6</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+      <c r="O22" s="11">
         <v>1367.173425</v>
-      </c>
-      <c r="O22" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -7626,13 +7432,13 @@
         <v>62</v>
       </c>
       <c r="M23" s="9">
-        <v>5.97556657223796E-5</v>
-      </c>
-      <c r="N23" s="11">
-        <v>40.343816111111103</v>
-      </c>
-      <c r="O23" s="10">
+        <v>5.9755665722379607E-5</v>
+      </c>
+      <c r="N23" s="10">
         <v>27</v>
+      </c>
+      <c r="O23" s="11">
+        <v>40.34381611111111</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -7647,13 +7453,13 @@
         <v>65</v>
       </c>
       <c r="M24" s="9">
-        <v>3.7168442530038502E-2</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0.36144282738639799</v>
-      </c>
-      <c r="O24" s="10">
+        <v>3.7168442530038537E-2</v>
+      </c>
+      <c r="N24" s="10">
         <v>3279</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0.36144282738639832</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7668,13 +7474,13 @@
         <v>67</v>
       </c>
       <c r="M25" s="9">
-        <v>2.1345707656612501E-4</v>
-      </c>
-      <c r="N25" s="11">
-        <v>40.700927608695601</v>
-      </c>
-      <c r="O25" s="10">
+        <v>2.1345707656612528E-4</v>
+      </c>
+      <c r="N25" s="10">
         <v>46</v>
+      </c>
+      <c r="O25" s="11">
+        <v>40.700927608695658</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -7689,13 +7495,13 @@
         <v>70</v>
       </c>
       <c r="M26" s="9">
-        <v>2.20041696881798E-3</v>
-      </c>
-      <c r="N26" s="11">
-        <v>1.87716114006179</v>
-      </c>
-      <c r="O26" s="10">
+        <v>2.2004169688179839E-3</v>
+      </c>
+      <c r="N26" s="10">
         <v>971</v>
+      </c>
+      <c r="O26" s="11">
+        <v>1.877161140061792</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -7710,13 +7516,13 @@
         <v>73</v>
       </c>
       <c r="M27" s="9">
-        <v>9.3470423287488297E-5</v>
-      </c>
-      <c r="N27" s="11">
-        <v>38.2435159047619</v>
-      </c>
-      <c r="O27" s="10">
+        <v>9.347042328748831E-5</v>
+      </c>
+      <c r="N27" s="10">
         <v>42</v>
+      </c>
+      <c r="O27" s="11">
+        <v>38.243515904761907</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -7731,13 +7537,13 @@
         <v>75</v>
       </c>
       <c r="M28" s="9">
-        <v>6.4713000473509696E-4</v>
-      </c>
-      <c r="N28" s="11">
-        <v>3.0033742556910501</v>
-      </c>
-      <c r="O28" s="10">
+        <v>6.4713000473509761E-4</v>
+      </c>
+      <c r="N28" s="10">
         <v>246</v>
+      </c>
+      <c r="O28" s="11">
+        <v>3.0033742556910572</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -7754,11 +7560,11 @@
       <c r="M29" s="9">
         <v>3.9012625904383598E-5</v>
       </c>
-      <c r="N29" s="11">
-        <v>27.615368454545401</v>
-      </c>
-      <c r="O29" s="10">
+      <c r="N29" s="10">
         <v>11</v>
+      </c>
+      <c r="O29" s="11">
+        <v>27.615368454545454</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -7773,13 +7579,13 @@
         <v>80</v>
       </c>
       <c r="M30" s="9">
-        <v>3.73345401063468E-4</v>
-      </c>
-      <c r="N30" s="11">
-        <v>21.536971054545401</v>
-      </c>
-      <c r="O30" s="10">
+        <v>3.733454010634687E-4</v>
+      </c>
+      <c r="N30" s="10">
         <v>33</v>
+      </c>
+      <c r="O30" s="11">
+        <v>21.536971054545454</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -7794,13 +7600,13 @@
         <v>82</v>
       </c>
       <c r="M31" s="9">
-        <v>1.5157441814981401E-4</v>
-      </c>
-      <c r="N31" s="11">
-        <v>49.313815516128997</v>
-      </c>
-      <c r="O31" s="10">
+        <v>1.5157441814981419E-4</v>
+      </c>
+      <c r="N31" s="10">
         <v>31</v>
+      </c>
+      <c r="O31" s="11">
+        <v>49.313815516129033</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -7815,13 +7621,13 @@
         <v>84</v>
       </c>
       <c r="M32" s="9">
-        <v>3.7720191618573401E-6</v>
-      </c>
-      <c r="N32" s="11">
+        <v>3.7720191618573422E-6</v>
+      </c>
+      <c r="N32" s="10">
+        <v>1</v>
+      </c>
+      <c r="O32" s="11">
         <v>1260.901406</v>
-      </c>
-      <c r="O32" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -7836,13 +7642,13 @@
         <v>86</v>
       </c>
       <c r="M33" s="9">
-        <v>7.6977355827827305E-5</v>
-      </c>
-      <c r="N33" s="11">
+        <v>7.6977355827827318E-5</v>
+      </c>
+      <c r="N33" s="10">
+        <v>12</v>
+      </c>
+      <c r="O33" s="11">
         <v>120.04885225</v>
-      </c>
-      <c r="O33" s="10">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -7857,13 +7663,13 @@
         <v>88</v>
       </c>
       <c r="M34" s="9">
-        <v>1.4142604596346399E-4</v>
-      </c>
-      <c r="N34" s="11">
+        <v>1.4142604596346494E-4</v>
+      </c>
+      <c r="N34" s="10">
+        <v>12</v>
+      </c>
+      <c r="O34" s="11">
         <v>25.010500199999999</v>
-      </c>
-      <c r="O34" s="10">
-        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -7878,13 +7684,13 @@
         <v>90</v>
       </c>
       <c r="M35" s="9">
-        <v>7.3443008225616904E-6</v>
-      </c>
-      <c r="N35" s="11">
+        <v>7.3443008225616921E-6</v>
+      </c>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="O35" s="11">
         <v>401.04908810000001</v>
-      </c>
-      <c r="O35" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -7899,13 +7705,13 @@
         <v>39</v>
       </c>
       <c r="M36" s="9">
-        <v>2.4778681120144499E-2</v>
-      </c>
-      <c r="N36" s="11">
-        <v>0.49661231388990101</v>
-      </c>
-      <c r="O36" s="10">
+        <v>2.4778681120144534E-2</v>
+      </c>
+      <c r="N36" s="10">
         <v>2743</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0.49661231388990151</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -7920,13 +7726,13 @@
         <v>50</v>
       </c>
       <c r="M37" s="9">
-        <v>9.4312935336660301E-3</v>
-      </c>
-      <c r="N37" s="11">
-        <v>0.22818931635540399</v>
-      </c>
-      <c r="O37" s="10">
+        <v>9.4312935336660353E-3</v>
+      </c>
+      <c r="N37" s="10">
         <v>3534</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0.22818931635540465</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
@@ -7941,13 +7747,13 @@
         <v>95</v>
       </c>
       <c r="M38" s="9">
-        <v>5.0366704957144099E-4</v>
-      </c>
-      <c r="N38" s="11">
-        <v>3.5151619149122801</v>
-      </c>
-      <c r="O38" s="10">
+        <v>5.036670495714412E-4</v>
+      </c>
+      <c r="N38" s="10">
         <v>228</v>
+      </c>
+      <c r="O38" s="11">
+        <v>3.5151619149122806</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
@@ -7962,13 +7768,13 @@
         <v>97</v>
       </c>
       <c r="M39" s="9">
-        <v>8.2424392662369794E-3</v>
-      </c>
-      <c r="N39" s="11">
-        <v>3.18065032593984</v>
-      </c>
-      <c r="O39" s="10">
+        <v>8.2424392662369863E-3</v>
+      </c>
+      <c r="N39" s="10">
         <v>266</v>
+      </c>
+      <c r="O39" s="11">
+        <v>3.1806503259398498</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
@@ -7982,9 +7788,13 @@
       <c r="L40" t="s">
         <v>99</v>
       </c>
-      <c r="M40" s="9"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="10"/>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
@@ -7997,9 +7807,13 @@
       <c r="L41" t="s">
         <v>28</v>
       </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="10"/>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
@@ -8012,9 +7826,13 @@
       <c r="L42" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="9"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="10"/>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -8027,9 +7845,13 @@
       <c r="L43" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="9"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="10"/>
+      <c r="M43" s="9">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
@@ -8042,9 +7864,13 @@
       <c r="L44" t="s">
         <v>56</v>
       </c>
-      <c r="M44" s="9"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="10"/>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10"/>
+      <c r="O44" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
@@ -8057,9 +7883,13 @@
       <c r="L45" t="s">
         <v>17</v>
       </c>
-      <c r="M45" s="9"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="10"/>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
@@ -8072,9 +7902,13 @@
       <c r="L46" t="s">
         <v>108</v>
       </c>
-      <c r="M46" s="9"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="10"/>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
@@ -8087,9 +7921,13 @@
       <c r="L47" t="s">
         <v>102</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="10"/>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="10"/>
+      <c r="O47" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
@@ -8102,9 +7940,13 @@
       <c r="L48" t="s">
         <v>111</v>
       </c>
-      <c r="M48" s="9"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="10"/>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10"/>
+      <c r="O48" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
@@ -8117,9 +7959,13 @@
       <c r="L49" t="s">
         <v>75</v>
       </c>
-      <c r="M49" s="9"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="10"/>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
@@ -8132,9 +7978,13 @@
       <c r="L50" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="9"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="10"/>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
@@ -8147,9 +7997,13 @@
       <c r="L51" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="9"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="10"/>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+      <c r="N51" s="10"/>
+      <c r="O51" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
@@ -8162,9 +8016,13 @@
       <c r="L52" t="s">
         <v>116</v>
       </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="10"/>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
@@ -8177,9 +8035,13 @@
       <c r="L53" t="s">
         <v>70</v>
       </c>
-      <c r="M53" s="9"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="10"/>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10"/>
+      <c r="O53" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
@@ -8192,9 +8054,13 @@
       <c r="L54" t="s">
         <v>119</v>
       </c>
-      <c r="M54" s="9"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="10"/>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+      <c r="N54" s="10"/>
+      <c r="O54" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
@@ -8207,9 +8073,13 @@
       <c r="L55" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="9"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="10"/>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+      <c r="N55" s="10"/>
+      <c r="O55" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
@@ -8222,9 +8092,13 @@
       <c r="L56" t="s">
         <v>35</v>
       </c>
-      <c r="M56" s="9"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="10"/>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="10"/>
+      <c r="O56" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
@@ -8237,9 +8111,13 @@
       <c r="L57" t="s">
         <v>123</v>
       </c>
-      <c r="M57" s="9"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="10"/>
+      <c r="M57" s="9">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10"/>
+      <c r="O57" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
@@ -8252,9 +8130,13 @@
       <c r="L58" t="s">
         <v>125</v>
       </c>
-      <c r="M58" s="9"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="10"/>
+      <c r="M58" s="9">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10"/>
+      <c r="O58" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
@@ -8267,9 +8149,13 @@
       <c r="L59" t="s">
         <v>127</v>
       </c>
-      <c r="M59" s="9"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="10"/>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
@@ -8282,9 +8168,13 @@
       <c r="L60" t="s">
         <v>129</v>
       </c>
-      <c r="M60" s="9"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="10"/>
+      <c r="M60" s="9">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10"/>
+      <c r="O60" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -8297,9 +8187,13 @@
       <c r="L61" t="s">
         <v>58</v>
       </c>
-      <c r="M61" s="9"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="10"/>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="10"/>
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
@@ -8312,9 +8206,13 @@
       <c r="L62" t="s">
         <v>132</v>
       </c>
-      <c r="M62" s="9"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="10"/>
+      <c r="M62" s="9">
+        <v>0</v>
+      </c>
+      <c r="N62" s="10"/>
+      <c r="O62" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
@@ -8327,13 +8225,17 @@
       <c r="L63" t="s">
         <v>134</v>
       </c>
-      <c r="M63" s="9"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="10"/>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="10"/>
+      <c r="O63" s="11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B7:B18">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting pivot="1" sqref="C7:C18">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8345,19 +8247,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D7:D18">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C7:C18">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8369,7 +8259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="G7:G10">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8381,7 +8271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="H7:H10">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8393,6 +8283,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="I7:I10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="N7:N63">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="B7:B18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8404,8 +8318,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="N7:N63">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting pivot="1" sqref="O7:O63">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8417,18 +8331,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="M7:M63">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF7128"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="O7:O63">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8451,8 +8353,8 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8477,7 +8379,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -8555,25 +8457,25 @@
         <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
         <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>0</v>
@@ -8582,13 +8484,13 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
         <v>141</v>
       </c>
       <c r="O6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">

--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -2,27 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{96194E7E-5CB9-514B-AE57-60EFE973D28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5912B7F-47CB-194E-8A93-40C7BB14A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="row_health_marketing" sheetId="1" r:id="rId1"/>
     <sheet name="customer_acquisition" sheetId="3" r:id="rId2"/>
     <sheet name="brand_awareness" sheetId="4" r:id="rId3"/>
+    <sheet name="platform_costs" sheetId="14" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">row_health_marketing!$A$1:$N$59</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId4"/>
+    <pivotCache cacheId="92" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="622" uniqueCount="148">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="644" uniqueCount="155">
   <si>
     <t>campaign_id</t>
   </si>
@@ -488,13 +489,34 @@
   </si>
   <si>
     <t>avg_signup_rate</t>
+  </si>
+  <si>
+    <t>CAMPAIGN CATEGORY</t>
+  </si>
+  <si>
+    <t>PLATFORM</t>
+  </si>
+  <si>
+    <t>CAMPAIGNS</t>
+  </si>
+  <si>
+    <t>Customer Acquisition: Signup-Rates, and Cost-Per-Click, Total Signups</t>
+  </si>
+  <si>
+    <t>total_cost</t>
+  </si>
+  <si>
+    <t>avg_cost</t>
+  </si>
+  <si>
+    <t>Platform Costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -502,6 +524,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -1011,7 +1034,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -1036,6 +1059,7 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="22" builtinId="30" customBuiltin="1"/>
@@ -1092,10 +1116,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1119,10 +1143,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1365,7 +1389,7 @@
     <cacheField name="Field7" numFmtId="0" formula="IFERROR(cost/num_signups, 0)" databaseField="0"/>
     <cacheField name="Field8" numFmtId="0" formula="(cost/num_signups)" databaseField="0"/>
     <cacheField name="Field9" numFmtId="0" formula="Field7" databaseField="0"/>
-    <cacheField name="avg_click_through_rate" numFmtId="0" formula="clicks /impressions" databaseField="0"/>
+    <cacheField name="avg_click_through_rate" numFmtId="0" formula="IFERROR(clicks/impressions, 0)" databaseField="0"/>
     <cacheField name="cpc" numFmtId="0" formula="IFERROR(cost/clicks, 0)" databaseField="0"/>
     <cacheField name="average_cost_per_signup" numFmtId="0" formula="IFERROR(cost/num_signups, 0)" databaseField="0"/>
     <cacheField name="average_signup_rate" numFmtId="0" formula="IFERROR(num_signups/impressions, 0)" databaseField="0"/>
@@ -2296,8 +2320,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="CustAcqPlatform" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="CustAcqPlatform" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F8:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2389,13 +2413,13 @@
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="18">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="24">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2404,7 +2428,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="25">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -2480,8 +2504,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="CustAcqCampaigns" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="CustAcqCampaigns" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="K8:O65" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
@@ -2887,30 +2911,30 @@
   </pageFields>
   <dataFields count="3">
     <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cost_per_signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cost_per_signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="22">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="20">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2922,7 +2946,7 @@
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
@@ -2933,7 +2957,7 @@
         <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
+              <x v="1"/>
             </reference>
           </references>
         </pivotArea>
@@ -2964,8 +2988,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="CustAcqCategory" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="CustAcqCategory" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A8:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3094,8 +3118,8 @@
   </pageFields>
   <dataFields count="3">
     <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="avg_cost_per_signup" fld="22" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cost_per_signup" fld="22" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="5">
     <format dxfId="13">
@@ -3108,7 +3132,7 @@
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="4">
             <x v="4"/>
@@ -3123,7 +3147,7 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -3132,7 +3156,7 @@
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -3144,7 +3168,7 @@
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
+              <x v="2"/>
             </reference>
             <reference field="1" count="12">
               <x v="0"/>
@@ -3169,7 +3193,7 @@
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
+              <x v="1"/>
             </reference>
             <reference field="1" count="12">
               <x v="0"/>
@@ -3228,8 +3252,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="BrandAwareCampaigns" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K6:O63" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="BrandAwareCampaigns" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="K8:O65" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
@@ -3639,13 +3663,13 @@
     <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3654,7 +3678,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3712,8 +3736,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BrandAwareCategory" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BrandAwareCategory" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A8:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3971,8 +3995,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BrandAwarePlatform" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:I11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BrandAwarePlatform" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F8:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4064,13 +4088,13 @@
     <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="2">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4079,7 +4103,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -4142,6 +4166,124 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A59295-C206-5947-B96C-1F11C15C16C6}" name="PivotTable1" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="27">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="6"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="2">
+    <dataField name="total_cost" fld="6" baseField="0" baseItem="0" numFmtId="178"/>
+    <dataField name="avg_cost" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="178"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -4454,7 +4596,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection sqref="A1:N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6777,18 +6919,18 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -6798,605 +6940,579 @@
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1"/>
-    </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A1" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="F4" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="16" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="K3" s="4" t="s">
+      <c r="H5" s="8"/>
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="K5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="F7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="K7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>147</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F8" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
         <v>147</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N8" t="s">
         <v>143</v>
       </c>
-      <c r="I6" t="s">
+      <c r="O8" t="s">
         <v>137</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9">
-        <v>4.9655947198427187E-3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3536</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.65365708303167414</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9">
-        <v>2.0420494067178974E-3</v>
-      </c>
-      <c r="H7" s="11">
-        <v>4.0384909413801457</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4130</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="9">
-        <v>3.3130772135818998E-3</v>
-      </c>
-      <c r="N7" s="10">
-        <v>965</v>
-      </c>
-      <c r="O7" s="11">
-        <v>1.3840070300518135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2.7155855813845043E-3</v>
-      </c>
-      <c r="C8" s="10">
-        <v>3727</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1.7914224210625167</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="9">
-        <v>1.2715879891850735E-3</v>
-      </c>
-      <c r="H8" s="11">
-        <v>5.2397022712453767</v>
-      </c>
-      <c r="I8" s="10">
-        <v>4055</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1.3688390562952581E-3</v>
-      </c>
-      <c r="N8" s="10">
-        <v>586</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2.7720861160409558</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9">
-        <v>3.2569126941264261E-4</v>
-      </c>
-      <c r="C9" s="10">
-        <v>316</v>
-      </c>
-      <c r="D9" s="11">
-        <v>20.800259131012659</v>
+        <v>4.9655947198427187E-3</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.65365708303167414</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3536</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G9" s="9">
-        <v>2.3348485815411352E-3</v>
+        <v>2.0420494067178974E-3</v>
       </c>
       <c r="H9" s="11">
-        <v>2.2456731899211566</v>
+        <v>4.0384909413801457</v>
       </c>
       <c r="I9" s="10">
-        <v>7610</v>
+        <v>4130</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M9" s="9">
-        <v>1.7673274934685722E-4</v>
-      </c>
-      <c r="N9" s="10">
-        <v>46</v>
-      </c>
-      <c r="O9" s="11">
-        <v>42.265782782608696</v>
+        <v>3.3130772135818998E-3</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1.3840070300518135</v>
+      </c>
+      <c r="O9" s="10">
+        <v>965</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9">
-        <v>1.9236230065311581E-4</v>
-      </c>
-      <c r="C10" s="10">
-        <v>63</v>
-      </c>
-      <c r="D10" s="11">
-        <v>24.907103006349207</v>
+        <v>2.7155855813845043E-3</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1.7914224210625167</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3727</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G10" s="9">
-        <v>8.105815348213685E-4</v>
+        <v>1.2715879891850735E-3</v>
       </c>
       <c r="H10" s="11">
-        <v>10.475131325101215</v>
+        <v>5.2397022712453767</v>
       </c>
       <c r="I10" s="10">
-        <v>494</v>
+        <v>4055</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M10" s="9">
-        <v>1.5354057006654086E-2</v>
-      </c>
-      <c r="N10" s="10">
-        <v>1546</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0.87641473868046582</v>
+        <v>1.3688390562952581E-3</v>
+      </c>
+      <c r="N10" s="11">
+        <v>2.7720861160409558</v>
+      </c>
+      <c r="O10" s="10">
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B11" s="9">
-        <v>1.84214835434747E-4</v>
-      </c>
-      <c r="C11" s="10">
-        <v>45</v>
-      </c>
-      <c r="D11" s="11">
-        <v>47.806806040000005</v>
+        <v>3.2569126941264261E-4</v>
+      </c>
+      <c r="C11" s="11">
+        <v>20.800259131012659</v>
+      </c>
+      <c r="D11" s="10">
+        <v>316</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>1.7939121083285472E-3</v>
+        <v>2.3348485815411352E-3</v>
       </c>
       <c r="H11" s="11">
-        <v>3.6951469180244354</v>
+        <v>2.2456731899211566</v>
       </c>
       <c r="I11" s="10">
-        <v>16289</v>
+        <v>7610</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M11" s="9">
-        <v>6.7490045218330297E-6</v>
-      </c>
-      <c r="N11" s="10">
-        <v>1</v>
-      </c>
-      <c r="O11" s="11">
-        <v>1519.167326</v>
+        <v>1.7673274934685722E-4</v>
+      </c>
+      <c r="N11" s="11">
+        <v>42.265782782608696</v>
+      </c>
+      <c r="O11" s="10">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9">
-        <v>4.2424515954325942E-3</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2820</v>
-      </c>
-      <c r="D12" s="11">
-        <v>3.5614212657092206</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>1.9236230065311581E-4</v>
+      </c>
+      <c r="C12" s="11">
+        <v>24.907103006349207</v>
+      </c>
+      <c r="D12" s="10">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="9">
+        <v>8.105815348213685E-4</v>
+      </c>
+      <c r="H12" s="11">
+        <v>10.475131325101215</v>
+      </c>
+      <c r="I12" s="10">
+        <v>494</v>
+      </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M12" s="9">
-        <v>1.2650303090529664E-2</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1273</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.98529939512961506</v>
+        <v>1.5354057006654086E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.87641473868046582</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1546</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9">
-        <v>2.720190865219513E-4</v>
-      </c>
-      <c r="C13" s="10">
-        <v>301</v>
-      </c>
-      <c r="D13" s="11">
-        <v>13.07778360664452</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>1.84214835434747E-4</v>
+      </c>
+      <c r="C13" s="11">
+        <v>47.806806040000005</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.7939121083285472E-3</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3.6951469180244354</v>
+      </c>
+      <c r="I13" s="10">
+        <v>16289</v>
+      </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9">
-        <v>4.1449059106358282E-6</v>
-      </c>
-      <c r="N13" s="10">
-        <v>2</v>
-      </c>
-      <c r="O13" s="11">
-        <v>586.79296550000004</v>
+        <v>6.7490045218330297E-6</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1519.167326</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9">
-        <v>5.4382521930343083E-5</v>
-      </c>
-      <c r="C14" s="10">
-        <v>23</v>
-      </c>
-      <c r="D14" s="11">
-        <v>176.7255131</v>
+        <v>4.2424515954325942E-3</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3.5614212657092206</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2820</v>
       </c>
       <c r="H14" s="8"/>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M14" s="9">
-        <v>3.2670032670032672E-5</v>
-      </c>
-      <c r="N14" s="10">
-        <v>11</v>
-      </c>
-      <c r="O14" s="11">
-        <v>20.280509036363636</v>
+        <v>1.2650303090529664E-2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.98529939512961506</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1273</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B15" s="9">
-        <v>2.0784596532578168E-2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>3545</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1.2262246264315937</v>
+        <v>2.720190865219513E-4</v>
+      </c>
+      <c r="C15" s="11">
+        <v>13.07778360664452</v>
+      </c>
+      <c r="D15" s="10">
+        <v>301</v>
       </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9">
-        <v>2.3710975685850371E-4</v>
-      </c>
-      <c r="N15" s="10">
-        <v>114</v>
-      </c>
-      <c r="O15" s="11">
-        <v>3.4617638868421055</v>
+        <v>4.1449059106358282E-6</v>
+      </c>
+      <c r="N15" s="11">
+        <v>586.79296550000004</v>
+      </c>
+      <c r="O15" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9">
-        <v>5.7566555174364887E-4</v>
-      </c>
-      <c r="C16" s="10">
-        <v>643</v>
-      </c>
-      <c r="D16" s="11">
-        <v>9.7306534317262816</v>
+        <v>5.4382521930343083E-5</v>
+      </c>
+      <c r="C16" s="11">
+        <v>176.7255131</v>
+      </c>
+      <c r="D16" s="10">
+        <v>23</v>
       </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M16" s="9">
-        <v>2.3059185242121444E-4</v>
-      </c>
-      <c r="N16" s="10">
-        <v>51</v>
-      </c>
-      <c r="O16" s="11">
-        <v>16.089811303921568</v>
+        <v>3.2670032670032672E-5</v>
+      </c>
+      <c r="N16" s="11">
+        <v>20.280509036363636</v>
+      </c>
+      <c r="O16" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9">
-        <v>2.8446274934119822E-4</v>
-      </c>
-      <c r="C17" s="10">
-        <v>163</v>
-      </c>
-      <c r="D17" s="11">
-        <v>43.470430236196322</v>
+        <v>2.0784596532578168E-2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.2262246264315937</v>
+      </c>
+      <c r="D17" s="10">
+        <v>3545</v>
       </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M17" s="9">
-        <v>1.0981331736048717E-4</v>
-      </c>
-      <c r="N17" s="10">
-        <v>22</v>
-      </c>
-      <c r="O17" s="11">
-        <v>60.638944863636361</v>
+        <v>2.3710975685850371E-4</v>
+      </c>
+      <c r="N17" s="11">
+        <v>3.4617638868421055</v>
+      </c>
+      <c r="O17" s="10">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>7.9135924349773635E-4</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1107</v>
-      </c>
-      <c r="D18" s="11">
-        <v>4.6749642910569102</v>
+        <v>5.7566555174364887E-4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>9.7306534317262816</v>
+      </c>
+      <c r="D18" s="10">
+        <v>643</v>
       </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" s="9">
-        <v>1.383508577753182E-5</v>
-      </c>
-      <c r="N18" s="10">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
-        <v>244.00899559999999</v>
+        <v>2.3059185242121444E-4</v>
+      </c>
+      <c r="N18" s="11">
+        <v>16.089811303921568</v>
+      </c>
+      <c r="O18" s="10">
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9">
-        <v>1.7939121083285472E-3</v>
-      </c>
-      <c r="C19" s="10">
-        <v>16289</v>
-      </c>
-      <c r="D19" s="11">
-        <v>3.6951469180244336</v>
+        <v>2.8446274934119822E-4</v>
+      </c>
+      <c r="C19" s="11">
+        <v>43.470430236196322</v>
+      </c>
+      <c r="D19" s="10">
+        <v>163</v>
       </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M19" s="9">
-        <v>8.2961733900238521E-5</v>
-      </c>
-      <c r="N19" s="10">
-        <v>24</v>
-      </c>
-      <c r="O19" s="11">
-        <v>47.263200374999997</v>
+        <v>1.0981331736048717E-4</v>
+      </c>
+      <c r="N19" s="11">
+        <v>60.638944863636361</v>
+      </c>
+      <c r="O19" s="10">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>7.9135924349773635E-4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>4.6749642910569102</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1107</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M20" s="9">
-        <v>5.5459869100930067E-4</v>
-      </c>
-      <c r="N20" s="10">
-        <v>161</v>
-      </c>
-      <c r="O20" s="11">
-        <v>0.77668785838509324</v>
+        <v>1.383508577753182E-5</v>
+      </c>
+      <c r="N20" s="11">
+        <v>244.00899559999999</v>
+      </c>
+      <c r="O20" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1.7939121083285472E-3</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3.6951469180244336</v>
+      </c>
+      <c r="D21" s="10">
+        <v>16289</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M21" s="9">
-        <v>9.2841890260885706E-6</v>
-      </c>
-      <c r="N21" s="10">
-        <v>2</v>
-      </c>
-      <c r="O21" s="11">
-        <v>777.78878050000003</v>
+        <v>8.2961733900238521E-5</v>
+      </c>
+      <c r="N21" s="11">
+        <v>47.263200374999997</v>
+      </c>
+      <c r="O21" s="10">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -7405,19 +7521,19 @@
       <c r="D22" s="2"/>
       <c r="H22" s="8"/>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M22" s="9">
-        <v>3.3869602032176122E-6</v>
-      </c>
-      <c r="N22" s="10">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
-        <v>1367.173425</v>
+        <v>5.5459869100930067E-4</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.77668785838509324</v>
+      </c>
+      <c r="O22" s="10">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -7426,19 +7542,19 @@
       <c r="D23" s="2"/>
       <c r="H23" s="8"/>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M23" s="9">
-        <v>5.9755665722379607E-5</v>
-      </c>
-      <c r="N23" s="10">
-        <v>27</v>
-      </c>
-      <c r="O23" s="11">
-        <v>40.34381611111111</v>
+        <v>9.2841890260885706E-6</v>
+      </c>
+      <c r="N23" s="11">
+        <v>777.78878050000003</v>
+      </c>
+      <c r="O23" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -7447,19 +7563,19 @@
       <c r="D24" s="2"/>
       <c r="H24" s="8"/>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M24" s="9">
-        <v>3.7168442530038537E-2</v>
-      </c>
-      <c r="N24" s="10">
-        <v>3279</v>
-      </c>
-      <c r="O24" s="11">
-        <v>0.36144282738639832</v>
+        <v>3.3869602032176122E-6</v>
+      </c>
+      <c r="N24" s="11">
+        <v>1367.173425</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7468,19 +7584,19 @@
       <c r="D25" s="2"/>
       <c r="H25" s="8"/>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M25" s="9">
-        <v>2.1345707656612528E-4</v>
-      </c>
-      <c r="N25" s="10">
-        <v>46</v>
-      </c>
-      <c r="O25" s="11">
-        <v>40.700927608695658</v>
+        <v>5.9755665722379607E-5</v>
+      </c>
+      <c r="N25" s="11">
+        <v>40.34381611111111</v>
+      </c>
+      <c r="O25" s="10">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -7489,19 +7605,19 @@
       <c r="D26" s="2"/>
       <c r="H26" s="8"/>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M26" s="9">
-        <v>2.2004169688179839E-3</v>
-      </c>
-      <c r="N26" s="10">
-        <v>971</v>
-      </c>
-      <c r="O26" s="11">
-        <v>1.877161140061792</v>
+        <v>3.7168442530038537E-2</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.36144282738639832</v>
+      </c>
+      <c r="O26" s="10">
+        <v>3279</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -7510,19 +7626,19 @@
       <c r="D27" s="2"/>
       <c r="H27" s="8"/>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M27" s="9">
-        <v>9.347042328748831E-5</v>
-      </c>
-      <c r="N27" s="10">
-        <v>42</v>
-      </c>
-      <c r="O27" s="11">
-        <v>38.243515904761907</v>
+        <v>2.1345707656612528E-4</v>
+      </c>
+      <c r="N27" s="11">
+        <v>40.700927608695658</v>
+      </c>
+      <c r="O27" s="10">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -7531,19 +7647,19 @@
       <c r="D28" s="2"/>
       <c r="H28" s="8"/>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M28" s="9">
-        <v>6.4713000473509761E-4</v>
-      </c>
-      <c r="N28" s="10">
-        <v>246</v>
-      </c>
-      <c r="O28" s="11">
-        <v>3.0033742556910572</v>
+        <v>2.2004169688179839E-3</v>
+      </c>
+      <c r="N28" s="11">
+        <v>1.877161140061792</v>
+      </c>
+      <c r="O28" s="10">
+        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -7552,19 +7668,19 @@
       <c r="D29" s="2"/>
       <c r="H29" s="8"/>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M29" s="9">
-        <v>3.9012625904383598E-5</v>
-      </c>
-      <c r="N29" s="10">
-        <v>11</v>
-      </c>
-      <c r="O29" s="11">
-        <v>27.615368454545454</v>
+        <v>9.347042328748831E-5</v>
+      </c>
+      <c r="N29" s="11">
+        <v>38.243515904761907</v>
+      </c>
+      <c r="O29" s="10">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -7573,19 +7689,19 @@
       <c r="D30" s="2"/>
       <c r="H30" s="8"/>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M30" s="9">
-        <v>3.733454010634687E-4</v>
-      </c>
-      <c r="N30" s="10">
-        <v>33</v>
-      </c>
-      <c r="O30" s="11">
-        <v>21.536971054545454</v>
+        <v>6.4713000473509761E-4</v>
+      </c>
+      <c r="N30" s="11">
+        <v>3.0033742556910572</v>
+      </c>
+      <c r="O30" s="10">
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -7594,19 +7710,19 @@
       <c r="D31" s="2"/>
       <c r="H31" s="8"/>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M31" s="9">
-        <v>1.5157441814981419E-4</v>
-      </c>
-      <c r="N31" s="10">
-        <v>31</v>
-      </c>
-      <c r="O31" s="11">
-        <v>49.313815516129033</v>
+        <v>3.9012625904383598E-5</v>
+      </c>
+      <c r="N31" s="11">
+        <v>27.615368454545454</v>
+      </c>
+      <c r="O31" s="10">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -7615,19 +7731,19 @@
       <c r="D32" s="2"/>
       <c r="H32" s="8"/>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M32" s="9">
-        <v>3.7720191618573422E-6</v>
-      </c>
-      <c r="N32" s="10">
-        <v>1</v>
-      </c>
-      <c r="O32" s="11">
-        <v>1260.901406</v>
+        <v>3.733454010634687E-4</v>
+      </c>
+      <c r="N32" s="11">
+        <v>21.536971054545454</v>
+      </c>
+      <c r="O32" s="10">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -7636,19 +7752,19 @@
       <c r="D33" s="2"/>
       <c r="H33" s="8"/>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M33" s="9">
-        <v>7.6977355827827318E-5</v>
-      </c>
-      <c r="N33" s="10">
-        <v>12</v>
-      </c>
-      <c r="O33" s="11">
-        <v>120.04885225</v>
+        <v>1.5157441814981419E-4</v>
+      </c>
+      <c r="N33" s="11">
+        <v>49.313815516129033</v>
+      </c>
+      <c r="O33" s="10">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -7657,19 +7773,19 @@
       <c r="D34" s="2"/>
       <c r="H34" s="8"/>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M34" s="9">
-        <v>1.4142604596346494E-4</v>
-      </c>
-      <c r="N34" s="10">
-        <v>12</v>
-      </c>
-      <c r="O34" s="11">
-        <v>25.010500199999999</v>
+        <v>3.7720191618573422E-6</v>
+      </c>
+      <c r="N34" s="11">
+        <v>1260.901406</v>
+      </c>
+      <c r="O34" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -7678,19 +7794,19 @@
       <c r="D35" s="2"/>
       <c r="H35" s="8"/>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M35" s="9">
-        <v>7.3443008225616921E-6</v>
-      </c>
-      <c r="N35" s="10">
-        <v>1</v>
-      </c>
-      <c r="O35" s="11">
-        <v>401.04908810000001</v>
+        <v>7.6977355827827318E-5</v>
+      </c>
+      <c r="N35" s="11">
+        <v>120.04885225</v>
+      </c>
+      <c r="O35" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -7699,19 +7815,19 @@
       <c r="D36" s="2"/>
       <c r="H36" s="8"/>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M36" s="9">
-        <v>2.4778681120144534E-2</v>
-      </c>
-      <c r="N36" s="10">
-        <v>2743</v>
-      </c>
-      <c r="O36" s="11">
-        <v>0.49661231388990151</v>
+        <v>1.4142604596346494E-4</v>
+      </c>
+      <c r="N36" s="11">
+        <v>25.010500199999999</v>
+      </c>
+      <c r="O36" s="10">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -7720,19 +7836,19 @@
       <c r="D37" s="2"/>
       <c r="H37" s="8"/>
       <c r="K37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9">
-        <v>9.4312935336660353E-3</v>
-      </c>
-      <c r="N37" s="10">
-        <v>3534</v>
-      </c>
-      <c r="O37" s="11">
-        <v>0.22818931635540465</v>
+        <v>7.3443008225616921E-6</v>
+      </c>
+      <c r="N37" s="11">
+        <v>401.04908810000001</v>
+      </c>
+      <c r="O37" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
@@ -7741,19 +7857,19 @@
       <c r="D38" s="2"/>
       <c r="H38" s="8"/>
       <c r="K38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M38" s="9">
-        <v>5.036670495714412E-4</v>
-      </c>
-      <c r="N38" s="10">
-        <v>228</v>
-      </c>
-      <c r="O38" s="11">
-        <v>3.5151619149122806</v>
+        <v>2.4778681120144534E-2</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0.49661231388990151</v>
+      </c>
+      <c r="O38" s="10">
+        <v>2743</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
@@ -7762,19 +7878,19 @@
       <c r="D39" s="2"/>
       <c r="H39" s="8"/>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="M39" s="9">
-        <v>8.2424392662369863E-3</v>
-      </c>
-      <c r="N39" s="10">
-        <v>266</v>
-      </c>
-      <c r="O39" s="11">
-        <v>3.1806503259398498</v>
+        <v>9.4312935336660353E-3</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.22818931635540465</v>
+      </c>
+      <c r="O39" s="10">
+        <v>3534</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
@@ -7783,17 +7899,19 @@
       <c r="D40" s="2"/>
       <c r="H40" s="8"/>
       <c r="K40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M40" s="9">
-        <v>0</v>
-      </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="11">
-        <v>0</v>
+        <v>5.036670495714412E-4</v>
+      </c>
+      <c r="N40" s="11">
+        <v>3.5151619149122806</v>
+      </c>
+      <c r="O40" s="10">
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
@@ -7802,17 +7920,19 @@
       <c r="D41" s="2"/>
       <c r="H41" s="8"/>
       <c r="K41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="10"/>
-      <c r="O41" s="11">
-        <v>0</v>
+        <v>8.2424392662369863E-3</v>
+      </c>
+      <c r="N41" s="11">
+        <v>3.1806503259398498</v>
+      </c>
+      <c r="O41" s="10">
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
@@ -7821,18 +7941,18 @@
       <c r="D42" s="2"/>
       <c r="H42" s="8"/>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M42" s="9">
         <v>0</v>
       </c>
-      <c r="N42" s="10"/>
-      <c r="O42" s="11">
+      <c r="N42" s="11">
         <v>0</v>
       </c>
+      <c r="O42" s="10"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -7840,18 +7960,18 @@
       <c r="D43" s="2"/>
       <c r="H43" s="8"/>
       <c r="K43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
       </c>
-      <c r="N43" s="10"/>
-      <c r="O43" s="11">
+      <c r="N43" s="11">
         <v>0</v>
       </c>
+      <c r="O43" s="10"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
@@ -7859,18 +7979,18 @@
       <c r="D44" s="2"/>
       <c r="H44" s="8"/>
       <c r="K44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="M44" s="9">
         <v>0</v>
       </c>
-      <c r="N44" s="10"/>
-      <c r="O44" s="11">
+      <c r="N44" s="11">
         <v>0</v>
       </c>
+      <c r="O44" s="10"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1"/>
@@ -7878,18 +7998,18 @@
       <c r="D45" s="2"/>
       <c r="H45" s="8"/>
       <c r="K45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="M45" s="9">
         <v>0</v>
       </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="11">
+      <c r="N45" s="11">
         <v>0</v>
       </c>
+      <c r="O45" s="10"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
@@ -7897,18 +8017,18 @@
       <c r="D46" s="2"/>
       <c r="H46" s="8"/>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M46" s="9">
         <v>0</v>
       </c>
-      <c r="N46" s="10"/>
-      <c r="O46" s="11">
+      <c r="N46" s="11">
         <v>0</v>
       </c>
+      <c r="O46" s="10"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
@@ -7916,18 +8036,18 @@
       <c r="D47" s="2"/>
       <c r="H47" s="8"/>
       <c r="K47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
       </c>
-      <c r="N47" s="10"/>
-      <c r="O47" s="11">
+      <c r="N47" s="11">
         <v>0</v>
       </c>
+      <c r="O47" s="10"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
@@ -7935,18 +8055,18 @@
       <c r="D48" s="2"/>
       <c r="H48" s="8"/>
       <c r="K48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M48" s="9">
         <v>0</v>
       </c>
-      <c r="N48" s="10"/>
-      <c r="O48" s="11">
+      <c r="N48" s="11">
         <v>0</v>
       </c>
+      <c r="O48" s="10"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
@@ -7954,18 +8074,18 @@
       <c r="D49" s="2"/>
       <c r="H49" s="8"/>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M49" s="9">
         <v>0</v>
       </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="11">
+      <c r="N49" s="11">
         <v>0</v>
       </c>
+      <c r="O49" s="10"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
@@ -7973,18 +8093,18 @@
       <c r="D50" s="2"/>
       <c r="H50" s="8"/>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
       </c>
-      <c r="N50" s="10"/>
-      <c r="O50" s="11">
+      <c r="N50" s="11">
         <v>0</v>
       </c>
+      <c r="O50" s="10"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
@@ -7992,18 +8112,18 @@
       <c r="D51" s="2"/>
       <c r="H51" s="8"/>
       <c r="K51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
       </c>
-      <c r="N51" s="10"/>
-      <c r="O51" s="11">
+      <c r="N51" s="11">
         <v>0</v>
       </c>
+      <c r="O51" s="10"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
@@ -8011,18 +8131,18 @@
       <c r="D52" s="2"/>
       <c r="H52" s="8"/>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
       </c>
-      <c r="N52" s="10"/>
-      <c r="O52" s="11">
+      <c r="N52" s="11">
         <v>0</v>
       </c>
+      <c r="O52" s="10"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
@@ -8030,18 +8150,18 @@
       <c r="D53" s="2"/>
       <c r="H53" s="8"/>
       <c r="K53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L53" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M53" s="9">
         <v>0</v>
       </c>
-      <c r="N53" s="10"/>
-      <c r="O53" s="11">
+      <c r="N53" s="11">
         <v>0</v>
       </c>
+      <c r="O53" s="10"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
@@ -8049,18 +8169,18 @@
       <c r="D54" s="2"/>
       <c r="H54" s="8"/>
       <c r="K54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M54" s="9">
         <v>0</v>
       </c>
-      <c r="N54" s="10"/>
-      <c r="O54" s="11">
+      <c r="N54" s="11">
         <v>0</v>
       </c>
+      <c r="O54" s="10"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
@@ -8068,18 +8188,18 @@
       <c r="D55" s="2"/>
       <c r="H55" s="8"/>
       <c r="K55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M55" s="9">
         <v>0</v>
       </c>
-      <c r="N55" s="10"/>
-      <c r="O55" s="11">
+      <c r="N55" s="11">
         <v>0</v>
       </c>
+      <c r="O55" s="10"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
@@ -8087,18 +8207,18 @@
       <c r="D56" s="2"/>
       <c r="H56" s="8"/>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="M56" s="9">
         <v>0</v>
       </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="11">
+      <c r="N56" s="11">
         <v>0</v>
       </c>
+      <c r="O56" s="10"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
@@ -8106,18 +8226,18 @@
       <c r="D57" s="2"/>
       <c r="H57" s="8"/>
       <c r="K57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L57" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
       </c>
-      <c r="N57" s="10"/>
-      <c r="O57" s="11">
+      <c r="N57" s="11">
         <v>0</v>
       </c>
+      <c r="O57" s="10"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
@@ -8125,18 +8245,18 @@
       <c r="D58" s="2"/>
       <c r="H58" s="8"/>
       <c r="K58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="M58" s="9">
         <v>0</v>
       </c>
-      <c r="N58" s="10"/>
-      <c r="O58" s="11">
+      <c r="N58" s="11">
         <v>0</v>
       </c>
+      <c r="O58" s="10"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
@@ -8144,18 +8264,18 @@
       <c r="D59" s="2"/>
       <c r="H59" s="8"/>
       <c r="K59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L59" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M59" s="9">
         <v>0</v>
       </c>
-      <c r="N59" s="10"/>
-      <c r="O59" s="11">
+      <c r="N59" s="11">
         <v>0</v>
       </c>
+      <c r="O59" s="10"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
@@ -8163,18 +8283,18 @@
       <c r="D60" s="2"/>
       <c r="H60" s="8"/>
       <c r="K60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M60" s="9">
         <v>0</v>
       </c>
-      <c r="N60" s="10"/>
-      <c r="O60" s="11">
+      <c r="N60" s="11">
         <v>0</v>
       </c>
+      <c r="O60" s="10"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -8182,18 +8302,18 @@
       <c r="D61" s="2"/>
       <c r="H61" s="8"/>
       <c r="K61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="M61" s="9">
         <v>0</v>
       </c>
-      <c r="N61" s="10"/>
-      <c r="O61" s="11">
+      <c r="N61" s="11">
         <v>0</v>
       </c>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
@@ -8201,18 +8321,18 @@
       <c r="D62" s="2"/>
       <c r="H62" s="8"/>
       <c r="K62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M62" s="9">
         <v>0</v>
       </c>
-      <c r="N62" s="10"/>
-      <c r="O62" s="11">
+      <c r="N62" s="11">
         <v>0</v>
       </c>
+      <c r="O62" s="10"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
@@ -8220,21 +8340,59 @@
       <c r="D63" s="2"/>
       <c r="H63" s="8"/>
       <c r="K63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
       </c>
-      <c r="N63" s="10"/>
-      <c r="O63" s="11">
+      <c r="N63" s="11">
         <v>0</v>
       </c>
+      <c r="O63" s="10"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="2"/>
+      <c r="H64" s="8"/>
+      <c r="K64" t="s">
+        <v>131</v>
+      </c>
+      <c r="L64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" s="9">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="2"/>
+      <c r="H65" s="8"/>
+      <c r="K65" t="s">
+        <v>133</v>
+      </c>
+      <c r="L65" t="s">
+        <v>134</v>
+      </c>
+      <c r="M65" s="9">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C7:C18">
+  <conditionalFormatting pivot="1" sqref="D9:D20">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8246,7 +8404,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D7:D18">
+  <conditionalFormatting pivot="1" sqref="C9:C20">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8258,7 +8416,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G7:G10">
+  <conditionalFormatting pivot="1" sqref="G9:G12">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -8270,7 +8428,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H7:H10">
+  <conditionalFormatting pivot="1" sqref="H9:H12">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8282,7 +8440,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I7:I10">
+  <conditionalFormatting pivot="1" sqref="I9:I12">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8294,7 +8452,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="N7:N63">
+  <conditionalFormatting pivot="1" sqref="O9:O65">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8306,7 +8464,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B7:B18">
+  <conditionalFormatting pivot="1" sqref="B9:B20">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8318,7 +8476,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="O7:O63">
+  <conditionalFormatting pivot="1" sqref="N9:N65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8330,7 +8488,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="M7:M63">
+  <conditionalFormatting pivot="1" sqref="M9:M65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8351,11 +8509,9 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8382,602 +8538,571 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="F4" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="20" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="K3" s="4" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="K5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="K4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="F5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="K5" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2"/>
+      <c r="F6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="K6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="F7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="K7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>146</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>146</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>141</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I8" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>146</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N8" t="s">
         <v>141</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O8" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.10425502036230866</v>
-      </c>
-      <c r="C7" s="10">
-        <v>712100</v>
-      </c>
-      <c r="D7" s="12">
-        <v>3.1133236066810344E-2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.16708636632883028</v>
-      </c>
-      <c r="H7" s="10">
-        <v>2022478</v>
-      </c>
-      <c r="I7" s="12">
-        <v>4.935649875017941E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="9">
-        <v>7.0415765440999756E-2</v>
-      </c>
-      <c r="N7" s="10">
-        <v>291270</v>
-      </c>
-      <c r="O7" s="12">
-        <v>6.5117834422233067E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="9">
-        <v>9.6227689500804403E-2</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1372448</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5.0554688801559805E-2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="9">
-        <v>7.3219635701800539E-2</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3188926</v>
-      </c>
-      <c r="I8" s="12">
-        <v>9.099666245481644E-2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0.11055828077551974</v>
-      </c>
-      <c r="N8" s="10">
-        <v>428100</v>
-      </c>
-      <c r="O8" s="12">
-        <v>3.4321624001690261E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9">
-        <v>7.6826035512716384E-2</v>
+        <v>0.10425502036230866</v>
       </c>
       <c r="C9" s="10">
-        <v>970244</v>
+        <v>712100</v>
       </c>
       <c r="D9" s="12">
-        <v>8.8179257920579554E-2</v>
+        <v>3.1133236066810344E-2</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G9" s="9">
-        <v>8.616772496772325E-2</v>
+        <v>0.16708636632883028</v>
       </c>
       <c r="H9" s="10">
-        <v>3259312</v>
+        <v>2022478</v>
       </c>
       <c r="I9" s="12">
-        <v>6.0850009258761432E-2</v>
+        <v>4.935649875017941E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M9" s="9">
-        <v>0.1421161825726141</v>
+        <v>7.0415765440999756E-2</v>
       </c>
       <c r="N9" s="10">
-        <v>260280</v>
+        <v>291270</v>
       </c>
       <c r="O9" s="12">
-        <v>5.2560854501216545E-2</v>
+        <v>6.5117834422233067E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" s="9">
-        <v>0.12700033892405352</v>
+        <v>9.6227689500804403E-2</v>
       </c>
       <c r="C10" s="10">
-        <v>327507</v>
+        <v>1372448</v>
       </c>
       <c r="D10" s="12">
-        <v>3.7725786226213233E-2</v>
+        <v>5.0554688801559805E-2</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G10" s="9">
-        <v>0</v>
+        <v>7.3219635701800539E-2</v>
       </c>
       <c r="H10" s="10">
-        <v>609439</v>
+        <v>3188926</v>
       </c>
       <c r="I10" s="12">
-        <v>0</v>
+        <v>9.099666245481644E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M10" s="9">
-        <v>0.42149170722018076</v>
+        <v>0.11055828077551974</v>
       </c>
       <c r="N10" s="10">
-        <v>100690</v>
+        <v>428100</v>
       </c>
       <c r="O10" s="12">
-        <v>3.1925946889726678E-2</v>
+        <v>3.4321624001690261E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B11" s="9">
-        <v>0.22165138365809728</v>
+        <v>7.6826035512716384E-2</v>
       </c>
       <c r="C11" s="10">
-        <v>244280</v>
+        <v>970244</v>
       </c>
       <c r="D11" s="12">
-        <v>3.9732316405946995E-2</v>
+        <v>8.8179257920579554E-2</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="G11" s="9">
-        <v>9.386051229301702E-2</v>
+        <v>8.616772496772325E-2</v>
       </c>
       <c r="H11" s="10">
-        <v>9080155</v>
+        <v>3259312</v>
       </c>
       <c r="I11" s="12">
-        <v>7.0623616218959323E-2</v>
+        <v>6.0850009258761432E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M11" s="9">
-        <v>1.5826415603698456E-2</v>
+        <v>0.1421161825726141</v>
       </c>
       <c r="N11" s="10">
-        <v>148170</v>
+        <v>260280</v>
       </c>
       <c r="O11" s="12">
-        <v>0.64783254840085291</v>
+        <v>5.2560854501216545E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9">
-        <v>0.14043643092476418</v>
+        <v>0.12700033892405352</v>
       </c>
       <c r="C12" s="10">
-        <v>664710</v>
+        <v>327507</v>
       </c>
       <c r="D12" s="12">
-        <v>0.1075871640373007</v>
-      </c>
-      <c r="H12" s="8"/>
+        <v>3.7725786226213233E-2</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>609439</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M12" s="9">
-        <v>0.2194176686872702</v>
+        <v>0.42149170722018076</v>
       </c>
       <c r="N12" s="10">
-        <v>100630</v>
+        <v>100690</v>
       </c>
       <c r="O12" s="12">
-        <v>5.6806437047101449E-2</v>
+        <v>3.1925946889726678E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B13" s="9">
-        <v>0</v>
+        <v>0.22165138365809728</v>
       </c>
       <c r="C13" s="10">
-        <v>1106540</v>
+        <v>244280</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8"/>
+        <v>3.9732316405946995E-2</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="9">
+        <v>9.386051229301702E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>9080155</v>
+      </c>
+      <c r="I13" s="12">
+        <v>7.0623616218959323E-2</v>
+      </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M13" s="9">
-        <v>9.3581613197380425E-2</v>
+        <v>1.5826415603698456E-2</v>
       </c>
       <c r="N13" s="10">
-        <v>482520</v>
+        <v>148170</v>
       </c>
       <c r="O13" s="12">
-        <v>2.599016567379028E-2</v>
+        <v>0.64783254840085291</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9">
-        <v>1.4137091244413969E-2</v>
+        <v>0.14043643092476418</v>
       </c>
       <c r="C14" s="10">
-        <v>422930</v>
+        <v>664710</v>
       </c>
       <c r="D14" s="12">
-        <v>0.67982719540056868</v>
+        <v>0.1075871640373007</v>
       </c>
       <c r="H14" s="8"/>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M14" s="9">
-        <v>0.12525987525987525</v>
+        <v>0.2194176686872702</v>
       </c>
       <c r="N14" s="10">
-        <v>336700</v>
+        <v>100630</v>
       </c>
       <c r="O14" s="12">
-        <v>5.2895222145820982E-3</v>
+        <v>5.6806437047101449E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B15" s="9">
-        <v>0.25476814474756537</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10">
-        <v>170559</v>
+        <v>1106540</v>
       </c>
       <c r="D15" s="12">
-        <v>0.10003834719582078</v>
+        <v>0</v>
       </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M15" s="9">
-        <v>7.1153726159029929E-2</v>
+        <v>9.3581613197380425E-2</v>
       </c>
       <c r="N15" s="10">
-        <v>480790</v>
+        <v>482520</v>
       </c>
       <c r="O15" s="12">
-        <v>1.1535839903536977E-2</v>
+        <v>2.599016567379028E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B16" s="9">
-        <v>0.12235175940582003</v>
+        <v>1.4137091244413969E-2</v>
       </c>
       <c r="C16" s="10">
-        <v>1116968</v>
+        <v>422930</v>
       </c>
       <c r="D16" s="12">
-        <v>4.5782766049333026E-2</v>
+        <v>0.67982719540056868</v>
       </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M16" s="9">
-        <v>5.6336754532712391E-2</v>
+        <v>0.12525987525987525</v>
       </c>
       <c r="N16" s="10">
-        <v>221170</v>
+        <v>336700</v>
       </c>
       <c r="O16" s="12">
-        <v>6.5857173073836275E-2</v>
+        <v>5.2895222145820982E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9">
-        <v>0.18091743599588139</v>
+        <v>0.25476814474756537</v>
       </c>
       <c r="C17" s="10">
-        <v>573010</v>
+        <v>170559</v>
       </c>
       <c r="D17" s="12">
-        <v>6.8350062734222394E-2</v>
+        <v>0.10003834719582078</v>
       </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M17" s="9">
-        <v>1.8139163422182289E-2</v>
+        <v>7.1153726159029929E-2</v>
       </c>
       <c r="N17" s="10">
-        <v>200340</v>
+        <v>480790</v>
       </c>
       <c r="O17" s="12">
-        <v>0.36710423417721516</v>
+        <v>1.1535839903536977E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>6.6175361491043777E-2</v>
+        <v>0.12235175940582003</v>
       </c>
       <c r="C18" s="10">
-        <v>1398859</v>
+        <v>1116968</v>
       </c>
       <c r="D18" s="12">
-        <v>5.5905644055309497E-2</v>
+        <v>4.5782766049333026E-2</v>
       </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M18" s="9">
-        <v>8.3148865522966242E-2</v>
+        <v>5.6336754532712391E-2</v>
       </c>
       <c r="N18" s="10">
-        <v>72280</v>
+        <v>221170</v>
       </c>
       <c r="O18" s="12">
-        <v>4.0600498435940095E-2</v>
+        <v>6.5857173073836275E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9">
-        <v>9.386051229301702E-2</v>
+        <v>0.18091743599588139</v>
       </c>
       <c r="C19" s="10">
-        <v>9080155</v>
+        <v>573010</v>
       </c>
       <c r="D19" s="12">
-        <v>7.0623616218959295E-2</v>
+        <v>6.8350062734222394E-2</v>
       </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M19" s="9">
-        <v>6.3050917764181272E-2</v>
+        <v>1.8139163422182289E-2</v>
       </c>
       <c r="N19" s="10">
-        <v>289290</v>
+        <v>200340</v>
       </c>
       <c r="O19" s="12">
-        <v>6.2188421546052627E-2</v>
+        <v>0.36710423417721516</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9">
+        <v>6.6175361491043777E-2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1398859</v>
+      </c>
+      <c r="D20" s="12">
+        <v>5.5905644055309497E-2</v>
+      </c>
       <c r="H20" s="8"/>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M20" s="9">
-        <v>0.1517051326214261</v>
+        <v>8.3148865522966242E-2</v>
       </c>
       <c r="N20" s="10">
-        <v>290300</v>
+        <v>72280</v>
       </c>
       <c r="O20" s="12">
-        <v>2.8393902179836513E-3</v>
+        <v>4.0600498435940095E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="9">
+        <v>9.386051229301702E-2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9080155</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7.0623616218959295E-2</v>
+      </c>
       <c r="H21" s="8"/>
       <c r="K21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M21" s="9">
-        <v>0.19482870671246866</v>
+        <v>6.3050917764181272E-2</v>
       </c>
       <c r="N21" s="10">
-        <v>215420</v>
+        <v>289290</v>
       </c>
       <c r="O21" s="12">
-        <v>3.7064035287109845E-2</v>
+        <v>6.2188421546052627E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -8986,19 +9111,19 @@
       <c r="D22" s="2"/>
       <c r="H22" s="8"/>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M22" s="9">
-        <v>5.3378492802709565E-2</v>
+        <v>0.1517051326214261</v>
       </c>
       <c r="N22" s="10">
-        <v>295250</v>
+        <v>290300</v>
       </c>
       <c r="O22" s="12">
-        <v>8.6749582804568529E-2</v>
+        <v>2.8393902179836513E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -9007,19 +9132,19 @@
       <c r="D23" s="2"/>
       <c r="H23" s="8"/>
       <c r="K23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M23" s="9">
-        <v>5.1721848441926344E-2</v>
+        <v>0.19482870671246866</v>
       </c>
       <c r="N23" s="10">
-        <v>451840</v>
+        <v>215420</v>
       </c>
       <c r="O23" s="12">
-        <v>4.661031386392811E-2</v>
+        <v>3.7064035287109845E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -9028,19 +9153,19 @@
       <c r="D24" s="2"/>
       <c r="H24" s="8"/>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M24" s="9">
-        <v>0.49255270913625027</v>
+        <v>5.3378492802709565E-2</v>
       </c>
       <c r="N24" s="10">
-        <v>88220</v>
+        <v>295250</v>
       </c>
       <c r="O24" s="12">
-        <v>2.7274780360389387E-2</v>
+        <v>8.6749582804568529E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -9049,19 +9174,19 @@
       <c r="D25" s="2"/>
       <c r="H25" s="8"/>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="M25" s="9">
-        <v>0.11354988399071926</v>
+        <v>5.1721848441926344E-2</v>
       </c>
       <c r="N25" s="10">
-        <v>215500</v>
+        <v>451840</v>
       </c>
       <c r="O25" s="12">
-        <v>7.6511756027789132E-2</v>
+        <v>4.661031386392811E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -9070,19 +9195,19 @@
       <c r="D26" s="2"/>
       <c r="H26" s="8"/>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M26" s="9">
-        <v>6.9151105873821617E-2</v>
+        <v>0.49255270913625027</v>
       </c>
       <c r="N26" s="10">
-        <v>441280</v>
+        <v>88220</v>
       </c>
       <c r="O26" s="12">
-        <v>5.9732048730132721E-2</v>
+        <v>2.7274780360389387E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -9091,19 +9216,19 @@
       <c r="D27" s="2"/>
       <c r="H27" s="8"/>
       <c r="K27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M27" s="9">
-        <v>0</v>
+        <v>0.11354988399071926</v>
       </c>
       <c r="N27" s="10">
-        <v>449340</v>
+        <v>215500</v>
       </c>
       <c r="O27" s="12">
-        <v>0</v>
+        <v>7.6511756027789132E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -9112,19 +9237,19 @@
       <c r="D28" s="2"/>
       <c r="H28" s="8"/>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M28" s="9">
-        <v>6.839585415899406E-2</v>
+        <v>6.9151105873821617E-2</v>
       </c>
       <c r="N28" s="10">
-        <v>380140</v>
+        <v>441280</v>
       </c>
       <c r="O28" s="12">
-        <v>2.8416541034615387E-2</v>
+        <v>5.9732048730132721E-2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -9133,19 +9258,19 @@
       <c r="D29" s="2"/>
       <c r="H29" s="8"/>
       <c r="K29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M29" s="9">
-        <v>0.13626046247694709</v>
+        <v>0</v>
       </c>
       <c r="N29" s="10">
-        <v>281960</v>
+        <v>449340</v>
       </c>
       <c r="O29" s="12">
-        <v>7.9065344351900053E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -9154,19 +9279,19 @@
       <c r="D30" s="2"/>
       <c r="H30" s="8"/>
       <c r="K30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M30" s="9">
-        <v>7.1953840932232158E-2</v>
+        <v>6.839585415899406E-2</v>
       </c>
       <c r="N30" s="10">
-        <v>88390</v>
+        <v>380140</v>
       </c>
       <c r="O30" s="12">
-        <v>0.11174843471698113</v>
+        <v>2.8416541034615387E-2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -9175,19 +9300,19 @@
       <c r="D31" s="2"/>
       <c r="H31" s="8"/>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M31" s="9">
-        <v>0</v>
+        <v>0.13626046247694709</v>
       </c>
       <c r="N31" s="10">
-        <v>204520</v>
+        <v>281960</v>
       </c>
       <c r="O31" s="12">
-        <v>0</v>
+        <v>7.9065344351900053E-3</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -9196,19 +9321,19 @@
       <c r="D32" s="2"/>
       <c r="H32" s="8"/>
       <c r="K32" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M32" s="9">
-        <v>0.14554335936026555</v>
+        <v>7.1953840932232158E-2</v>
       </c>
       <c r="N32" s="10">
-        <v>265110</v>
+        <v>88390</v>
       </c>
       <c r="O32" s="12">
-        <v>3.2678538447583255E-2</v>
+        <v>0.11174843471698113</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -9217,19 +9342,19 @@
       <c r="D33" s="2"/>
       <c r="H33" s="8"/>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M33" s="9">
-        <v>0.30653024568606069</v>
+        <v>0</v>
       </c>
       <c r="N33" s="10">
-        <v>155890</v>
+        <v>204520</v>
       </c>
       <c r="O33" s="12">
-        <v>3.0147247609082349E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -9238,19 +9363,19 @@
       <c r="D34" s="2"/>
       <c r="H34" s="8"/>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M34" s="9">
-        <v>0.3274602239245728</v>
+        <v>0.14554335936026555</v>
       </c>
       <c r="N34" s="10">
-        <v>84850</v>
+        <v>265110</v>
       </c>
       <c r="O34" s="12">
-        <v>1.0801727637214325E-2</v>
+        <v>3.2678538447583255E-2</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -9259,19 +9384,19 @@
       <c r="D35" s="2"/>
       <c r="H35" s="8"/>
       <c r="K35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M35" s="9">
-        <v>9.1252937720329025E-2</v>
+        <v>0.30653024568606069</v>
       </c>
       <c r="N35" s="10">
-        <v>136160</v>
+        <v>155890</v>
       </c>
       <c r="O35" s="12">
-        <v>3.227759260362173E-2</v>
+        <v>3.0147247609082349E-2</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -9280,19 +9405,19 @@
       <c r="D36" s="2"/>
       <c r="H36" s="8"/>
       <c r="K36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L36" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="M36" s="9">
-        <v>0.11779584462511292</v>
+        <v>0.3274602239245728</v>
       </c>
       <c r="N36" s="10">
-        <v>110700</v>
+        <v>84850</v>
       </c>
       <c r="O36" s="12">
-        <v>0.10446377124233128</v>
+        <v>1.0801727637214325E-2</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
@@ -9301,19 +9426,19 @@
       <c r="D37" s="2"/>
       <c r="H37" s="8"/>
       <c r="K37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9">
-        <v>7.9114515225107415E-2</v>
+        <v>9.1252937720329025E-2</v>
       </c>
       <c r="N37" s="10">
-        <v>374710</v>
+        <v>136160</v>
       </c>
       <c r="O37" s="12">
-        <v>2.720259888682746E-2</v>
+        <v>3.227759260362173E-2</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
@@ -9322,19 +9447,19 @@
       <c r="D38" s="2"/>
       <c r="H38" s="8"/>
       <c r="K38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="M38" s="9">
-        <v>0</v>
+        <v>0.11779584462511292</v>
       </c>
       <c r="N38" s="10">
-        <v>452680</v>
+        <v>110700</v>
       </c>
       <c r="O38" s="12">
-        <v>0</v>
+        <v>0.10446377124233128</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
@@ -9343,19 +9468,19 @@
       <c r="D39" s="2"/>
       <c r="H39" s="8"/>
       <c r="K39" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="M39" s="9">
-        <v>0</v>
+        <v>7.9114515225107415E-2</v>
       </c>
       <c r="N39" s="10">
-        <v>32272</v>
+        <v>374710</v>
       </c>
       <c r="O39" s="12">
-        <v>0</v>
+        <v>2.720259888682746E-2</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
@@ -9364,19 +9489,19 @@
       <c r="D40" s="2"/>
       <c r="H40" s="8"/>
       <c r="K40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M40" s="9">
-        <v>8.65099981876397E-2</v>
+        <v>0</v>
       </c>
       <c r="N40" s="10">
-        <v>49659</v>
+        <v>452680</v>
       </c>
       <c r="O40" s="12">
-        <v>0.37529929469273743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
@@ -9385,19 +9510,19 @@
       <c r="D41" s="2"/>
       <c r="H41" s="8"/>
       <c r="K41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L41" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M41" s="9">
-        <v>4.3285685524461444E-2</v>
+        <v>0</v>
       </c>
       <c r="N41" s="10">
-        <v>39736</v>
+        <v>32272</v>
       </c>
       <c r="O41" s="12">
-        <v>0.83035033837209293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
@@ -9406,19 +9531,19 @@
       <c r="D42" s="2"/>
       <c r="H42" s="8"/>
       <c r="K42" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M42" s="9">
-        <v>0</v>
+        <v>8.65099981876397E-2</v>
       </c>
       <c r="N42" s="10">
-        <v>25492</v>
+        <v>49659</v>
       </c>
       <c r="O42" s="12">
-        <v>0</v>
+        <v>0.37529929469273743</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
@@ -9427,19 +9552,19 @@
       <c r="D43" s="2"/>
       <c r="H43" s="8"/>
       <c r="K43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="M43" s="9">
-        <v>0.10951784596117721</v>
+        <v>4.3285685524461444E-2</v>
       </c>
       <c r="N43" s="10">
-        <v>15970</v>
+        <v>39736</v>
       </c>
       <c r="O43" s="12">
-        <v>0.43126295162950257</v>
+        <v>0.83035033837209293</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -9448,19 +9573,19 @@
       <c r="D44" s="2"/>
       <c r="H44" s="8"/>
       <c r="K44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="M44" s="9">
-        <v>0.16385831498899339</v>
+        <v>0</v>
       </c>
       <c r="N44" s="10">
-        <v>24985</v>
+        <v>25492</v>
       </c>
       <c r="O44" s="12">
-        <v>0.33714729604298976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
@@ -9469,19 +9594,19 @@
       <c r="D45" s="2"/>
       <c r="H45" s="8"/>
       <c r="K45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="M45" s="9">
-        <v>5.2965282610376557E-2</v>
+        <v>0.10951784596117721</v>
       </c>
       <c r="N45" s="10">
-        <v>38799</v>
+        <v>15970</v>
       </c>
       <c r="O45" s="12">
-        <v>0.95116568369829679</v>
+        <v>0.43126295162950257</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
@@ -9490,19 +9615,19 @@
       <c r="D46" s="2"/>
       <c r="H46" s="8"/>
       <c r="K46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M46" s="9">
-        <v>0.25112595516421232</v>
+        <v>0.16385831498899339</v>
       </c>
       <c r="N46" s="10">
-        <v>19761</v>
+        <v>24985</v>
       </c>
       <c r="O46" s="12">
-        <v>0.36942692957178841</v>
+        <v>0.33714729604298976</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
@@ -9511,19 +9636,19 @@
       <c r="D47" s="2"/>
       <c r="H47" s="8"/>
       <c r="K47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M47" s="9">
-        <v>0</v>
+        <v>5.2965282610376557E-2</v>
       </c>
       <c r="N47" s="10">
-        <v>35448</v>
+        <v>38799</v>
       </c>
       <c r="O47" s="12">
-        <v>0</v>
+        <v>0.95116568369829679</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
@@ -9532,19 +9657,19 @@
       <c r="D48" s="2"/>
       <c r="H48" s="8"/>
       <c r="K48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M48" s="9">
-        <v>2.9303668701187897E-2</v>
+        <v>0.25112595516421232</v>
       </c>
       <c r="N48" s="10">
-        <v>45711</v>
+        <v>19761</v>
       </c>
       <c r="O48" s="12">
-        <v>0.16831852444942141</v>
+        <v>0.36942692957178841</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
@@ -9553,19 +9678,19 @@
       <c r="D49" s="2"/>
       <c r="H49" s="8"/>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M49" s="9">
-        <v>0.56551043892816044</v>
+        <v>0</v>
       </c>
       <c r="N49" s="10">
-        <v>6083</v>
+        <v>35448</v>
       </c>
       <c r="O49" s="12">
-        <v>0.3456978055232558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
@@ -9574,19 +9699,19 @@
       <c r="D50" s="2"/>
       <c r="H50" s="8"/>
       <c r="K50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="M50" s="9">
-        <v>4.6028162958185528E-2</v>
+        <v>2.9303668701187897E-2</v>
       </c>
       <c r="N50" s="10">
-        <v>46515</v>
+        <v>45711</v>
       </c>
       <c r="O50" s="12">
-        <v>0.40722822414759458</v>
+        <v>0.16831852444942141</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
@@ -9595,19 +9720,19 @@
       <c r="D51" s="2"/>
       <c r="H51" s="8"/>
       <c r="K51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="M51" s="9">
-        <v>6.2758877460790244E-2</v>
+        <v>0.56551043892816044</v>
       </c>
       <c r="N51" s="10">
-        <v>21487</v>
+        <v>6083</v>
       </c>
       <c r="O51" s="12">
-        <v>0.33254809825732295</v>
+        <v>0.3456978055232558</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
@@ -9616,19 +9741,19 @@
       <c r="D52" s="2"/>
       <c r="H52" s="8"/>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L52" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="M52" s="9">
-        <v>9.1390405866215413E-2</v>
+        <v>4.6028162958185528E-2</v>
       </c>
       <c r="N52" s="10">
-        <v>39003</v>
+        <v>46515</v>
       </c>
       <c r="O52" s="12">
-        <v>0.37540459643708796</v>
+        <v>0.40722822414759458</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
@@ -9637,19 +9762,19 @@
       <c r="D53" s="2"/>
       <c r="H53" s="8"/>
       <c r="K53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L53" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M53" s="9">
-        <v>4.7273975091338488E-2</v>
+        <v>6.2758877460790244E-2</v>
       </c>
       <c r="N53" s="10">
-        <v>49541</v>
+        <v>21487</v>
       </c>
       <c r="O53" s="12">
-        <v>0.17278683872758324</v>
+        <v>0.33254809825732295</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
@@ -9658,19 +9783,19 @@
       <c r="D54" s="2"/>
       <c r="H54" s="8"/>
       <c r="K54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M54" s="9">
-        <v>0.41803998049731839</v>
+        <v>9.1390405866215413E-2</v>
       </c>
       <c r="N54" s="10">
-        <v>10255</v>
+        <v>39003</v>
       </c>
       <c r="O54" s="12">
-        <v>0.17910303403312341</v>
+        <v>0.37540459643708796</v>
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
@@ -9679,19 +9804,19 @@
       <c r="D55" s="2"/>
       <c r="H55" s="8"/>
       <c r="K55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M55" s="9">
-        <v>0.40259035210175276</v>
+        <v>4.7273975091338488E-2</v>
       </c>
       <c r="N55" s="10">
-        <v>6447</v>
+        <v>49541</v>
       </c>
       <c r="O55" s="12">
-        <v>0.6201805274513581</v>
+        <v>0.17278683872758324</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
@@ -9700,19 +9825,19 @@
       <c r="D56" s="2"/>
       <c r="H56" s="8"/>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="M56" s="9">
-        <v>0.19455719557195572</v>
+        <v>0.41803998049731839</v>
       </c>
       <c r="N56" s="10">
-        <v>16260</v>
+        <v>10255</v>
       </c>
       <c r="O56" s="12">
-        <v>0.44260102607871027</v>
+        <v>0.17910303403312341</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
@@ -9721,19 +9846,19 @@
       <c r="D57" s="2"/>
       <c r="H57" s="8"/>
       <c r="K57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L57" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="M57" s="9">
-        <v>0</v>
+        <v>0.40259035210175276</v>
       </c>
       <c r="N57" s="10">
-        <v>20437</v>
+        <v>6447</v>
       </c>
       <c r="O57" s="12">
-        <v>0</v>
+        <v>0.6201805274513581</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
@@ -9742,19 +9867,19 @@
       <c r="D58" s="2"/>
       <c r="H58" s="8"/>
       <c r="K58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="M58" s="9">
-        <v>0.25984402965993353</v>
+        <v>0.19455719557195572</v>
       </c>
       <c r="N58" s="10">
-        <v>15644</v>
+        <v>16260</v>
       </c>
       <c r="O58" s="12">
-        <v>0.4596730248462485</v>
+        <v>0.44260102607871027</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
@@ -9763,16 +9888,16 @@
       <c r="D59" s="2"/>
       <c r="H59" s="8"/>
       <c r="K59" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L59" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M59" s="9">
         <v>0</v>
       </c>
       <c r="N59" s="10">
-        <v>13480</v>
+        <v>20437</v>
       </c>
       <c r="O59" s="12">
         <v>0</v>
@@ -9784,19 +9909,19 @@
       <c r="D60" s="2"/>
       <c r="H60" s="8"/>
       <c r="K60" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L60" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M60" s="9">
-        <v>3.1339498806682575E-2</v>
+        <v>0.25984402965993353</v>
       </c>
       <c r="N60" s="10">
-        <v>33520</v>
+        <v>15644</v>
       </c>
       <c r="O60" s="12">
-        <v>1.3449112089481199</v>
+        <v>0.4596730248462485</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
@@ -9805,19 +9930,19 @@
       <c r="D61" s="2"/>
       <c r="H61" s="8"/>
       <c r="K61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L61" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="M61" s="9">
-        <v>0.65739130434782611</v>
+        <v>0</v>
       </c>
       <c r="N61" s="10">
-        <v>6900</v>
+        <v>13480</v>
       </c>
       <c r="O61" s="12">
-        <v>7.1191095304232802E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
@@ -9826,19 +9951,19 @@
       <c r="D62" s="2"/>
       <c r="H62" s="8"/>
       <c r="K62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M62" s="9">
-        <v>5.4339666901243255E-2</v>
+        <v>3.1339498806682575E-2</v>
       </c>
       <c r="N62" s="10">
-        <v>42630</v>
+        <v>33520</v>
       </c>
       <c r="O62" s="12">
-        <v>0.15502339490610836</v>
+        <v>1.3449112089481199</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
@@ -9847,23 +9972,65 @@
       <c r="D63" s="2"/>
       <c r="H63" s="8"/>
       <c r="K63" t="s">
+        <v>130</v>
+      </c>
+      <c r="L63" t="s">
+        <v>58</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0.65739130434782611</v>
+      </c>
+      <c r="N63" s="10">
+        <v>6900</v>
+      </c>
+      <c r="O63" s="12">
+        <v>7.1191095304232802E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="2"/>
+      <c r="H64" s="8"/>
+      <c r="K64" t="s">
+        <v>131</v>
+      </c>
+      <c r="L64" t="s">
+        <v>132</v>
+      </c>
+      <c r="M64" s="9">
+        <v>5.4339666901243255E-2</v>
+      </c>
+      <c r="N64" s="10">
+        <v>42630</v>
+      </c>
+      <c r="O64" s="12">
+        <v>0.15502339490610836</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="2"/>
+      <c r="H65" s="8"/>
+      <c r="K65" t="s">
         <v>133</v>
       </c>
-      <c r="L63" t="s">
+      <c r="L65" t="s">
         <v>134</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M65" s="9">
         <v>0</v>
       </c>
-      <c r="N63" s="10">
+      <c r="N65" s="10">
         <v>29630</v>
       </c>
-      <c r="O63" s="12">
+      <c r="O65" s="12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="B7:B18">
+  <conditionalFormatting pivot="1" sqref="B9:B20">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9875,7 +10042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C7:C18">
+  <conditionalFormatting pivot="1" sqref="C9:C20">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9887,7 +10054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="D7:D18">
+  <conditionalFormatting pivot="1" sqref="D9:D20">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9899,7 +10066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G7:G10">
+  <conditionalFormatting pivot="1" sqref="G9:G12">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9911,7 +10078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H7:H10">
+  <conditionalFormatting pivot="1" sqref="H9:H12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -9923,7 +10090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I7:I10">
+  <conditionalFormatting pivot="1" sqref="I9:I12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -9935,7 +10102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="M7:M63">
+  <conditionalFormatting pivot="1" sqref="M9:M65">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -9947,7 +10114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="N7:N63">
+  <conditionalFormatting pivot="1" sqref="N9:N65">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9959,7 +10126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="O7:O63">
+  <conditionalFormatting pivot="1" sqref="O9:O65">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -9973,4 +10140,124 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA206011-FFEF-8844-88C1-3D6C9DF15E2C}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22">
+        <v>16678.967587900002</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1111.9311725266668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="22">
+        <v>21246.992709900002</v>
+      </c>
+      <c r="C8" s="22">
+        <v>1118.2627742052632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="22">
+        <v>17089.572975300001</v>
+      </c>
+      <c r="C9" s="22">
+        <v>1068.0983109562501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="22">
+        <v>5174.7148746000003</v>
+      </c>
+      <c r="C10" s="22">
+        <v>739.24498208571435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="22">
+        <v>60190.248147700026</v>
+      </c>
+      <c r="C11" s="22">
+        <v>1055.9692657491232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5912B7F-47CB-194E-8A93-40C7BB14A5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5638569-8371-B24C-BEAA-29BB994A9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28760" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="row_health_marketing" sheetId="1" r:id="rId1"/>
@@ -6921,8 +6921,8 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10149,7 +10149,7 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/excel/row_health_marketing_workbook.xlsx
+++ b/excel/row_health_marketing_workbook.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
-  <workbookPr dateCompatibility="0" hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanatkinson/Documents/row_health_wellness_program_analysis/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5638569-8371-B24C-BEAA-29BB994A9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5F25DD6-7477-CB47-B7C2-00394CFF1123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28760" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29860" yWindow="8480" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="row_health_marketing" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="644" uniqueCount="155">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="644" uniqueCount="158">
   <si>
     <t>campaign_id</t>
   </si>
@@ -452,15 +452,9 @@
     <t>Health For All - Health Awareness - TV</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of num_signups</t>
-  </si>
-  <si>
     <t>(All)</t>
   </si>
   <si>
@@ -470,27 +464,12 @@
     <t>VALUES</t>
   </si>
   <si>
-    <t>Sum of impressions</t>
-  </si>
-  <si>
     <t>Brand Awareness: Click-Through-Rates, Impressions, and Cost-Per-Click</t>
   </si>
   <si>
-    <t>avg_cost_per_signup</t>
-  </si>
-  <si>
     <t>cost_per_click</t>
   </si>
   <si>
-    <t>avg_cpc</t>
-  </si>
-  <si>
-    <t>avg_ctr</t>
-  </si>
-  <si>
-    <t>avg_signup_rate</t>
-  </si>
-  <si>
     <t>CAMPAIGN CATEGORY</t>
   </si>
   <si>
@@ -503,19 +482,49 @@
     <t>Customer Acquisition: Signup-Rates, and Cost-Per-Click, Total Signups</t>
   </si>
   <si>
-    <t>total_cost</t>
-  </si>
-  <si>
-    <t>avg_cost</t>
-  </si>
-  <si>
     <t>Platform Costs</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Number of Signups</t>
+  </si>
+  <si>
+    <t>Cost Per Signup</t>
+  </si>
+  <si>
+    <t>Signup Rate</t>
+  </si>
+  <si>
+    <t>Campaign ID</t>
+  </si>
+  <si>
+    <t>Campaign Detail</t>
+  </si>
+  <si>
+    <t>Click-Through-Rate</t>
+  </si>
+  <si>
+    <t>Number of Impressions</t>
+  </si>
+  <si>
+    <t>Cost-Per-Click</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Average Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1188,9 +1197,13 @@
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="PivotTable Style 1" table="0" count="0" xr9:uid="{133D1BB9-0BB0-534A-A61A-6D8A65E9B53B}"/>
+  </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF63BE7B"/>
+      <color rgb="FF057E78"/>
       <color rgb="FFFF7128"/>
     </mruColors>
   </colors>
@@ -2320,8 +2333,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="CustAcqPlatform" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F8:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A2F2C47-DBE5-3240-83CE-B620B5C4B934}" name="CustAcqPlatform" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Platform">
+  <location ref="F9:I14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2408,9 +2421,9 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cost_per_signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Signup Rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Cost Per Signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Number of Signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
     <format dxfId="22">
@@ -2505,9 +2518,9 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="CustAcqCampaigns" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K8:O65" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
+  <location ref="K9:O66" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField name="Campaign ID" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
         <item x="1"/>
@@ -2588,7 +2601,7 @@
         <item x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField name="Campaign Detail" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="42">
         <item x="14"/>
         <item x="26"/>
@@ -2910,9 +2923,9 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cost_per_signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Signup Rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Cost Per Signup" fld="20" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Number of Signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="4">
     <format dxfId="18">
@@ -2988,8 +3001,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="CustAcqCategory" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A8:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{62C628E1-E929-DB4A-A96A-D96C686746DD}" name="CustAcqCategory" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category">
+  <location ref="A9:D22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -3117,9 +3130,9 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_signup_rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cost_per_signup" fld="22" baseField="0" baseItem="0" numFmtId="164"/>
-    <dataField name="Sum of num_signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Signup Rate" fld="14" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Cost Per Signup" fld="22" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Number of Signups" fld="9" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="5">
     <format dxfId="13">
@@ -3255,7 +3268,7 @@
 <pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000002000000}" name="BrandAwareCampaigns" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K8:O65" firstHeaderRow="0" firstDataRow="1" firstDataCol="2" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField name="Campaign ID" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
         <item x="1"/>
@@ -3336,7 +3349,7 @@
         <item x="3"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+    <pivotField name="Campaign Detail" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="42">
         <item x="14"/>
         <item x="26"/>
@@ -3658,9 +3671,9 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_ctr" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Click-Through-Rate" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Number of Impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Cost-Per-Click" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
     <format dxfId="9">
@@ -3736,7 +3749,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BrandAwareCategory" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BrandAwareCategory" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category">
   <location ref="A8:D21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -3865,9 +3878,9 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_ctr" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Click-Through-Rate" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Number of Impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Cost-Per-Click" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="5">
     <format dxfId="4">
@@ -3995,7 +4008,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BrandAwarePlatform" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BrandAwarePlatform" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Platform">
   <location ref="F8:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -4083,9 +4096,9 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="3">
-    <dataField name="avg_ctr" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="Sum of impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
-    <dataField name="avg_cpc" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Click-Through-Rate" fld="23" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Number of Impressions" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
+    <dataField name="Cost-Per-Click" fld="24" baseField="0" baseItem="0" numFmtId="168"/>
   </dataFields>
   <formats count="4">
     <format dxfId="0">
@@ -4179,7 +4192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A59295-C206-5947-B96C-1F11C15C16C6}" name="PivotTable1" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2A59295-C206-5947-B96C-1F11C15C16C6}" name="PivotTable1" cacheId="92" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Platform">
   <location ref="A6:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -4281,8 +4294,8 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="2">
-    <dataField name="total_cost" fld="6" baseField="0" baseItem="0" numFmtId="178"/>
-    <dataField name="avg_cost" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="178"/>
+    <dataField name="Total Cost" fld="6" baseField="0" baseItem="0" numFmtId="178"/>
+    <dataField name="Average Cost" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="178"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4596,7 +4609,7 @@
   <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:N58"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4658,7 +4671,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -6919,621 +6932,600 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O65"/>
+  <dimension ref="A2:O66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="2" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>150</v>
-      </c>
+      <c r="A2" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3"/>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>149</v>
+      <c r="A4" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
-      <c r="F5" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="K5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="F8" s="16" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="F7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="K7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="H8" s="19"/>
+      <c r="K8" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>147</v>
-      </c>
-      <c r="N8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="9">
-        <v>4.9655947198427187E-3</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.65365708303167414</v>
-      </c>
-      <c r="D9" s="10">
-        <v>3536</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="9">
-        <v>2.0420494067178974E-3</v>
-      </c>
-      <c r="H9" s="11">
-        <v>4.0384909413801457</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4130</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="9">
-        <v>3.3130772135818998E-3</v>
-      </c>
-      <c r="N9" s="11">
-        <v>1.3840070300518135</v>
-      </c>
-      <c r="O9" s="10">
-        <v>965</v>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" t="s">
+        <v>150</v>
+      </c>
+      <c r="N9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B10" s="9">
-        <v>2.7155855813845043E-3</v>
+        <v>4.9655947198427187E-3</v>
       </c>
       <c r="C10" s="11">
-        <v>1.7914224210625167</v>
+        <v>0.65365708303167414</v>
       </c>
       <c r="D10" s="10">
-        <v>3727</v>
+        <v>3536</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G10" s="9">
-        <v>1.2715879891850735E-3</v>
+        <v>2.0420494067178974E-3</v>
       </c>
       <c r="H10" s="11">
-        <v>5.2397022712453767</v>
+        <v>4.0384909413801457</v>
       </c>
       <c r="I10" s="10">
-        <v>4055</v>
+        <v>4130</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M10" s="9">
-        <v>1.3688390562952581E-3</v>
+        <v>3.3130772135818998E-3</v>
       </c>
       <c r="N10" s="11">
-        <v>2.7720861160409558</v>
+        <v>1.3840070300518135</v>
       </c>
       <c r="O10" s="10">
-        <v>586</v>
+        <v>965</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9">
-        <v>3.2569126941264261E-4</v>
+        <v>2.7155855813845043E-3</v>
       </c>
       <c r="C11" s="11">
-        <v>20.800259131012659</v>
+        <v>1.7914224210625167</v>
       </c>
       <c r="D11" s="10">
-        <v>316</v>
+        <v>3727</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G11" s="9">
-        <v>2.3348485815411352E-3</v>
+        <v>1.2715879891850735E-3</v>
       </c>
       <c r="H11" s="11">
-        <v>2.2456731899211566</v>
+        <v>5.2397022712453767</v>
       </c>
       <c r="I11" s="10">
-        <v>7610</v>
+        <v>4055</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M11" s="9">
-        <v>1.7673274934685722E-4</v>
+        <v>1.3688390562952581E-3</v>
       </c>
       <c r="N11" s="11">
-        <v>42.265782782608696</v>
+        <v>2.7720861160409558</v>
       </c>
       <c r="O11" s="10">
-        <v>46</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9">
-        <v>1.9236230065311581E-4</v>
+        <v>3.2569126941264261E-4</v>
       </c>
       <c r="C12" s="11">
-        <v>24.907103006349207</v>
+        <v>20.800259131012659</v>
       </c>
       <c r="D12" s="10">
-        <v>63</v>
+        <v>316</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="G12" s="9">
-        <v>8.105815348213685E-4</v>
+        <v>2.3348485815411352E-3</v>
       </c>
       <c r="H12" s="11">
-        <v>10.475131325101215</v>
+        <v>2.2456731899211566</v>
       </c>
       <c r="I12" s="10">
-        <v>494</v>
+        <v>7610</v>
       </c>
       <c r="K12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M12" s="9">
-        <v>1.5354057006654086E-2</v>
+        <v>1.7673274934685722E-4</v>
       </c>
       <c r="N12" s="11">
-        <v>0.87641473868046582</v>
+        <v>42.265782782608696</v>
       </c>
       <c r="O12" s="10">
-        <v>1546</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B13" s="9">
-        <v>1.84214835434747E-4</v>
+        <v>1.9236230065311581E-4</v>
       </c>
       <c r="C13" s="11">
-        <v>47.806806040000005</v>
+        <v>24.907103006349207</v>
       </c>
       <c r="D13" s="10">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="G13" s="9">
-        <v>1.7939121083285472E-3</v>
+        <v>8.105815348213685E-4</v>
       </c>
       <c r="H13" s="11">
-        <v>3.6951469180244354</v>
+        <v>10.475131325101215</v>
       </c>
       <c r="I13" s="10">
-        <v>16289</v>
+        <v>494</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M13" s="9">
-        <v>6.7490045218330297E-6</v>
+        <v>1.5354057006654086E-2</v>
       </c>
       <c r="N13" s="11">
-        <v>1519.167326</v>
+        <v>0.87641473868046582</v>
       </c>
       <c r="O13" s="10">
-        <v>1</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B14" s="9">
-        <v>4.2424515954325942E-3</v>
+        <v>1.84214835434747E-4</v>
       </c>
       <c r="C14" s="11">
-        <v>3.5614212657092206</v>
+        <v>47.806806040000005</v>
       </c>
       <c r="D14" s="10">
-        <v>2820</v>
-      </c>
-      <c r="H14" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.7939121083285472E-3</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3.6951469180244354</v>
+      </c>
+      <c r="I14" s="10">
+        <v>16289</v>
+      </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M14" s="9">
-        <v>1.2650303090529664E-2</v>
+        <v>6.7490045218330297E-6</v>
       </c>
       <c r="N14" s="11">
-        <v>0.98529939512961506</v>
+        <v>1519.167326</v>
       </c>
       <c r="O14" s="10">
-        <v>1273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="B15" s="9">
-        <v>2.720190865219513E-4</v>
+        <v>4.2424515954325942E-3</v>
       </c>
       <c r="C15" s="11">
-        <v>13.07778360664452</v>
+        <v>3.5614212657092206</v>
       </c>
       <c r="D15" s="10">
-        <v>301</v>
+        <v>2820</v>
       </c>
       <c r="H15" s="8"/>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M15" s="9">
-        <v>4.1449059106358282E-6</v>
+        <v>1.2650303090529664E-2</v>
       </c>
       <c r="N15" s="11">
-        <v>586.79296550000004</v>
+        <v>0.98529939512961506</v>
       </c>
       <c r="O15" s="10">
-        <v>2</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B16" s="9">
-        <v>5.4382521930343083E-5</v>
+        <v>2.720190865219513E-4</v>
       </c>
       <c r="C16" s="11">
-        <v>176.7255131</v>
+        <v>13.07778360664452</v>
       </c>
       <c r="D16" s="10">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="H16" s="8"/>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M16" s="9">
-        <v>3.2670032670032672E-5</v>
+        <v>4.1449059106358282E-6</v>
       </c>
       <c r="N16" s="11">
-        <v>20.280509036363636</v>
+        <v>586.79296550000004</v>
       </c>
       <c r="O16" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="B17" s="9">
-        <v>2.0784596532578168E-2</v>
+        <v>5.4382521930343083E-5</v>
       </c>
       <c r="C17" s="11">
-        <v>1.2262246264315937</v>
+        <v>176.7255131</v>
       </c>
       <c r="D17" s="10">
-        <v>3545</v>
+        <v>23</v>
       </c>
       <c r="H17" s="8"/>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M17" s="9">
-        <v>2.3710975685850371E-4</v>
+        <v>3.2670032670032672E-5</v>
       </c>
       <c r="N17" s="11">
-        <v>3.4617638868421055</v>
+        <v>20.280509036363636</v>
       </c>
       <c r="O17" s="10">
-        <v>114</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B18" s="9">
-        <v>5.7566555174364887E-4</v>
+        <v>2.0784596532578168E-2</v>
       </c>
       <c r="C18" s="11">
-        <v>9.7306534317262816</v>
+        <v>1.2262246264315937</v>
       </c>
       <c r="D18" s="10">
-        <v>643</v>
+        <v>3545</v>
       </c>
       <c r="H18" s="8"/>
       <c r="K18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M18" s="9">
-        <v>2.3059185242121444E-4</v>
+        <v>2.3710975685850371E-4</v>
       </c>
       <c r="N18" s="11">
-        <v>16.089811303921568</v>
+        <v>3.4617638868421055</v>
       </c>
       <c r="O18" s="10">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B19" s="9">
-        <v>2.8446274934119822E-4</v>
+        <v>5.7566555174364887E-4</v>
       </c>
       <c r="C19" s="11">
-        <v>43.470430236196322</v>
+        <v>9.7306534317262816</v>
       </c>
       <c r="D19" s="10">
-        <v>163</v>
+        <v>643</v>
       </c>
       <c r="H19" s="8"/>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M19" s="9">
-        <v>1.0981331736048717E-4</v>
+        <v>2.3059185242121444E-4</v>
       </c>
       <c r="N19" s="11">
-        <v>60.638944863636361</v>
+        <v>16.089811303921568</v>
       </c>
       <c r="O19" s="10">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B20" s="9">
-        <v>7.9135924349773635E-4</v>
+        <v>2.8446274934119822E-4</v>
       </c>
       <c r="C20" s="11">
-        <v>4.6749642910569102</v>
+        <v>43.470430236196322</v>
       </c>
       <c r="D20" s="10">
-        <v>1107</v>
+        <v>163</v>
       </c>
       <c r="H20" s="8"/>
       <c r="K20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M20" s="9">
-        <v>1.383508577753182E-5</v>
+        <v>1.0981331736048717E-4</v>
       </c>
       <c r="N20" s="11">
-        <v>244.00899559999999</v>
+        <v>60.638944863636361</v>
       </c>
       <c r="O20" s="10">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9">
-        <v>1.7939121083285472E-3</v>
+        <v>7.9135924349773635E-4</v>
       </c>
       <c r="C21" s="11">
-        <v>3.6951469180244336</v>
+        <v>4.6749642910569102</v>
       </c>
       <c r="D21" s="10">
-        <v>16289</v>
+        <v>1107</v>
       </c>
       <c r="H21" s="8"/>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M21" s="9">
-        <v>8.2961733900238521E-5</v>
+        <v>1.383508577753182E-5</v>
       </c>
       <c r="N21" s="11">
-        <v>47.263200374999997</v>
+        <v>244.00899559999999</v>
       </c>
       <c r="O21" s="10">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1.7939121083285472E-3</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3.6951469180244336</v>
+      </c>
+      <c r="D22" s="10">
+        <v>16289</v>
+      </c>
       <c r="H22" s="8"/>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M22" s="9">
-        <v>5.5459869100930067E-4</v>
+        <v>8.2961733900238521E-5</v>
       </c>
       <c r="N22" s="11">
-        <v>0.77668785838509324</v>
+        <v>47.263200374999997</v>
       </c>
       <c r="O22" s="10">
-        <v>161</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -7542,19 +7534,19 @@
       <c r="D23" s="2"/>
       <c r="H23" s="8"/>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M23" s="9">
-        <v>9.2841890260885706E-6</v>
+        <v>5.5459869100930067E-4</v>
       </c>
       <c r="N23" s="11">
-        <v>777.78878050000003</v>
+        <v>0.77668785838509324</v>
       </c>
       <c r="O23" s="10">
-        <v>2</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -7563,19 +7555,19 @@
       <c r="D24" s="2"/>
       <c r="H24" s="8"/>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M24" s="9">
-        <v>3.3869602032176122E-6</v>
+        <v>9.2841890260885706E-6</v>
       </c>
       <c r="N24" s="11">
-        <v>1367.173425</v>
+        <v>777.78878050000003</v>
       </c>
       <c r="O24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -7584,19 +7576,19 @@
       <c r="D25" s="2"/>
       <c r="H25" s="8"/>
       <c r="K25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M25" s="9">
-        <v>5.9755665722379607E-5</v>
+        <v>3.3869602032176122E-6</v>
       </c>
       <c r="N25" s="11">
-        <v>40.34381611111111</v>
+        <v>1367.173425</v>
       </c>
       <c r="O25" s="10">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -7605,19 +7597,19 @@
       <c r="D26" s="2"/>
       <c r="H26" s="8"/>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M26" s="9">
-        <v>3.7168442530038537E-2</v>
+        <v>5.9755665722379607E-5</v>
       </c>
       <c r="N26" s="11">
-        <v>0.36144282738639832</v>
+        <v>40.34381611111111</v>
       </c>
       <c r="O26" s="10">
-        <v>3279</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -7626,19 +7618,19 @@
       <c r="D27" s="2"/>
       <c r="H27" s="8"/>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M27" s="9">
-        <v>2.1345707656612528E-4</v>
+        <v>3.7168442530038537E-2</v>
       </c>
       <c r="N27" s="11">
-        <v>40.700927608695658</v>
+        <v>0.36144282738639832</v>
       </c>
       <c r="O27" s="10">
-        <v>46</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -7647,19 +7639,19 @@
       <c r="D28" s="2"/>
       <c r="H28" s="8"/>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M28" s="9">
-        <v>2.2004169688179839E-3</v>
+        <v>2.1345707656612528E-4</v>
       </c>
       <c r="N28" s="11">
-        <v>1.877161140061792</v>
+        <v>40.700927608695658</v>
       </c>
       <c r="O28" s="10">
-        <v>971</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -7668,19 +7660,19 @@
       <c r="D29" s="2"/>
       <c r="H29" s="8"/>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M29" s="9">
-        <v>9.347042328748831E-5</v>
+        <v>2.2004169688179839E-3</v>
       </c>
       <c r="N29" s="11">
-        <v>38.243515904761907</v>
+        <v>1.877161140061792</v>
       </c>
       <c r="O29" s="10">
-        <v>42</v>
+        <v>971</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -7689,19 +7681,19 @@
       <c r="D30" s="2"/>
       <c r="H30" s="8"/>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M30" s="9">
-        <v>6.4713000473509761E-4</v>
+        <v>9.347042328748831E-5</v>
       </c>
       <c r="N30" s="11">
-        <v>3.0033742556910572</v>
+        <v>38.243515904761907</v>
       </c>
       <c r="O30" s="10">
-        <v>246</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -7710,19 +7702,19 @@
       <c r="D31" s="2"/>
       <c r="H31" s="8"/>
       <c r="K31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M31" s="9">
-        <v>3.9012625904383598E-5</v>
+        <v>6.4713000473509761E-4</v>
       </c>
       <c r="N31" s="11">
-        <v>27.615368454545454</v>
+        <v>3.0033742556910572</v>
       </c>
       <c r="O31" s="10">
-        <v>11</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -7731,19 +7723,19 @@
       <c r="D32" s="2"/>
       <c r="H32" s="8"/>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M32" s="9">
-        <v>3.733454010634687E-4</v>
+        <v>3.9012625904383598E-5</v>
       </c>
       <c r="N32" s="11">
-        <v>21.536971054545454</v>
+        <v>27.615368454545454</v>
       </c>
       <c r="O32" s="10">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
@@ -7752,19 +7744,19 @@
       <c r="D33" s="2"/>
       <c r="H33" s="8"/>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M33" s="9">
-        <v>1.5157441814981419E-4</v>
+        <v>3.733454010634687E-4</v>
       </c>
       <c r="N33" s="11">
-        <v>49.313815516129033</v>
+        <v>21.536971054545454</v>
       </c>
       <c r="O33" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
@@ -7773,19 +7765,19 @@
       <c r="D34" s="2"/>
       <c r="H34" s="8"/>
       <c r="K34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M34" s="9">
-        <v>3.7720191618573422E-6</v>
+        <v>1.5157441814981419E-4</v>
       </c>
       <c r="N34" s="11">
-        <v>1260.901406</v>
+        <v>49.313815516129033</v>
       </c>
       <c r="O34" s="10">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
@@ -7794,19 +7786,19 @@
       <c r="D35" s="2"/>
       <c r="H35" s="8"/>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M35" s="9">
-        <v>7.6977355827827318E-5</v>
+        <v>3.7720191618573422E-6</v>
       </c>
       <c r="N35" s="11">
-        <v>120.04885225</v>
+        <v>1260.901406</v>
       </c>
       <c r="O35" s="10">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
@@ -7815,16 +7807,16 @@
       <c r="D36" s="2"/>
       <c r="H36" s="8"/>
       <c r="K36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M36" s="9">
-        <v>1.4142604596346494E-4</v>
+        <v>7.6977355827827318E-5</v>
       </c>
       <c r="N36" s="11">
-        <v>25.010500199999999</v>
+        <v>120.04885225</v>
       </c>
       <c r="O36" s="10">
         <v>12</v>
@@ -7836,19 +7828,19 @@
       <c r="D37" s="2"/>
       <c r="H37" s="8"/>
       <c r="K37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M37" s="9">
-        <v>7.3443008225616921E-6</v>
+        <v>1.4142604596346494E-4</v>
       </c>
       <c r="N37" s="11">
-        <v>401.04908810000001</v>
+        <v>25.010500199999999</v>
       </c>
       <c r="O37" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
@@ -7857,19 +7849,19 @@
       <c r="D38" s="2"/>
       <c r="H38" s="8"/>
       <c r="K38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M38" s="9">
-        <v>2.4778681120144534E-2</v>
+        <v>7.3443008225616921E-6</v>
       </c>
       <c r="N38" s="11">
-        <v>0.49661231388990151</v>
+        <v>401.04908810000001</v>
       </c>
       <c r="O38" s="10">
-        <v>2743</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
@@ -7878,19 +7870,19 @@
       <c r="D39" s="2"/>
       <c r="H39" s="8"/>
       <c r="K39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="M39" s="9">
-        <v>9.4312935336660353E-3</v>
+        <v>2.4778681120144534E-2</v>
       </c>
       <c r="N39" s="11">
-        <v>0.22818931635540465</v>
+        <v>0.49661231388990151</v>
       </c>
       <c r="O39" s="10">
-        <v>3534</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
@@ -7899,19 +7891,19 @@
       <c r="D40" s="2"/>
       <c r="H40" s="8"/>
       <c r="K40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="M40" s="9">
-        <v>5.036670495714412E-4</v>
+        <v>9.4312935336660353E-3</v>
       </c>
       <c r="N40" s="11">
-        <v>3.5151619149122806</v>
+        <v>0.22818931635540465</v>
       </c>
       <c r="O40" s="10">
-        <v>228</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
@@ -7920,19 +7912,19 @@
       <c r="D41" s="2"/>
       <c r="H41" s="8"/>
       <c r="K41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M41" s="9">
-        <v>8.2424392662369863E-3</v>
+        <v>5.036670495714412E-4</v>
       </c>
       <c r="N41" s="11">
-        <v>3.1806503259398498</v>
+        <v>3.5151619149122806</v>
       </c>
       <c r="O41" s="10">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
@@ -7941,18 +7933,20 @@
       <c r="D42" s="2"/>
       <c r="H42" s="8"/>
       <c r="K42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M42" s="9">
-        <v>0</v>
+        <v>8.2424392662369863E-3</v>
       </c>
       <c r="N42" s="11">
-        <v>0</v>
-      </c>
-      <c r="O42" s="10"/>
+        <v>3.1806503259398498</v>
+      </c>
+      <c r="O42" s="10">
+        <v>266</v>
+      </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
@@ -7960,10 +7954,10 @@
       <c r="D43" s="2"/>
       <c r="H43" s="8"/>
       <c r="K43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L43" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="M43" s="9">
         <v>0</v>
@@ -7979,10 +7973,10 @@
       <c r="D44" s="2"/>
       <c r="H44" s="8"/>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="M44" s="9">
         <v>0</v>
@@ -7998,10 +7992,10 @@
       <c r="D45" s="2"/>
       <c r="H45" s="8"/>
       <c r="K45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M45" s="9">
         <v>0</v>
@@ -8017,10 +8011,10 @@
       <c r="D46" s="2"/>
       <c r="H46" s="8"/>
       <c r="K46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="M46" s="9">
         <v>0</v>
@@ -8036,10 +8030,10 @@
       <c r="D47" s="2"/>
       <c r="H47" s="8"/>
       <c r="K47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M47" s="9">
         <v>0</v>
@@ -8055,10 +8049,10 @@
       <c r="D48" s="2"/>
       <c r="H48" s="8"/>
       <c r="K48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="M48" s="9">
         <v>0</v>
@@ -8074,10 +8068,10 @@
       <c r="D49" s="2"/>
       <c r="H49" s="8"/>
       <c r="K49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M49" s="9">
         <v>0</v>
@@ -8093,10 +8087,10 @@
       <c r="D50" s="2"/>
       <c r="H50" s="8"/>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -8112,10 +8106,10 @@
       <c r="D51" s="2"/>
       <c r="H51" s="8"/>
       <c r="K51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L51" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="M51" s="9">
         <v>0</v>
@@ -8131,10 +8125,10 @@
       <c r="D52" s="2"/>
       <c r="H52" s="8"/>
       <c r="K52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M52" s="9">
         <v>0</v>
@@ -8150,10 +8144,10 @@
       <c r="D53" s="2"/>
       <c r="H53" s="8"/>
       <c r="K53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="M53" s="9">
         <v>0</v>
@@ -8169,10 +8163,10 @@
       <c r="D54" s="2"/>
       <c r="H54" s="8"/>
       <c r="K54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="M54" s="9">
         <v>0</v>
@@ -8188,10 +8182,10 @@
       <c r="D55" s="2"/>
       <c r="H55" s="8"/>
       <c r="K55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="M55" s="9">
         <v>0</v>
@@ -8207,10 +8201,10 @@
       <c r="D56" s="2"/>
       <c r="H56" s="8"/>
       <c r="K56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L56" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="M56" s="9">
         <v>0</v>
@@ -8226,10 +8220,10 @@
       <c r="D57" s="2"/>
       <c r="H57" s="8"/>
       <c r="K57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
@@ -8245,10 +8239,10 @@
       <c r="D58" s="2"/>
       <c r="H58" s="8"/>
       <c r="K58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L58" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="M58" s="9">
         <v>0</v>
@@ -8264,10 +8258,10 @@
       <c r="D59" s="2"/>
       <c r="H59" s="8"/>
       <c r="K59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L59" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="M59" s="9">
         <v>0</v>
@@ -8283,10 +8277,10 @@
       <c r="D60" s="2"/>
       <c r="H60" s="8"/>
       <c r="K60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M60" s="9">
         <v>0</v>
@@ -8302,10 +8296,10 @@
       <c r="D61" s="2"/>
       <c r="H61" s="8"/>
       <c r="K61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M61" s="9">
         <v>0</v>
@@ -8321,10 +8315,10 @@
       <c r="D62" s="2"/>
       <c r="H62" s="8"/>
       <c r="K62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M62" s="9">
         <v>0</v>
@@ -8340,10 +8334,10 @@
       <c r="D63" s="2"/>
       <c r="H63" s="8"/>
       <c r="K63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L63" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="M63" s="9">
         <v>0</v>
@@ -8359,10 +8353,10 @@
       <c r="D64" s="2"/>
       <c r="H64" s="8"/>
       <c r="K64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="M64" s="9">
         <v>0</v>
@@ -8378,10 +8372,10 @@
       <c r="D65" s="2"/>
       <c r="H65" s="8"/>
       <c r="K65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M65" s="9">
         <v>0</v>
@@ -8391,8 +8385,27 @@
       </c>
       <c r="O65" s="10"/>
     </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B66" s="1"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="2"/>
+      <c r="H66" s="8"/>
+      <c r="K66" t="s">
+        <v>133</v>
+      </c>
+      <c r="L66" t="s">
+        <v>134</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10"/>
+    </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="D9:D20">
+  <conditionalFormatting pivot="1" sqref="D10:D21">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8404,7 +8417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C9:C20">
+  <conditionalFormatting pivot="1" sqref="C10:C21">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8416,7 +8429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="G9:G12">
+  <conditionalFormatting pivot="1" sqref="G10:G13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -8428,7 +8441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="H9:H12">
+  <conditionalFormatting pivot="1" sqref="H10:H13">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -8440,7 +8453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="I9:I12">
+  <conditionalFormatting pivot="1" sqref="I10:I13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8452,7 +8465,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="O9:O65">
+  <conditionalFormatting pivot="1" sqref="O10:O66">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8464,7 +8477,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="B9:B20">
+  <conditionalFormatting pivot="1" sqref="B10:B21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8476,7 +8489,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="N9:N65">
+  <conditionalFormatting pivot="1" sqref="N10:N66">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -8488,7 +8501,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="M9:M65">
+  <conditionalFormatting pivot="1" sqref="M10:M66">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -8511,50 +8524,52 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -8562,12 +8577,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="F5" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
@@ -8575,7 +8590,7 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M5" s="2"/>
     </row>
@@ -8584,7 +8599,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="2"/>
@@ -8592,72 +8607,72 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H6" s="8"/>
       <c r="K6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:15" s="16" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="F7" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="19"/>
       <c r="K7" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="M8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -8838,7 +8853,7 @@
         <v>3.9732316405946995E-2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="9">
         <v>9.386051229301702E-2</v>
@@ -9077,7 +9092,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="9">
         <v>9.386051229301702E-2</v>
@@ -10149,25 +10164,25 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -10175,7 +10190,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -10183,23 +10198,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -10248,7 +10263,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="22">
         <v>60190.248147700026</v>
